--- a/SimpleBox4PFAS/src/main/webapp/resources/templates/scenarios.xlsx
+++ b/SimpleBox4PFAS/src/main/webapp/resources/templates/scenarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\git\SimpleBox4Nano\SimpleBox4Nano\src\main\webapp\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\git\SimpleBox4PFAS\SimpleBox4PFAS\src\main\webapp\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB903C8D-A86B-47C7-9295-EF9705B1BC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4229CC10-6A21-4539-931B-320A0D39A091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,19 +150,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="150">
   <si>
     <t>Scenario</t>
   </si>
@@ -203,9 +196,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Solid species ENPs (S)</t>
-  </si>
-  <si>
     <t>REGIONAL SCALE</t>
   </si>
   <si>
@@ -215,43 +205,10 @@
     <t>E.aRS</t>
   </si>
   <si>
-    <r>
-      <t>[t.yr</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>EMISSION to lake water</t>
-  </si>
-  <si>
     <t>E.w0RS</t>
   </si>
   <si>
-    <t>EMISSION to fresh water</t>
-  </si>
-  <si>
     <t>E.w1RS</t>
-  </si>
-  <si>
-    <t>EMISSION to sea water</t>
   </si>
   <si>
     <t>E.w2RS</t>
@@ -344,346 +301,16 @@
     <t>Dissolved or Gas species (G/D)</t>
   </si>
   <si>
-    <r>
-      <t>E.aR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G</t>
-    </r>
-  </si>
-  <si>
     <t>[t.yr-1]</t>
   </si>
   <si>
     <t>EMISSION to water0</t>
   </si>
   <si>
-    <r>
-      <t>E.w0R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
     <t>EMISSION to water1</t>
   </si>
   <si>
     <t>EMISSION to water2</t>
-  </si>
-  <si>
-    <r>
-      <t>E.w2R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.s1R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.s2R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.s3R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.aC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.w0C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.w1C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.w2C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.s1C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.s2C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.s3C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.aM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.w2M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.sM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.aA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.w2A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.sA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.aT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.w2T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.sT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
   </si>
   <si>
     <t>LANSCAPE SETTINGS</t>
@@ -971,140 +598,6 @@
     <t>mConcNC.sC</t>
   </si>
   <si>
-    <t>ENVIRONMENTAL PROPERTIES (ALL SCALES)</t>
-  </si>
-  <si>
-    <t>Radius nucleation mode aerosol particle</t>
-  </si>
-  <si>
-    <t>RadNuc</t>
-  </si>
-  <si>
-    <t>[nm]</t>
-  </si>
-  <si>
-    <t>Density nucleation mode aerosol particle</t>
-  </si>
-  <si>
-    <t>RhoNuc</t>
-  </si>
-  <si>
-    <t>[kg.m-3]</t>
-  </si>
-  <si>
-    <t>Radius accumulation mode aerosol particle</t>
-  </si>
-  <si>
-    <t>RadAcc</t>
-  </si>
-  <si>
-    <t>Density accumulation mode aerosol particle</t>
-  </si>
-  <si>
-    <t>RhoAcc</t>
-  </si>
-  <si>
-    <t>Radius coarse mode aerosol particle</t>
-  </si>
-  <si>
-    <t>RadCP.a</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>µ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m]</t>
-    </r>
-  </si>
-  <si>
-    <t>Density Coarse mode aerosol particle</t>
-  </si>
-  <si>
-    <t>RhoCP.a</t>
-  </si>
-  <si>
-    <t>Radius natural colloids (NC, &lt; 450 nm) in water</t>
-  </si>
-  <si>
-    <t>RadNC.w</t>
-  </si>
-  <si>
-    <t>Density natural colloids (NC, &lt; 450 nm) in water</t>
-  </si>
-  <si>
-    <t>RhoNC.w</t>
-  </si>
-  <si>
-    <t>Radius natural suspended particulate matter (SPM, &gt; 450 nm) in water</t>
-  </si>
-  <si>
-    <t>RadSPM.w</t>
-  </si>
-  <si>
-    <t>Density natural suspended particulate matter (SPM, &gt; 450 nm) in water</t>
-  </si>
-  <si>
-    <t>RhoSPM.w</t>
-  </si>
-  <si>
-    <t>Radius natural colloids (NC, &lt; 450 nm) in sediment pore water</t>
-  </si>
-  <si>
-    <t>RadNC.sd</t>
-  </si>
-  <si>
-    <t>Density natural colloids (NC, &lt; 450 nm) in sediment pore water</t>
-  </si>
-  <si>
-    <t>RhoNC.sd</t>
-  </si>
-  <si>
-    <t>Radius filtration particles in sediment (FP, &gt;450 nm)</t>
-  </si>
-  <si>
-    <t>RadFP.sd</t>
-  </si>
-  <si>
-    <t>Radius natural colloids (NC, &lt; 450 nm) in soil pore water</t>
-  </si>
-  <si>
-    <t>RadNC.s</t>
-  </si>
-  <si>
-    <t>Density natural colloids (NC, &lt; 450 nm) in soil pore water</t>
-  </si>
-  <si>
-    <t>RhoNC.s</t>
-  </si>
-  <si>
-    <t>Radius filtration particulates in soil (FP, &gt; 450 nm)</t>
-  </si>
-  <si>
-    <t>RadFP.s</t>
-  </si>
-  <si>
-    <t>Density filtration particulates in soil (FP, &gt; 450 nm)</t>
-  </si>
-  <si>
-    <t>RhoFP.s</t>
-  </si>
-  <si>
     <t>EMISSION RATES</t>
   </si>
   <si>
@@ -1112,9 +605,6 @@
   </si>
   <si>
     <t xml:space="preserve">SCENARIOS DATABASE - Fixed format - Do not alter </t>
-  </si>
-  <si>
-    <t>E.w1RD</t>
   </si>
   <si>
     <t>TOTAREAland.C</t>
@@ -1142,7 +632,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1181,12 +671,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -1205,8 +689,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1295,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1305,9 +790,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1365,15 +847,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1387,24 +863,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1412,29 +882,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="21">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1455,35 +925,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008C00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1509,6 +957,22 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008C00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -26354,214 +25818,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ143"/>
+  <dimension ref="A1:AL112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:XFD112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.33203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="1.6640625" style="7" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9" style="7" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="49" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.33203125" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9" style="6" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="22.6640625" style="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="10.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.6640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.77734375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.6640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="13.6640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="9.109375" style="9"/>
-    <col min="23" max="23" width="9.109375" style="9" collapsed="1"/>
-    <col min="24" max="36" width="9.109375" style="9"/>
-    <col min="37" max="16384" width="9.109375" style="9" collapsed="1"/>
+    <col min="9" max="9" width="10.5546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.6640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.77734375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.6640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="13.6640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="9.109375" style="8"/>
+    <col min="23" max="23" width="9.109375" style="8" collapsed="1"/>
+    <col min="24" max="38" width="9.109375" style="8"/>
+    <col min="39" max="16384" width="9.109375" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="7"/>
+      <c r="A1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:20" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:20" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="L3" s="13" t="s">
+      <c r="K3" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="P3" s="15" t="s">
+      <c r="O3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18" t="s">
+      <c r="A4" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="23"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="22"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
-    <row r="7" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I8" s="2">
         <v>10000</v>
       </c>
       <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="8">
-        <v>10000</v>
-      </c>
       <c r="L8" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="P8" s="4">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.70615955185863544</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2">
-        <v>297.64169231251566</v>
+        <v>0</v>
       </c>
       <c r="T8" s="2">
-        <v>1.0407920872040186</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+        <v>49</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -26569,7 +26039,7 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>0</v>
       </c>
       <c r="L9" s="2">
@@ -26584,36 +26054,32 @@
       <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" s="4">
-        <v>0.32500000000000001</v>
+      <c r="P9" s="2">
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.6318241683455394E-2</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
       </c>
       <c r="S9" s="2">
-        <v>68.359013928667011</v>
+        <v>0</v>
       </c>
       <c r="T9" s="2">
-        <v>2.6776198441110208E-2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+        <v>50</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I10" s="2">
         <v>10000</v>
@@ -26621,51 +26087,47 @@
       <c r="J10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="8">
-        <v>10000</v>
+      <c r="K10" s="7">
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>10000</v>
-      </c>
-      <c r="P10" s="4">
-        <v>3.5750000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.47213230379106175</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>3389.5483714837437</v>
+        <v>0</v>
       </c>
       <c r="T10" s="2">
-        <v>3.4927070810371705</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+        <v>51</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -26673,7 +26135,7 @@
       <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>0</v>
       </c>
       <c r="L11" s="2">
@@ -26688,7 +26150,7 @@
       <c r="O11" s="2">
         <v>0</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="2">
         <v>0</v>
       </c>
       <c r="Q11" s="2">
@@ -26704,20 +26166,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+        <v>19</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -26725,7 +26183,7 @@
       <c r="J12" s="2">
         <v>0</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>0</v>
       </c>
       <c r="L12" s="2">
@@ -26740,36 +26198,32 @@
       <c r="O12" s="2">
         <v>0</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="2">
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.42677470235443499</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>339.44655117338186</v>
+        <v>0</v>
       </c>
       <c r="T12" s="2">
-        <v>0.48491560650155491</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+        <v>21</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I13" s="2">
         <v>10000</v>
@@ -26777,51 +26231,47 @@
       <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="8">
-        <v>10000</v>
+      <c r="K13" s="7">
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>10000</v>
-      </c>
-      <c r="P13" s="4">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>2.396914871555909</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>5106.3643794170539</v>
+        <v>0</v>
       </c>
       <c r="T13" s="2">
-        <v>6.3545689186753025</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+        <v>23</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -26829,7 +26279,7 @@
       <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>0</v>
       </c>
       <c r="L14" s="2">
@@ -26844,84 +26294,49 @@
       <c r="O14" s="2">
         <v>0</v>
       </c>
-      <c r="P14" s="4">
-        <v>1</v>
+      <c r="P14" s="2">
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.15806470457571664</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>125.7209448790303</v>
+        <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>0.17959837277835367</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+        <v>14</v>
+      </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -26929,7 +26344,7 @@
       <c r="J16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>0</v>
       </c>
       <c r="L16" s="2">
@@ -26944,8 +26359,8 @@
       <c r="O16" s="2">
         <v>0</v>
       </c>
-      <c r="P16" s="4">
-        <v>18</v>
+      <c r="P16" s="2">
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -26960,20 +26375,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+        <v>49</v>
+      </c>
       <c r="G17" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -26981,7 +26392,7 @@
       <c r="J17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>0</v>
       </c>
       <c r="L17" s="2">
@@ -26996,8 +26407,8 @@
       <c r="O17" s="2">
         <v>0</v>
       </c>
-      <c r="P17" s="4">
-        <v>2.93</v>
+      <c r="P17" s="2">
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -27012,20 +26423,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+        <v>50</v>
+      </c>
       <c r="G18" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -27033,7 +26440,7 @@
       <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>0</v>
       </c>
       <c r="L18" s="2">
@@ -27048,8 +26455,8 @@
       <c r="O18" s="2">
         <v>0</v>
       </c>
-      <c r="P18" s="4">
-        <v>32.200000000000003</v>
+      <c r="P18" s="2">
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -27064,20 +26471,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+        <v>51</v>
+      </c>
       <c r="G19" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -27085,7 +26488,7 @@
       <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>0</v>
       </c>
       <c r="L19" s="2">
@@ -27100,7 +26503,7 @@
       <c r="O19" s="2">
         <v>0</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="2">
         <v>0</v>
       </c>
       <c r="Q19" s="2">
@@ -27116,20 +26519,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+        <v>19</v>
+      </c>
       <c r="G20" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -27137,7 +26536,7 @@
       <c r="J20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>0</v>
       </c>
       <c r="L20" s="2">
@@ -27152,7 +26551,7 @@
       <c r="O20" s="2">
         <v>0</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="2">
         <v>0</v>
       </c>
       <c r="Q20" s="2">
@@ -27168,20 +26567,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+        <v>21</v>
+      </c>
       <c r="G21" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -27189,7 +26584,7 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <v>0</v>
       </c>
       <c r="L21" s="2">
@@ -27204,8 +26599,8 @@
       <c r="O21" s="2">
         <v>0</v>
       </c>
-      <c r="P21" s="4">
-        <v>1620</v>
+      <c r="P21" s="2">
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -27220,20 +26615,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+        <v>23</v>
+      </c>
       <c r="G22" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -27241,7 +26632,7 @@
       <c r="J22" s="2">
         <v>0</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <v>0</v>
       </c>
       <c r="L22" s="2">
@@ -27256,8 +26647,8 @@
       <c r="O22" s="2">
         <v>0</v>
       </c>
-      <c r="P22" s="4">
-        <v>9</v>
+      <c r="P22" s="2">
+        <v>0</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -27272,68 +26663,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+        <v>14</v>
+      </c>
       <c r="G24" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -27341,7 +26697,7 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <v>0</v>
       </c>
       <c r="L24" s="2">
@@ -27372,20 +26728,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+        <v>35</v>
+      </c>
       <c r="G25" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -27393,7 +26745,7 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <v>0</v>
       </c>
       <c r="L25" s="2">
@@ -27424,20 +26776,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+        <v>37</v>
+      </c>
       <c r="G26" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -27445,7 +26793,7 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <v>0</v>
       </c>
       <c r="L26" s="2">
@@ -27476,68 +26824,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
-        <v>44</v>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="8">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2">
-        <v>0</v>
-      </c>
-      <c r="S27" s="2">
-        <v>0</v>
-      </c>
-      <c r="T27" s="2">
-        <v>0</v>
-      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+        <v>14</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
@@ -27545,7 +26859,7 @@
       <c r="J28" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="7">
         <v>0</v>
       </c>
       <c r="L28" s="2">
@@ -27576,20 +26890,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+        <v>35</v>
+      </c>
       <c r="G29" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
@@ -27597,7 +26907,7 @@
       <c r="J29" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="7">
         <v>0</v>
       </c>
       <c r="L29" s="2">
@@ -27628,20 +26938,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -27649,7 +26955,7 @@
       <c r="J30" s="2">
         <v>0</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="7">
         <v>0</v>
       </c>
       <c r="L30" s="2">
@@ -27680,120 +26986,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="8">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2">
-        <v>0</v>
-      </c>
-      <c r="S31" s="2">
-        <v>0</v>
-      </c>
-      <c r="T31" s="2">
-        <v>0</v>
-      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+        <v>14</v>
+      </c>
       <c r="G32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="5">
+        <v>48</v>
+      </c>
+      <c r="I32" s="4">
         <v>0</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="2">
         <v>0</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="7">
         <v>0</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="2">
         <v>0</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="2">
         <v>0</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="2">
         <v>0</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="2">
         <v>0</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="2">
         <v>0</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="Q32" s="2">
         <v>0</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32" s="2">
         <v>0</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="2">
         <v>0</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+        <v>35</v>
+      </c>
       <c r="G33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -27801,7 +27068,7 @@
       <c r="J33" s="2">
         <v>0</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="7">
         <v>0</v>
       </c>
       <c r="L33" s="2">
@@ -27832,20 +27099,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+        <v>37</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
@@ -27853,7 +27116,7 @@
       <c r="J34" s="2">
         <v>0</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="7">
         <v>0</v>
       </c>
       <c r="L34" s="2">
@@ -27884,8 +27147,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="L35" s="2"/>
@@ -27898,17 +27162,11 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+    <row r="36" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="L36" s="2"/>
@@ -27921,10 +27179,12 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>14</v>
-      </c>
+    <row r="37" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="L37" s="2"/>
@@ -27937,561 +27197,579 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="1" t="s">
+    <row r="38" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="G38" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="H38" s="30" t="s">
+        <v>55</v>
+      </c>
       <c r="I38" s="2">
-        <v>10000</v>
+        <v>228570</v>
       </c>
       <c r="J38" s="2">
-        <v>1</v>
-      </c>
-      <c r="K38" s="8">
-        <v>0</v>
+        <v>40000</v>
+      </c>
+      <c r="K38" s="7">
+        <v>228570</v>
       </c>
       <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0</v>
+        <v>15875</v>
+      </c>
+      <c r="M38" s="32">
+        <v>15875</v>
       </c>
       <c r="N38" s="2">
-        <v>0</v>
+        <v>15875</v>
       </c>
       <c r="O38" s="2">
-        <v>0</v>
+        <v>15875</v>
       </c>
       <c r="P38" s="2">
-        <v>0</v>
+        <v>228570</v>
       </c>
       <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2">
-        <v>0</v>
+        <v>228570</v>
+      </c>
+      <c r="R38" s="31">
+        <v>228570</v>
       </c>
       <c r="S38" s="2">
-        <v>0</v>
+        <v>228570</v>
       </c>
       <c r="T38" s="2">
-        <v>0</v>
+        <v>228570</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I39" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="8">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L39" s="7">
+        <v>1000</v>
       </c>
       <c r="M39" s="2">
         <v>0</v>
       </c>
-      <c r="N39" s="2">
-        <v>0</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0</v>
+      <c r="N39" s="31">
+        <v>1000</v>
+      </c>
+      <c r="O39" s="31">
+        <v>1000</v>
       </c>
       <c r="P39" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q39" s="2">
-        <v>0</v>
-      </c>
-      <c r="R39" s="2">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="R39" s="31">
+        <v>1000</v>
       </c>
       <c r="S39" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T39" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>54</v>
+    <row r="40" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I40" s="2">
-        <v>10000</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="8">
-        <v>0</v>
+        <v>1E-10</v>
+      </c>
+      <c r="K40" s="7">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
+        <v>9.9999999999999995E-21</v>
+      </c>
+      <c r="M40" s="32">
+        <v>9.9999999999999995E-21</v>
       </c>
       <c r="N40" s="2">
-        <v>0</v>
+        <v>9.9999999999999995E-21</v>
       </c>
       <c r="O40" s="2">
-        <v>0</v>
+        <v>9.9999999999999995E-21</v>
       </c>
       <c r="P40" s="2">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="R40" s="31">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="S40" s="2">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="T40" s="2">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>54</v>
+    <row r="41" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>2.75E-2</v>
       </c>
       <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="8">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="K41" s="7">
+        <v>2.75E-2</v>
       </c>
       <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0</v>
+        <v>2.5595388012618299E-4</v>
+      </c>
+      <c r="M41" s="32">
+        <v>2.5595388012618299E-4</v>
       </c>
       <c r="N41" s="2">
-        <v>0</v>
+        <v>1.0116278692474385E-4</v>
       </c>
       <c r="O41" s="2">
-        <v>0</v>
+        <v>1.0116278692474385E-4</v>
       </c>
       <c r="P41" s="2">
-        <v>0</v>
+        <v>2.75E-2</v>
       </c>
       <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="2">
-        <v>0</v>
+        <v>2.75E-2</v>
+      </c>
+      <c r="R41" s="31">
+        <v>2.75E-2</v>
       </c>
       <c r="S41" s="2">
-        <v>0</v>
+        <v>2.75E-2</v>
       </c>
       <c r="T41" s="2">
-        <v>0</v>
+        <v>2.75E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="1" t="s">
+    <row r="42" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="8">
-        <v>0</v>
+        <v>0.27</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.27</v>
       </c>
       <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0</v>
+        <v>0.13396571095647686</v>
+      </c>
+      <c r="M42" s="32">
+        <v>0.13396571095647686</v>
       </c>
       <c r="N42" s="2">
-        <v>0</v>
+        <v>0.13396571095647686</v>
       </c>
       <c r="O42" s="2">
-        <v>0</v>
+        <v>0.13396571095647686</v>
       </c>
       <c r="P42" s="2">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="Q42" s="2">
-        <v>0</v>
-      </c>
-      <c r="R42" s="2">
-        <v>0</v>
+        <v>0.27</v>
+      </c>
+      <c r="R42" s="31">
+        <v>0.27</v>
       </c>
       <c r="S42" s="2">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="T42" s="2">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>54</v>
+    <row r="43" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I43" s="2">
-        <v>10000</v>
+        <v>0.6</v>
       </c>
       <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="8">
-        <v>0</v>
+        <v>0.6</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0.6</v>
       </c>
       <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0</v>
+        <v>0.62583981387130228</v>
+      </c>
+      <c r="M43" s="32">
+        <v>0.62583981387130228</v>
       </c>
       <c r="N43" s="2">
-        <v>0</v>
+        <v>0.62583981387130228</v>
       </c>
       <c r="O43" s="2">
-        <v>0</v>
+        <v>0.62583981387130228</v>
       </c>
       <c r="P43" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q43" s="2">
-        <v>0</v>
-      </c>
-      <c r="R43" s="2">
-        <v>0</v>
+        <v>0.6</v>
+      </c>
+      <c r="R43" s="31">
+        <v>0.6</v>
       </c>
       <c r="S43" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T43" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>54</v>
+    <row r="44" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I44" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="8">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0.1</v>
       </c>
       <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0</v>
+        <v>0.2399385867877197</v>
+      </c>
+      <c r="M44" s="32">
+        <v>0.2399385867877197</v>
       </c>
       <c r="N44" s="2">
-        <v>0</v>
+        <v>0.2399385867877197</v>
       </c>
       <c r="O44" s="2">
-        <v>0</v>
+        <v>0.2399385867877197</v>
       </c>
       <c r="P44" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q44" s="2">
-        <v>0</v>
-      </c>
-      <c r="R44" s="2">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="R44" s="31">
+        <v>0.1</v>
       </c>
       <c r="S44" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T44" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
+    <row r="45" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" s="2">
+        <v>12</v>
+      </c>
+      <c r="J45" s="2">
+        <v>12</v>
+      </c>
+      <c r="K45" s="7">
+        <v>12</v>
+      </c>
+      <c r="L45" s="2">
+        <v>10</v>
+      </c>
+      <c r="M45" s="32">
+        <v>10</v>
+      </c>
+      <c r="N45" s="2">
+        <v>10</v>
+      </c>
+      <c r="O45" s="2">
+        <v>10</v>
+      </c>
+      <c r="P45" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>12</v>
+      </c>
+      <c r="R45" s="31">
+        <v>12</v>
+      </c>
+      <c r="S45" s="2">
+        <v>12</v>
+      </c>
+      <c r="T45" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>54</v>
+    <row r="46" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="I46" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="8">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K46" s="7">
+        <v>3</v>
       </c>
       <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0</v>
+        <v>4.63580226898193</v>
+      </c>
+      <c r="M46" s="32">
+        <v>4.63580226898193</v>
       </c>
       <c r="N46" s="2">
-        <v>0</v>
+        <v>4.63580226898193</v>
       </c>
       <c r="O46" s="2">
-        <v>0</v>
+        <v>4.63580226898193</v>
       </c>
       <c r="P46" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q46" s="2">
-        <v>0</v>
-      </c>
-      <c r="R46" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="R46" s="31">
+        <v>3</v>
       </c>
       <c r="S46" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T46" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>54</v>
+    <row r="47" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="8">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="K47" s="7">
+        <v>700</v>
       </c>
       <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0</v>
+        <v>930.21250226047403</v>
+      </c>
+      <c r="M47" s="32">
+        <v>930.21250226047403</v>
       </c>
       <c r="N47" s="2">
-        <v>0</v>
+        <v>632.85703291353502</v>
       </c>
       <c r="O47" s="2">
-        <v>0</v>
+        <v>632.85703291353502</v>
       </c>
       <c r="P47" s="2">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="Q47" s="2">
-        <v>0</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="R47" s="31">
+        <v>700</v>
       </c>
       <c r="S47" s="2">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="T47" s="2">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>54</v>
+    <row r="48" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="I48" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="8">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0</v>
+        <v>1E-10</v>
+      </c>
+      <c r="K48" s="7">
+        <v>100</v>
+      </c>
+      <c r="L48" s="31">
+        <v>100</v>
+      </c>
+      <c r="M48" s="31">
+        <v>100</v>
+      </c>
+      <c r="N48" s="31">
+        <v>100</v>
+      </c>
+      <c r="O48" s="31">
+        <v>100</v>
       </c>
       <c r="P48" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="2">
-        <v>0</v>
-      </c>
-      <c r="R48" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="R48" s="31">
+        <v>100</v>
       </c>
       <c r="S48" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T48" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>54</v>
+    <row r="49" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="I49" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="8">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K49" s="7">
+        <v>3</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0</v>
+        <v>1.87</v>
+      </c>
+      <c r="M49" s="32">
+        <v>1.87</v>
       </c>
       <c r="N49" s="2">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O49" s="2">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P49" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q49" s="2">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="R49" s="31">
+        <v>3</v>
       </c>
       <c r="S49" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T49" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>54</v>
+    <row r="50" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
@@ -28499,19 +27777,19 @@
       <c r="J50" s="2">
         <v>0</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="7">
         <v>0</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="31">
         <v>0</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="31">
         <v>0</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="31">
         <v>0</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="31">
         <v>0</v>
       </c>
       <c r="P50" s="2">
@@ -28520,7 +27798,7 @@
       <c r="Q50" s="2">
         <v>0</v>
       </c>
-      <c r="R50" s="2">
+      <c r="R50" s="31">
         <v>0</v>
       </c>
       <c r="S50" s="2">
@@ -28530,589 +27808,638 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>54</v>
+    <row r="51" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I51" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="8">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L51" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="M51" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="N51" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="O51" s="31">
+        <v>0.25</v>
       </c>
       <c r="P51" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q51" s="2">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="R51" s="31">
+        <v>0.25</v>
       </c>
       <c r="S51" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T51" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>54</v>
+    <row r="52" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I52" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J52" s="2">
-        <v>0</v>
-      </c>
-      <c r="K52" s="8">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2">
-        <v>0</v>
-      </c>
-      <c r="M52" s="2">
-        <v>0</v>
-      </c>
-      <c r="N52" s="2">
-        <v>0</v>
-      </c>
-      <c r="O52" s="2">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L52" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="M52" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="N52" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="O52" s="31">
+        <v>0.25</v>
       </c>
       <c r="P52" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q52" s="2">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="R52" s="31">
+        <v>0.25</v>
       </c>
       <c r="S52" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T52" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
+    <row r="53" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="L53" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="M53" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="N53" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="O53" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="R53" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" s="31">
+        <v>3200000000</v>
+      </c>
+      <c r="J54" s="31">
+        <v>3200000000</v>
+      </c>
+      <c r="K54" s="7">
+        <v>1400000000</v>
+      </c>
+      <c r="L54" s="31">
+        <v>3200000000</v>
+      </c>
+      <c r="M54" s="31">
+        <v>3200000000</v>
+      </c>
+      <c r="N54" s="31">
+        <v>3200000000</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1400000000</v>
+      </c>
+      <c r="P54" s="2">
+        <v>3200000000</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>3200000000</v>
+      </c>
+      <c r="R54" s="31">
+        <v>3200000000</v>
+      </c>
+      <c r="S54" s="2">
+        <v>3200000000</v>
+      </c>
+      <c r="T54" s="2">
+        <v>3200000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I55" s="31">
+        <v>2900000000</v>
+      </c>
+      <c r="J55" s="31">
+        <v>2900000000</v>
+      </c>
+      <c r="K55" s="7">
+        <v>3600000000</v>
+      </c>
+      <c r="L55" s="31">
+        <v>2900000000</v>
+      </c>
+      <c r="M55" s="31">
+        <v>2900000000</v>
+      </c>
+      <c r="N55" s="31">
+        <v>2900000000</v>
+      </c>
+      <c r="O55" s="2">
+        <v>3600000000</v>
+      </c>
+      <c r="P55" s="2">
+        <v>2900000000</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>2900000000</v>
+      </c>
+      <c r="R55" s="31">
+        <v>2900000000</v>
+      </c>
+      <c r="S55" s="2">
+        <v>2900000000</v>
+      </c>
+      <c r="T55" s="2">
+        <v>2900000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I56" s="31">
+        <v>300000</v>
+      </c>
+      <c r="J56" s="31">
+        <v>300000</v>
+      </c>
+      <c r="K56" s="7">
+        <v>2100000</v>
+      </c>
+      <c r="L56" s="31">
+        <v>300000</v>
+      </c>
+      <c r="M56" s="31">
+        <v>300000</v>
+      </c>
+      <c r="N56" s="31">
+        <v>300000</v>
+      </c>
+      <c r="O56" s="2">
+        <v>2100000</v>
+      </c>
+      <c r="P56" s="2">
+        <v>300000</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>300000</v>
+      </c>
+      <c r="R56" s="31">
+        <v>300000</v>
+      </c>
+      <c r="S56" s="2">
+        <v>300000</v>
+      </c>
+      <c r="T56" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I57" s="31">
+        <v>1</v>
+      </c>
+      <c r="J57" s="31">
+        <v>1</v>
+      </c>
+      <c r="K57" s="7">
+        <v>2.4994511151960403E-2</v>
+      </c>
+      <c r="L57" s="31">
+        <v>1</v>
+      </c>
+      <c r="M57" s="31">
+        <v>1</v>
+      </c>
+      <c r="N57" s="31">
+        <v>1</v>
+      </c>
+      <c r="O57" s="2">
+        <v>4.8066367599923847</v>
+      </c>
+      <c r="P57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>1</v>
+      </c>
+      <c r="R57" s="31">
+        <v>1</v>
+      </c>
+      <c r="S57" s="2">
+        <v>1</v>
+      </c>
+      <c r="T57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" s="31">
+        <v>1</v>
+      </c>
+      <c r="J58" s="31">
+        <v>1</v>
+      </c>
+      <c r="K58" s="7">
+        <v>2.4994511151960403E-2</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0.12393037193697687</v>
+      </c>
+      <c r="M58" s="32">
+        <v>0.12393037193697687</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0.11329900738000624</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0.11329900738000624</v>
+      </c>
+      <c r="P58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>1</v>
+      </c>
+      <c r="R58" s="31">
+        <v>1</v>
+      </c>
+      <c r="S58" s="2">
+        <v>1</v>
+      </c>
+      <c r="T58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I59" s="31">
+        <v>1</v>
+      </c>
+      <c r="J59" s="31">
+        <v>1</v>
+      </c>
+      <c r="K59" s="7">
+        <v>2.4994511151960403E-2</v>
+      </c>
+      <c r="L59" s="31">
+        <v>1</v>
+      </c>
+      <c r="M59" s="31">
+        <v>1</v>
+      </c>
+      <c r="N59" s="31">
+        <v>1</v>
+      </c>
+      <c r="O59" s="2">
+        <v>4.8066367599923847</v>
+      </c>
+      <c r="P59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>1</v>
+      </c>
+      <c r="R59" s="31">
+        <v>1</v>
+      </c>
+      <c r="S59" s="2">
+        <v>1</v>
+      </c>
+      <c r="T59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="J60" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K60" s="7">
+        <v>3.3929200658769768E-2</v>
+      </c>
+      <c r="L60" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="M60" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="N60" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="O60" s="2">
+        <v>10.178760197630933</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R60" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T60" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" s="31">
         <v>15</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
-      <c r="K54" s="8">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0</v>
-      </c>
-      <c r="N54" s="2">
-        <v>0</v>
-      </c>
-      <c r="O54" s="2">
-        <v>0</v>
-      </c>
-      <c r="P54" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2">
-        <v>0</v>
-      </c>
-      <c r="S54" s="2">
-        <v>0</v>
-      </c>
-      <c r="T54" s="2">
-        <v>0</v>
+      <c r="J61" s="31">
+        <v>15</v>
+      </c>
+      <c r="K61" s="7">
+        <v>3.3929200658769768E-2</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1.858955579054653</v>
+      </c>
+      <c r="M61" s="32">
+        <v>1.858955579054653</v>
+      </c>
+      <c r="N61" s="2">
+        <v>1.6994851107000937</v>
+      </c>
+      <c r="O61" s="2">
+        <v>1.6994851107000937</v>
+      </c>
+      <c r="P61" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>15</v>
+      </c>
+      <c r="R61" s="31">
+        <v>15</v>
+      </c>
+      <c r="S61" s="2">
+        <v>15</v>
+      </c>
+      <c r="T61" s="2">
+        <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2">
-        <v>0</v>
-      </c>
-      <c r="K55" s="8">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2">
-        <v>0</v>
-      </c>
-      <c r="M55" s="2">
-        <v>0</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0</v>
-      </c>
-      <c r="O55" s="2">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2">
-        <v>0</v>
-      </c>
-      <c r="S55" s="2">
-        <v>0</v>
-      </c>
-      <c r="T55" s="2">
-        <v>0</v>
+    <row r="62" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62" s="31">
+        <v>5</v>
+      </c>
+      <c r="J62" s="31">
+        <v>5</v>
+      </c>
+      <c r="K62" s="7">
+        <v>3.3929200658769768E-2</v>
+      </c>
+      <c r="L62" s="31">
+        <v>5</v>
+      </c>
+      <c r="M62" s="31">
+        <v>5</v>
+      </c>
+      <c r="N62" s="31">
+        <v>5</v>
+      </c>
+      <c r="O62" s="2">
+        <v>10.178760197630933</v>
+      </c>
+      <c r="P62" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>5</v>
+      </c>
+      <c r="R62" s="31">
+        <v>5</v>
+      </c>
+      <c r="S62" s="2">
+        <v>5</v>
+      </c>
+      <c r="T62" s="2">
+        <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2">
-        <v>0</v>
-      </c>
-      <c r="K56" s="8">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2">
-        <v>0</v>
-      </c>
-      <c r="M56" s="2">
-        <v>0</v>
-      </c>
-      <c r="N56" s="2">
-        <v>0</v>
-      </c>
-      <c r="O56" s="2">
-        <v>0</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>0</v>
-      </c>
-      <c r="R56" s="2">
-        <v>0</v>
-      </c>
-      <c r="S56" s="2">
-        <v>0</v>
-      </c>
-      <c r="T56" s="2">
-        <v>0</v>
+    <row r="63" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I63" s="2">
+        <v>100</v>
+      </c>
+      <c r="J63" s="2">
+        <v>100</v>
+      </c>
+      <c r="K63" s="7">
+        <v>100</v>
+      </c>
+      <c r="L63" s="2">
+        <v>100</v>
+      </c>
+      <c r="M63" s="2">
+        <v>100</v>
+      </c>
+      <c r="N63" s="2">
+        <v>100</v>
+      </c>
+      <c r="O63" s="2">
+        <v>100</v>
+      </c>
+      <c r="P63" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>100</v>
+      </c>
+      <c r="R63" s="2">
+        <v>100</v>
+      </c>
+      <c r="S63" s="2">
+        <v>100</v>
+      </c>
+      <c r="T63" s="2">
+        <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="G57" s="3"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
+    <row r="64" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2">
-        <v>0</v>
-      </c>
-      <c r="K58" s="8">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2">
-        <v>0</v>
-      </c>
-      <c r="N58" s="2">
-        <v>0</v>
-      </c>
-      <c r="O58" s="2">
-        <v>0</v>
-      </c>
-      <c r="P58" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>0</v>
-      </c>
-      <c r="R58" s="2">
-        <v>0</v>
-      </c>
-      <c r="S58" s="2">
-        <v>0</v>
-      </c>
-      <c r="T58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2">
-        <v>0</v>
-      </c>
-      <c r="K59" s="8">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2">
-        <v>0</v>
-      </c>
-      <c r="O59" s="2">
-        <v>0</v>
-      </c>
-      <c r="P59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2">
-        <v>0</v>
-      </c>
-      <c r="S59" s="2">
-        <v>0</v>
-      </c>
-      <c r="T59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2">
-        <v>0</v>
-      </c>
-      <c r="K60" s="8">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2">
-        <v>0</v>
-      </c>
-      <c r="M60" s="2">
-        <v>0</v>
-      </c>
-      <c r="N60" s="2">
-        <v>0</v>
-      </c>
-      <c r="O60" s="2">
-        <v>0</v>
-      </c>
-      <c r="P60" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>0</v>
-      </c>
-      <c r="R60" s="2">
-        <v>0</v>
-      </c>
-      <c r="S60" s="2">
-        <v>0</v>
-      </c>
-      <c r="T60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I62" s="5">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2">
-        <v>0</v>
-      </c>
-      <c r="K62" s="8">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2">
-        <v>0</v>
-      </c>
-      <c r="M62" s="2">
-        <v>0</v>
-      </c>
-      <c r="N62" s="2">
-        <v>0</v>
-      </c>
-      <c r="O62" s="2">
-        <v>0</v>
-      </c>
-      <c r="P62" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>0</v>
-      </c>
-      <c r="R62" s="2">
-        <v>0</v>
-      </c>
-      <c r="S62" s="2">
-        <v>0</v>
-      </c>
-      <c r="T62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2">
-        <v>0</v>
-      </c>
-      <c r="K63" s="8">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2">
-        <v>0</v>
-      </c>
-      <c r="M63" s="2">
-        <v>0</v>
-      </c>
-      <c r="N63" s="2">
-        <v>0</v>
-      </c>
-      <c r="O63" s="2">
-        <v>0</v>
-      </c>
-      <c r="P63" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>0</v>
-      </c>
-      <c r="R63" s="2">
-        <v>0</v>
-      </c>
-      <c r="S63" s="2">
-        <v>0</v>
-      </c>
-      <c r="T63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2">
-        <v>0</v>
-      </c>
-      <c r="K64" s="8">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2">
-        <v>0</v>
-      </c>
-      <c r="M64" s="2">
-        <v>0</v>
-      </c>
-      <c r="N64" s="2">
-        <v>0</v>
-      </c>
-      <c r="O64" s="2">
-        <v>0</v>
-      </c>
-      <c r="P64" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>0</v>
-      </c>
-      <c r="R64" s="2">
-        <v>0</v>
-      </c>
-      <c r="S64" s="2">
-        <v>0</v>
-      </c>
-      <c r="T64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+    <row r="65" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="L65" s="2"/>
@@ -29125,676 +28452,769 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
+    <row r="66" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I66" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="J66" s="2">
+        <v>3520000</v>
+      </c>
+      <c r="K66" s="7">
+        <v>3714410</v>
+      </c>
+      <c r="L66" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="M66" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="N66" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="O66" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="P66" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="R66" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="S66" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="T66" s="2">
+        <v>3714410</v>
+      </c>
     </row>
     <row r="67" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
+      <c r="A67" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I67" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="J67" s="2">
+        <v>3520200</v>
+      </c>
+      <c r="K67" s="7">
+        <v>3714410</v>
+      </c>
+      <c r="L67" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="M67" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="N67" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="O67" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="P67" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="R67" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="S67" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="T67" s="2">
+        <v>3714410</v>
+      </c>
     </row>
     <row r="68" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
+      <c r="A68" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="G68" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H68" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I68" s="7">
+        <v>3714410</v>
+      </c>
+      <c r="J68" s="7">
+        <v>3520000</v>
+      </c>
+      <c r="K68" s="7">
+        <v>3714410</v>
+      </c>
+      <c r="L68" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="M68" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="N68" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="O68" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="P68" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="Q68" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="R68" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="S68" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="T68" s="31">
+        <v>3714410</v>
+      </c>
     </row>
     <row r="69" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H69" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I69" s="2">
-        <v>228570</v>
-      </c>
-      <c r="J69" s="2">
-        <v>40000</v>
-      </c>
-      <c r="K69" s="8">
-        <v>228570</v>
-      </c>
-      <c r="L69" s="2">
-        <v>15875</v>
-      </c>
-      <c r="M69" s="35">
-        <v>15875</v>
-      </c>
-      <c r="N69" s="2">
-        <v>15875</v>
-      </c>
-      <c r="O69" s="2">
-        <v>15875</v>
-      </c>
-      <c r="P69" s="2">
-        <v>228570</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>228570</v>
-      </c>
-      <c r="R69" s="34">
-        <v>228570</v>
-      </c>
-      <c r="S69" s="2">
-        <v>228570</v>
-      </c>
-      <c r="T69" s="2">
-        <v>228570</v>
+      <c r="A69" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="G69" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I69" s="7">
+        <v>3714410</v>
+      </c>
+      <c r="J69" s="7">
+        <v>3520200</v>
+      </c>
+      <c r="K69" s="7">
+        <v>3714410</v>
+      </c>
+      <c r="L69" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="M69" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="N69" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="O69" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="P69" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="Q69" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="R69" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="S69" s="31">
+        <v>3714410</v>
+      </c>
+      <c r="T69" s="31">
+        <v>3714410</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H70" s="33" t="s">
-        <v>82</v>
+      <c r="A70" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I70" s="2">
-        <v>1000</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="J70" s="2">
-        <v>400</v>
-      </c>
-      <c r="K70" s="8">
-        <v>1000</v>
-      </c>
-      <c r="L70" s="8">
-        <v>1000</v>
-      </c>
-      <c r="M70" s="2">
-        <v>0</v>
-      </c>
-      <c r="N70" s="34">
-        <v>1000</v>
-      </c>
-      <c r="O70" s="34">
-        <v>1000</v>
+        <v>1E-10</v>
+      </c>
+      <c r="K70" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L70" s="31">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M70" s="31">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="N70" s="31">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O70" s="31">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="P70" s="2">
-        <v>1000</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q70" s="2">
-        <v>1000</v>
-      </c>
-      <c r="R70" s="34">
-        <v>1000</v>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="R70" s="31">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="S70" s="2">
-        <v>1000</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="T70" s="2">
-        <v>1000</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>87</v>
+      <c r="A71" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I71" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>2.75E-2</v>
       </c>
       <c r="J71" s="2">
-        <v>1E-10</v>
-      </c>
-      <c r="K71" s="8">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="L71" s="2">
-        <v>9.9999999999999995E-21</v>
-      </c>
-      <c r="M71" s="35">
-        <v>9.9999999999999995E-21</v>
-      </c>
-      <c r="N71" s="2">
-        <v>9.9999999999999995E-21</v>
-      </c>
-      <c r="O71" s="2">
-        <v>9.9999999999999995E-21</v>
+        <v>0.03</v>
+      </c>
+      <c r="K71" s="7">
+        <v>2.75E-2</v>
+      </c>
+      <c r="L71" s="31">
+        <v>2.75E-2</v>
+      </c>
+      <c r="M71" s="31">
+        <v>2.75E-2</v>
+      </c>
+      <c r="N71" s="31">
+        <v>2.75E-2</v>
+      </c>
+      <c r="O71" s="31">
+        <v>2.75E-2</v>
       </c>
       <c r="P71" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>2.75E-2</v>
       </c>
       <c r="Q71" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="R71" s="34">
-        <v>2.5000000000000001E-3</v>
+        <v>2.75E-2</v>
+      </c>
+      <c r="R71" s="31">
+        <v>2.75E-2</v>
       </c>
       <c r="S71" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>2.75E-2</v>
       </c>
       <c r="T71" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>2.75E-2</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>87</v>
+      <c r="A72" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I72" s="2">
-        <v>2.75E-2</v>
+        <v>0.27</v>
       </c>
       <c r="J72" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="K72" s="8">
-        <v>2.75E-2</v>
-      </c>
-      <c r="L72" s="2">
-        <v>2.5595388012618299E-4</v>
-      </c>
-      <c r="M72" s="35">
-        <v>2.5595388012618299E-4</v>
-      </c>
-      <c r="N72" s="2">
-        <v>1.0116278692474385E-4</v>
-      </c>
-      <c r="O72" s="2">
-        <v>1.0116278692474385E-4</v>
+        <v>0.27</v>
+      </c>
+      <c r="K72" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="L72" s="31">
+        <v>0.27</v>
+      </c>
+      <c r="M72" s="31">
+        <v>0.27</v>
+      </c>
+      <c r="N72" s="31">
+        <v>0.27</v>
+      </c>
+      <c r="O72" s="31">
+        <v>0.27</v>
       </c>
       <c r="P72" s="2">
-        <v>2.75E-2</v>
+        <v>0.27</v>
       </c>
       <c r="Q72" s="2">
-        <v>2.75E-2</v>
-      </c>
-      <c r="R72" s="34">
-        <v>2.75E-2</v>
+        <v>0.27</v>
+      </c>
+      <c r="R72" s="31">
+        <v>0.27</v>
       </c>
       <c r="S72" s="2">
-        <v>2.75E-2</v>
+        <v>0.27</v>
       </c>
       <c r="T72" s="2">
-        <v>2.75E-2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>87</v>
+      <c r="A73" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I73" s="2">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
       <c r="J73" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="K73" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="L73" s="2">
-        <v>0.13396571095647686</v>
-      </c>
-      <c r="M73" s="35">
-        <v>0.13396571095647686</v>
-      </c>
-      <c r="N73" s="2">
-        <v>0.13396571095647686</v>
-      </c>
-      <c r="O73" s="2">
-        <v>0.13396571095647686</v>
+        <v>0.6</v>
+      </c>
+      <c r="K73" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="L73" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="M73" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="N73" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="O73" s="31">
+        <v>0.6</v>
       </c>
       <c r="P73" s="2">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
       <c r="Q73" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="R73" s="34">
-        <v>0.27</v>
+        <v>0.6</v>
+      </c>
+      <c r="R73" s="31">
+        <v>0.6</v>
       </c>
       <c r="S73" s="2">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
       <c r="T73" s="2">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>87</v>
+      <c r="A74" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I74" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="J74" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="K74" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="L74" s="2">
-        <v>0.62583981387130228</v>
-      </c>
-      <c r="M74" s="35">
-        <v>0.62583981387130228</v>
-      </c>
-      <c r="N74" s="2">
-        <v>0.62583981387130228</v>
-      </c>
-      <c r="O74" s="2">
-        <v>0.62583981387130228</v>
+        <v>0.1</v>
+      </c>
+      <c r="K74" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L74" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="M74" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="N74" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="O74" s="31">
+        <v>0.1</v>
       </c>
       <c r="P74" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="Q74" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="R74" s="34">
-        <v>0.6</v>
+        <v>0.1</v>
+      </c>
+      <c r="R74" s="31">
+        <v>0.1</v>
       </c>
       <c r="S74" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="T74" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>87</v>
+      <c r="A75" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="I75" s="2">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="J75" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K75" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="L75" s="2">
-        <v>0.2399385867877197</v>
-      </c>
-      <c r="M75" s="35">
-        <v>0.2399385867877197</v>
-      </c>
-      <c r="N75" s="2">
-        <v>0.2399385867877197</v>
-      </c>
-      <c r="O75" s="2">
-        <v>0.2399385867877197</v>
+        <v>12</v>
+      </c>
+      <c r="K75" s="7">
+        <v>12</v>
+      </c>
+      <c r="L75" s="31">
+        <v>12</v>
+      </c>
+      <c r="M75" s="31">
+        <v>12</v>
+      </c>
+      <c r="N75" s="31">
+        <v>12</v>
+      </c>
+      <c r="O75" s="31">
+        <v>12</v>
       </c>
       <c r="P75" s="2">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="Q75" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R75" s="34">
-        <v>0.1</v>
+        <v>12</v>
+      </c>
+      <c r="R75" s="31">
+        <v>12</v>
       </c>
       <c r="S75" s="2">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="T75" s="2">
-        <v>0.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>98</v>
+      <c r="A76" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="I76" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J76" s="2">
-        <v>12</v>
-      </c>
-      <c r="K76" s="8">
-        <v>12</v>
-      </c>
-      <c r="L76" s="2">
-        <v>10</v>
-      </c>
-      <c r="M76" s="35">
-        <v>10</v>
-      </c>
-      <c r="N76" s="2">
-        <v>10</v>
-      </c>
-      <c r="O76" s="2">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="K76" s="7">
+        <v>3</v>
+      </c>
+      <c r="L76" s="31">
+        <v>3</v>
+      </c>
+      <c r="M76" s="31">
+        <v>3</v>
+      </c>
+      <c r="N76" s="31">
+        <v>3</v>
+      </c>
+      <c r="O76" s="31">
+        <v>3</v>
       </c>
       <c r="P76" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q76" s="2">
-        <v>12</v>
-      </c>
-      <c r="R76" s="34">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="R76" s="31">
+        <v>3</v>
       </c>
       <c r="S76" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T76" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>101</v>
+      <c r="A77" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="I77" s="2">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="J77" s="2">
-        <v>3</v>
-      </c>
-      <c r="K77" s="8">
-        <v>3</v>
-      </c>
-      <c r="L77" s="2">
-        <v>4.63580226898193</v>
-      </c>
-      <c r="M77" s="35">
-        <v>4.63580226898193</v>
-      </c>
-      <c r="N77" s="2">
-        <v>4.63580226898193</v>
-      </c>
-      <c r="O77" s="2">
-        <v>4.63580226898193</v>
+        <v>700</v>
+      </c>
+      <c r="K77" s="7">
+        <v>700</v>
+      </c>
+      <c r="L77" s="31">
+        <v>700</v>
+      </c>
+      <c r="M77" s="31">
+        <v>700</v>
+      </c>
+      <c r="N77" s="31">
+        <v>700</v>
+      </c>
+      <c r="O77" s="31">
+        <v>700</v>
       </c>
       <c r="P77" s="2">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="Q77" s="2">
-        <v>3</v>
-      </c>
-      <c r="R77" s="34">
-        <v>3</v>
+        <v>700</v>
+      </c>
+      <c r="R77" s="31">
+        <v>700</v>
       </c>
       <c r="S77" s="2">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="T77" s="2">
-        <v>3</v>
+        <v>700</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>104</v>
+      <c r="A78" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="I78" s="2">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="J78" s="2">
-        <v>700</v>
-      </c>
-      <c r="K78" s="8">
-        <v>700</v>
-      </c>
-      <c r="L78" s="2">
-        <v>930.21250226047403</v>
-      </c>
-      <c r="M78" s="35">
-        <v>930.21250226047403</v>
-      </c>
-      <c r="N78" s="2">
-        <v>632.85703291353502</v>
-      </c>
-      <c r="O78" s="2">
-        <v>632.85703291353502</v>
+        <v>1E-10</v>
+      </c>
+      <c r="K78" s="7">
+        <v>100</v>
+      </c>
+      <c r="L78" s="31">
+        <v>100</v>
+      </c>
+      <c r="M78" s="31">
+        <v>100</v>
+      </c>
+      <c r="N78" s="31">
+        <v>100</v>
+      </c>
+      <c r="O78" s="31">
+        <v>100</v>
       </c>
       <c r="P78" s="2">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="Q78" s="2">
-        <v>700</v>
-      </c>
-      <c r="R78" s="34">
-        <v>700</v>
+        <v>100</v>
+      </c>
+      <c r="R78" s="31">
+        <v>100</v>
       </c>
       <c r="S78" s="2">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="T78" s="2">
-        <v>700</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>107</v>
+      <c r="A79" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="I79" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="J79" s="2">
-        <v>1E-10</v>
-      </c>
-      <c r="K79" s="8">
-        <v>100</v>
-      </c>
-      <c r="L79" s="34">
-        <v>100</v>
-      </c>
-      <c r="M79" s="34">
-        <v>100</v>
-      </c>
-      <c r="N79" s="34">
-        <v>100</v>
-      </c>
-      <c r="O79" s="34">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="K79" s="7">
+        <v>3</v>
+      </c>
+      <c r="L79" s="31">
+        <v>3</v>
+      </c>
+      <c r="M79" s="31">
+        <v>3</v>
+      </c>
+      <c r="N79" s="31">
+        <v>3</v>
+      </c>
+      <c r="O79" s="31">
+        <v>3</v>
       </c>
       <c r="P79" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="Q79" s="2">
-        <v>100</v>
-      </c>
-      <c r="R79" s="34">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="R79" s="31">
+        <v>3</v>
       </c>
       <c r="S79" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="T79" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>107</v>
+      <c r="A80" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I80" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J80" s="2">
-        <v>3</v>
-      </c>
-      <c r="K80" s="8">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2">
-        <v>1.87</v>
-      </c>
-      <c r="M80" s="35">
-        <v>1.87</v>
-      </c>
-      <c r="N80" s="2">
-        <v>1.62</v>
-      </c>
-      <c r="O80" s="2">
-        <v>1.62</v>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K80" s="7">
+        <v>0</v>
+      </c>
+      <c r="L80" s="31">
+        <v>0</v>
+      </c>
+      <c r="M80" s="31">
+        <v>0</v>
+      </c>
+      <c r="N80" s="31">
+        <v>0</v>
+      </c>
+      <c r="O80" s="31">
+        <v>0</v>
       </c>
       <c r="P80" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q80" s="2">
-        <v>3</v>
-      </c>
-      <c r="R80" s="34">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="R80" s="31">
+        <v>0</v>
       </c>
       <c r="S80" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T80" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H81" s="7" t="s">
+      <c r="A81" s="6" t="s">
         <v>87</v>
       </c>
+      <c r="G81" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="I81" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J81" s="2">
-        <v>0</v>
-      </c>
-      <c r="K81" s="8">
-        <v>0</v>
-      </c>
-      <c r="L81" s="34">
-        <v>0</v>
-      </c>
-      <c r="M81" s="34">
-        <v>0</v>
-      </c>
-      <c r="N81" s="34">
-        <v>0</v>
-      </c>
-      <c r="O81" s="34">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="K81" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L81" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="M81" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="N81" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="O81" s="31">
+        <v>0.25</v>
       </c>
       <c r="P81" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q81" s="2">
-        <v>0</v>
-      </c>
-      <c r="R81" s="34">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="R81" s="31">
+        <v>0.25</v>
       </c>
       <c r="S81" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T81" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>87</v>
+      <c r="A82" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I82" s="2">
         <v>0.25</v>
@@ -29802,19 +29222,19 @@
       <c r="J82" s="2">
         <v>0.25</v>
       </c>
-      <c r="K82" s="8">
+      <c r="K82" s="7">
         <v>0.25</v>
       </c>
-      <c r="L82" s="34">
+      <c r="L82" s="31">
         <v>0.25</v>
       </c>
-      <c r="M82" s="34">
+      <c r="M82" s="31">
         <v>0.25</v>
       </c>
-      <c r="N82" s="34">
+      <c r="N82" s="31">
         <v>0.25</v>
       </c>
-      <c r="O82" s="34">
+      <c r="O82" s="31">
         <v>0.25</v>
       </c>
       <c r="P82" s="2">
@@ -29823,7 +29243,7 @@
       <c r="Q82" s="2">
         <v>0.25</v>
       </c>
-      <c r="R82" s="34">
+      <c r="R82" s="31">
         <v>0.25</v>
       </c>
       <c r="S82" s="2">
@@ -29834,270 +29254,270 @@
       </c>
     </row>
     <row r="83" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>87</v>
+      <c r="A83" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="I83" s="2">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="J83" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="K83" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="L83" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="M83" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="N83" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="O83" s="34">
-        <v>0.25</v>
+        <v>0.03</v>
+      </c>
+      <c r="K83" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="L83" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="M83" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="N83" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="O83" s="31">
+        <v>0.03</v>
       </c>
       <c r="P83" s="2">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="Q83" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R83" s="34">
-        <v>0.25</v>
+        <v>0.03</v>
+      </c>
+      <c r="R83" s="31">
+        <v>0.03</v>
       </c>
       <c r="S83" s="2">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="T83" s="2">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I84" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="J84" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="K84" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="L84" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="M84" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="N84" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="O84" s="34">
-        <v>0.03</v>
+      <c r="A84" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I84" s="31">
+        <v>3200000000</v>
+      </c>
+      <c r="J84" s="31">
+        <v>3200000000</v>
+      </c>
+      <c r="K84" s="7">
+        <v>3200000000</v>
+      </c>
+      <c r="L84" s="31">
+        <v>3200000000</v>
+      </c>
+      <c r="M84" s="31">
+        <v>3200000000</v>
+      </c>
+      <c r="N84" s="31">
+        <v>3200000000</v>
+      </c>
+      <c r="O84" s="31">
+        <v>3200000000</v>
       </c>
       <c r="P84" s="2">
-        <v>0.03</v>
+        <v>3200000000</v>
       </c>
       <c r="Q84" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="R84" s="34">
-        <v>0.03</v>
+        <v>3200000000</v>
+      </c>
+      <c r="R84" s="31">
+        <v>3200000000</v>
       </c>
       <c r="S84" s="2">
-        <v>0.03</v>
+        <v>3200000000</v>
       </c>
       <c r="T84" s="2">
-        <v>0.03</v>
+        <v>3200000000</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I85" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="J85" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="K85" s="8">
-        <v>1400000000</v>
-      </c>
-      <c r="L85" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="M85" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="N85" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="O85" s="2">
-        <v>1400000000</v>
+      <c r="A85" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I85" s="31">
+        <v>2900000000</v>
+      </c>
+      <c r="J85" s="31">
+        <v>2900000000</v>
+      </c>
+      <c r="K85" s="7">
+        <v>2900000000</v>
+      </c>
+      <c r="L85" s="31">
+        <v>2900000000</v>
+      </c>
+      <c r="M85" s="31">
+        <v>2900000000</v>
+      </c>
+      <c r="N85" s="31">
+        <v>2900000000</v>
+      </c>
+      <c r="O85" s="31">
+        <v>2900000000</v>
       </c>
       <c r="P85" s="2">
-        <v>3200000000</v>
+        <v>2900000000</v>
       </c>
       <c r="Q85" s="2">
-        <v>3200000000</v>
-      </c>
-      <c r="R85" s="34">
-        <v>3200000000</v>
+        <v>2900000000</v>
+      </c>
+      <c r="R85" s="31">
+        <v>2900000000</v>
       </c>
       <c r="S85" s="2">
-        <v>3200000000</v>
+        <v>2900000000</v>
       </c>
       <c r="T85" s="2">
-        <v>3200000000</v>
+        <v>2900000000</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I86" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="J86" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="K86" s="8">
-        <v>3600000000</v>
-      </c>
-      <c r="L86" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="M86" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="N86" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="O86" s="2">
-        <v>3600000000</v>
+      <c r="A86" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I86" s="31">
+        <v>300000</v>
+      </c>
+      <c r="J86" s="31">
+        <v>300000</v>
+      </c>
+      <c r="K86" s="7">
+        <v>300000</v>
+      </c>
+      <c r="L86" s="31">
+        <v>300000</v>
+      </c>
+      <c r="M86" s="31">
+        <v>300000</v>
+      </c>
+      <c r="N86" s="31">
+        <v>300000</v>
+      </c>
+      <c r="O86" s="31">
+        <v>300000</v>
       </c>
       <c r="P86" s="2">
-        <v>2900000000</v>
+        <v>300000</v>
       </c>
       <c r="Q86" s="2">
-        <v>2900000000</v>
-      </c>
-      <c r="R86" s="34">
-        <v>2900000000</v>
+        <v>300000</v>
+      </c>
+      <c r="R86" s="31">
+        <v>300000</v>
       </c>
       <c r="S86" s="2">
-        <v>2900000000</v>
+        <v>300000</v>
       </c>
       <c r="T86" s="2">
-        <v>2900000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I87" s="34">
-        <v>300000</v>
-      </c>
-      <c r="J87" s="34">
-        <v>300000</v>
-      </c>
-      <c r="K87" s="8">
-        <v>2100000</v>
-      </c>
-      <c r="L87" s="34">
-        <v>300000</v>
-      </c>
-      <c r="M87" s="34">
-        <v>300000</v>
-      </c>
-      <c r="N87" s="34">
-        <v>300000</v>
-      </c>
-      <c r="O87" s="2">
-        <v>2100000</v>
+      <c r="A87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G87" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I87" s="31">
+        <v>1</v>
+      </c>
+      <c r="J87" s="31">
+        <v>1</v>
+      </c>
+      <c r="K87" s="7">
+        <v>1</v>
+      </c>
+      <c r="L87" s="31">
+        <v>1</v>
+      </c>
+      <c r="M87" s="31">
+        <v>1</v>
+      </c>
+      <c r="N87" s="31">
+        <v>1</v>
+      </c>
+      <c r="O87" s="31">
+        <v>1</v>
       </c>
       <c r="P87" s="2">
-        <v>300000</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="2">
-        <v>300000</v>
-      </c>
-      <c r="R87" s="34">
-        <v>300000</v>
+        <v>1</v>
+      </c>
+      <c r="R87" s="31">
+        <v>1</v>
       </c>
       <c r="S87" s="2">
-        <v>300000</v>
+        <v>1</v>
       </c>
       <c r="T87" s="2">
-        <v>300000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="G88" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I88" s="34">
+        <v>134</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I88" s="31">
         <v>1</v>
       </c>
-      <c r="J88" s="34">
+      <c r="J88" s="31">
         <v>1</v>
       </c>
-      <c r="K88" s="8">
-        <v>2.4994511151960403E-2</v>
-      </c>
-      <c r="L88" s="34">
+      <c r="K88" s="7">
         <v>1</v>
       </c>
-      <c r="M88" s="34">
+      <c r="L88" s="31">
         <v>1</v>
       </c>
-      <c r="N88" s="34">
+      <c r="M88" s="31">
         <v>1</v>
       </c>
-      <c r="O88" s="2">
-        <v>4.8066367599923847</v>
+      <c r="N88" s="31">
+        <v>1</v>
+      </c>
+      <c r="O88" s="31">
+        <v>1</v>
       </c>
       <c r="P88" s="2">
         <v>1</v>
@@ -30105,7 +29525,7 @@
       <c r="Q88" s="2">
         <v>1</v>
       </c>
-      <c r="R88" s="34">
+      <c r="R88" s="31">
         <v>1</v>
       </c>
       <c r="S88" s="2">
@@ -30117,34 +29537,34 @@
     </row>
     <row r="89" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="G89" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I89" s="34">
+        <v>135</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I89" s="31">
         <v>1</v>
       </c>
-      <c r="J89" s="34">
+      <c r="J89" s="31">
         <v>1</v>
       </c>
-      <c r="K89" s="8">
-        <v>2.4994511151960403E-2</v>
-      </c>
-      <c r="L89" s="2">
-        <v>0.12393037193697687</v>
-      </c>
-      <c r="M89" s="35">
-        <v>0.12393037193697687</v>
-      </c>
-      <c r="N89" s="2">
-        <v>0.11329900738000624</v>
-      </c>
-      <c r="O89" s="2">
-        <v>0.11329900738000624</v>
+      <c r="K89" s="7">
+        <v>1</v>
+      </c>
+      <c r="L89" s="31">
+        <v>1</v>
+      </c>
+      <c r="M89" s="31">
+        <v>1</v>
+      </c>
+      <c r="N89" s="31">
+        <v>1</v>
+      </c>
+      <c r="O89" s="31">
+        <v>1</v>
       </c>
       <c r="P89" s="2">
         <v>1</v>
@@ -30152,7 +29572,7 @@
       <c r="Q89" s="2">
         <v>1</v>
       </c>
-      <c r="R89" s="34">
+      <c r="R89" s="31">
         <v>1</v>
       </c>
       <c r="S89" s="2">
@@ -30164,244 +29584,226 @@
     </row>
     <row r="90" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I90" s="34">
-        <v>1</v>
-      </c>
-      <c r="J90" s="34">
-        <v>1</v>
-      </c>
-      <c r="K90" s="8">
-        <v>2.4994511151960403E-2</v>
-      </c>
-      <c r="L90" s="34">
-        <v>1</v>
-      </c>
-      <c r="M90" s="34">
-        <v>1</v>
-      </c>
-      <c r="N90" s="34">
-        <v>1</v>
-      </c>
-      <c r="O90" s="2">
-        <v>4.8066367599923847</v>
+        <v>136</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I90" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="J90" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K90" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L90" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="M90" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="N90" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="O90" s="31">
+        <v>0.5</v>
       </c>
       <c r="P90" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q90" s="2">
-        <v>1</v>
-      </c>
-      <c r="R90" s="34">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="R90" s="31">
+        <v>0.5</v>
       </c>
       <c r="S90" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T90" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="G91" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I91" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="J91" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="K91" s="8">
-        <v>3.3929200658769768E-2</v>
-      </c>
-      <c r="L91" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="M91" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="N91" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="O91" s="2">
-        <v>10.178760197630933</v>
+        <v>137</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I91" s="31">
+        <v>15</v>
+      </c>
+      <c r="J91" s="31">
+        <v>15</v>
+      </c>
+      <c r="K91" s="7">
+        <v>15</v>
+      </c>
+      <c r="L91" s="31">
+        <v>15</v>
+      </c>
+      <c r="M91" s="31">
+        <v>15</v>
+      </c>
+      <c r="N91" s="31">
+        <v>15</v>
+      </c>
+      <c r="O91" s="31">
+        <v>15</v>
       </c>
       <c r="P91" s="2">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="Q91" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R91" s="34">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="R91" s="31">
+        <v>15</v>
       </c>
       <c r="S91" s="2">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="T91" s="2">
-        <v>0.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="G92" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I92" s="34">
-        <v>15</v>
-      </c>
-      <c r="J92" s="34">
-        <v>15</v>
-      </c>
-      <c r="K92" s="8">
-        <v>3.3929200658769768E-2</v>
-      </c>
-      <c r="L92" s="2">
-        <v>1.858955579054653</v>
-      </c>
-      <c r="M92" s="35">
-        <v>1.858955579054653</v>
-      </c>
-      <c r="N92" s="2">
-        <v>1.6994851107000937</v>
-      </c>
-      <c r="O92" s="2">
-        <v>1.6994851107000937</v>
+        <v>138</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I92" s="31">
+        <v>5</v>
+      </c>
+      <c r="J92" s="31">
+        <v>5</v>
+      </c>
+      <c r="K92" s="7">
+        <v>5</v>
+      </c>
+      <c r="L92" s="31">
+        <v>5</v>
+      </c>
+      <c r="M92" s="31">
+        <v>5</v>
+      </c>
+      <c r="N92" s="31">
+        <v>5</v>
+      </c>
+      <c r="O92" s="31">
+        <v>5</v>
       </c>
       <c r="P92" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q92" s="2">
-        <v>15</v>
-      </c>
-      <c r="R92" s="34">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="R92" s="31">
+        <v>5</v>
       </c>
       <c r="S92" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T92" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G93" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I93" s="34">
-        <v>5</v>
-      </c>
-      <c r="J93" s="34">
-        <v>5</v>
-      </c>
-      <c r="K93" s="8">
-        <v>3.3929200658769768E-2</v>
-      </c>
-      <c r="L93" s="34">
-        <v>5</v>
-      </c>
-      <c r="M93" s="34">
-        <v>5</v>
-      </c>
-      <c r="N93" s="34">
-        <v>5</v>
-      </c>
-      <c r="O93" s="2">
-        <v>10.178760197630933</v>
+      <c r="A93" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I93" s="31">
+        <v>100</v>
+      </c>
+      <c r="J93" s="31">
+        <v>100</v>
+      </c>
+      <c r="K93" s="7">
+        <v>100</v>
+      </c>
+      <c r="L93" s="31">
+        <v>100</v>
+      </c>
+      <c r="M93" s="31">
+        <v>100</v>
+      </c>
+      <c r="N93" s="31">
+        <v>100</v>
+      </c>
+      <c r="O93" s="31">
+        <v>100</v>
       </c>
       <c r="P93" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="Q93" s="2">
-        <v>5</v>
-      </c>
-      <c r="R93" s="34">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="R93" s="31">
+        <v>100</v>
       </c>
       <c r="S93" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T93" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I94" s="2">
-        <v>100</v>
-      </c>
-      <c r="J94" s="2">
-        <v>100</v>
-      </c>
-      <c r="K94" s="8">
-        <v>100</v>
-      </c>
-      <c r="L94" s="2">
-        <v>100</v>
-      </c>
-      <c r="M94" s="2">
-        <v>100</v>
-      </c>
-      <c r="N94" s="2">
-        <v>100</v>
-      </c>
-      <c r="O94" s="2">
-        <v>100</v>
-      </c>
-      <c r="P94" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q94" s="2">
-        <v>100</v>
-      </c>
-      <c r="R94" s="2">
-        <v>100</v>
-      </c>
-      <c r="S94" s="2">
-        <v>100</v>
-      </c>
-      <c r="T94" s="2">
-        <v>100</v>
-      </c>
+    <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="34"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="36"/>
     </row>
-    <row r="95" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A95" s="23"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -30412,2315 +29814,364 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F96" s="41"/>
+      <c r="G96" s="42"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43"/>
       <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
+      <c r="M96" s="32"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
+      <c r="P96" s="32"/>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H97" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="I97" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="J97" s="2">
-        <v>3520000</v>
-      </c>
-      <c r="K97" s="8">
-        <v>3714410</v>
-      </c>
-      <c r="L97" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="M97" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="N97" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="O97" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="P97" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="Q97" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="R97" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="S97" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="T97" s="2">
-        <v>3714410</v>
-      </c>
+    <row r="97" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F97" s="41"/>
+      <c r="G97" s="42"/>
+      <c r="I97" s="43"/>
+      <c r="J97" s="43"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="32"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="32"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H98" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="I98" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="J98" s="2">
-        <v>3520200</v>
-      </c>
-      <c r="K98" s="8">
-        <v>3714410</v>
-      </c>
-      <c r="L98" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="M98" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="N98" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="O98" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="P98" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="Q98" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="R98" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="S98" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="T98" s="2">
-        <v>3714410</v>
-      </c>
+    <row r="98" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F98" s="41"/>
+      <c r="G98" s="42"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="43"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="32"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="32"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="B99" s="9"/>
-      <c r="G99" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="H99" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="I99" s="8">
-        <v>3714410</v>
-      </c>
-      <c r="J99" s="8">
-        <v>3520000</v>
-      </c>
-      <c r="K99" s="8">
-        <v>3714410</v>
-      </c>
-      <c r="L99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="M99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="N99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="O99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="P99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="Q99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="R99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="S99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="T99" s="34">
-        <v>3714410</v>
-      </c>
+    <row r="99" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F99" s="41"/>
+      <c r="G99" s="42"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="32"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="32"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="B100" s="9"/>
-      <c r="G100" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H100" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="I100" s="8">
-        <v>3714410</v>
-      </c>
-      <c r="J100" s="8">
-        <v>3520200</v>
-      </c>
-      <c r="K100" s="8">
-        <v>3714410</v>
-      </c>
-      <c r="L100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="M100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="N100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="O100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="P100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="Q100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="R100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="S100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="T100" s="34">
-        <v>3714410</v>
-      </c>
+    <row r="100" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F100" s="41"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="32"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I101" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="J101" s="2">
-        <v>1E-10</v>
-      </c>
-      <c r="K101" s="8">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="L101" s="34">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="M101" s="34">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="N101" s="34">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="O101" s="34">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="P101" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="Q101" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="R101" s="34">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="S101" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="T101" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
+    <row r="101" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F101" s="41"/>
+      <c r="G101" s="42"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="43"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="32"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I102" s="2">
-        <v>2.75E-2</v>
-      </c>
-      <c r="J102" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="K102" s="8">
-        <v>2.75E-2</v>
-      </c>
-      <c r="L102" s="34">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M102" s="34">
-        <v>2.75E-2</v>
-      </c>
-      <c r="N102" s="34">
-        <v>2.75E-2</v>
-      </c>
-      <c r="O102" s="34">
-        <v>2.75E-2</v>
-      </c>
-      <c r="P102" s="2">
-        <v>2.75E-2</v>
-      </c>
-      <c r="Q102" s="2">
-        <v>2.75E-2</v>
-      </c>
-      <c r="R102" s="34">
-        <v>2.75E-2</v>
-      </c>
-      <c r="S102" s="2">
-        <v>2.75E-2</v>
-      </c>
-      <c r="T102" s="2">
-        <v>2.75E-2</v>
-      </c>
+    <row r="102" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F102" s="44"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="43"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="32"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I103" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="J103" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="K103" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="L103" s="34">
-        <v>0.27</v>
-      </c>
-      <c r="M103" s="34">
-        <v>0.27</v>
-      </c>
-      <c r="N103" s="34">
-        <v>0.27</v>
-      </c>
-      <c r="O103" s="34">
-        <v>0.27</v>
-      </c>
-      <c r="P103" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="Q103" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="R103" s="34">
-        <v>0.27</v>
-      </c>
-      <c r="S103" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="T103" s="2">
-        <v>0.27</v>
-      </c>
+    <row r="103" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F103" s="44"/>
+      <c r="G103" s="42"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="43"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="32"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I104" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J104" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="K104" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="L104" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="M104" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="N104" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="O104" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="P104" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="Q104" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="R104" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="S104" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="T104" s="2">
-        <v>0.6</v>
-      </c>
+    <row r="104" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F104" s="44"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="43"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="32"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I105" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J105" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K105" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="L105" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="M105" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="N105" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="O105" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="P105" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q105" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R105" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="S105" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="T105" s="2">
-        <v>0.1</v>
-      </c>
+    <row r="105" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F105" s="44"/>
+      <c r="G105" s="42"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="43"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="32"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="32"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I106" s="2">
-        <v>12</v>
-      </c>
-      <c r="J106" s="2">
-        <v>12</v>
-      </c>
-      <c r="K106" s="8">
-        <v>12</v>
-      </c>
-      <c r="L106" s="34">
-        <v>12</v>
-      </c>
-      <c r="M106" s="34">
-        <v>12</v>
-      </c>
-      <c r="N106" s="34">
-        <v>12</v>
-      </c>
-      <c r="O106" s="34">
-        <v>12</v>
-      </c>
-      <c r="P106" s="2">
-        <v>12</v>
-      </c>
-      <c r="Q106" s="2">
-        <v>12</v>
-      </c>
-      <c r="R106" s="34">
-        <v>12</v>
-      </c>
-      <c r="S106" s="2">
-        <v>12</v>
-      </c>
-      <c r="T106" s="2">
-        <v>12</v>
-      </c>
+    <row r="106" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F106" s="44"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="43"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="32"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="32"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I107" s="2">
-        <v>3</v>
-      </c>
-      <c r="J107" s="2">
-        <v>3</v>
-      </c>
-      <c r="K107" s="8">
-        <v>3</v>
-      </c>
-      <c r="L107" s="34">
-        <v>3</v>
-      </c>
-      <c r="M107" s="34">
-        <v>3</v>
-      </c>
-      <c r="N107" s="34">
-        <v>3</v>
-      </c>
-      <c r="O107" s="34">
-        <v>3</v>
-      </c>
-      <c r="P107" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q107" s="2">
-        <v>3</v>
-      </c>
-      <c r="R107" s="34">
-        <v>3</v>
-      </c>
-      <c r="S107" s="2">
-        <v>3</v>
-      </c>
-      <c r="T107" s="2">
-        <v>3</v>
-      </c>
+    <row r="107" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F107" s="44"/>
+      <c r="G107" s="42"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="43"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="32"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I108" s="2">
-        <v>700</v>
-      </c>
-      <c r="J108" s="2">
-        <v>700</v>
-      </c>
-      <c r="K108" s="8">
-        <v>700</v>
-      </c>
-      <c r="L108" s="34">
-        <v>700</v>
-      </c>
-      <c r="M108" s="34">
-        <v>700</v>
-      </c>
-      <c r="N108" s="34">
-        <v>700</v>
-      </c>
-      <c r="O108" s="34">
-        <v>700</v>
-      </c>
-      <c r="P108" s="2">
-        <v>700</v>
-      </c>
-      <c r="Q108" s="2">
-        <v>700</v>
-      </c>
-      <c r="R108" s="34">
-        <v>700</v>
-      </c>
-      <c r="S108" s="2">
-        <v>700</v>
-      </c>
-      <c r="T108" s="2">
-        <v>700</v>
-      </c>
+    <row r="108" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F108" s="41"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="43"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="32"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I109" s="2">
-        <v>100</v>
-      </c>
-      <c r="J109" s="2">
-        <v>1E-10</v>
-      </c>
-      <c r="K109" s="8">
-        <v>100</v>
-      </c>
-      <c r="L109" s="34">
-        <v>100</v>
-      </c>
-      <c r="M109" s="34">
-        <v>100</v>
-      </c>
-      <c r="N109" s="34">
-        <v>100</v>
-      </c>
-      <c r="O109" s="34">
-        <v>100</v>
-      </c>
-      <c r="P109" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q109" s="2">
-        <v>100</v>
-      </c>
-      <c r="R109" s="34">
-        <v>100</v>
-      </c>
-      <c r="S109" s="2">
-        <v>100</v>
-      </c>
-      <c r="T109" s="2">
-        <v>100</v>
-      </c>
+    <row r="109" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F109" s="44"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="43"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="32"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="32"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I110" s="2">
-        <v>3</v>
-      </c>
-      <c r="J110" s="2">
-        <v>3</v>
-      </c>
-      <c r="K110" s="8">
-        <v>3</v>
-      </c>
-      <c r="L110" s="34">
-        <v>3</v>
-      </c>
-      <c r="M110" s="34">
-        <v>3</v>
-      </c>
-      <c r="N110" s="34">
-        <v>3</v>
-      </c>
-      <c r="O110" s="34">
-        <v>3</v>
-      </c>
-      <c r="P110" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q110" s="2">
-        <v>3</v>
-      </c>
-      <c r="R110" s="34">
-        <v>3</v>
-      </c>
-      <c r="S110" s="2">
-        <v>3</v>
-      </c>
-      <c r="T110" s="2">
-        <v>3</v>
-      </c>
+    <row r="110" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F110" s="44"/>
+      <c r="G110" s="42"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="43"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="32"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I111" s="2">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="K111" s="8">
-        <v>0</v>
-      </c>
-      <c r="L111" s="34">
-        <v>0</v>
-      </c>
-      <c r="M111" s="34">
-        <v>0</v>
-      </c>
-      <c r="N111" s="34">
-        <v>0</v>
-      </c>
-      <c r="O111" s="34">
-        <v>0</v>
-      </c>
-      <c r="P111" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="2">
-        <v>0</v>
-      </c>
-      <c r="R111" s="34">
-        <v>0</v>
-      </c>
-      <c r="S111" s="2">
-        <v>0</v>
-      </c>
-      <c r="T111" s="2">
-        <v>0</v>
-      </c>
+    <row r="111" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F111" s="44"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="32"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="32"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I112" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="J112" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="K112" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="L112" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="M112" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="N112" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="O112" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="P112" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="Q112" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R112" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="S112" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="T112" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I113" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="J113" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="K113" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="L113" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="M113" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="N113" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="O113" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="P113" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="Q113" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R113" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="S113" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="T113" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I114" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="J114" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="K114" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="L114" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="M114" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="N114" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="O114" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="P114" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="Q114" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="R114" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="S114" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T114" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I115" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="J115" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="K115" s="8">
-        <v>3200000000</v>
-      </c>
-      <c r="L115" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="M115" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="N115" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="O115" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="P115" s="2">
-        <v>3200000000</v>
-      </c>
-      <c r="Q115" s="2">
-        <v>3200000000</v>
-      </c>
-      <c r="R115" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="S115" s="2">
-        <v>3200000000</v>
-      </c>
-      <c r="T115" s="2">
-        <v>3200000000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I116" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="J116" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="K116" s="8">
-        <v>2900000000</v>
-      </c>
-      <c r="L116" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="M116" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="N116" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="O116" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="P116" s="2">
-        <v>2900000000</v>
-      </c>
-      <c r="Q116" s="2">
-        <v>2900000000</v>
-      </c>
-      <c r="R116" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="S116" s="2">
-        <v>2900000000</v>
-      </c>
-      <c r="T116" s="2">
-        <v>2900000000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I117" s="34">
-        <v>300000</v>
-      </c>
-      <c r="J117" s="34">
-        <v>300000</v>
-      </c>
-      <c r="K117" s="8">
-        <v>300000</v>
-      </c>
-      <c r="L117" s="34">
-        <v>300000</v>
-      </c>
-      <c r="M117" s="34">
-        <v>300000</v>
-      </c>
-      <c r="N117" s="34">
-        <v>300000</v>
-      </c>
-      <c r="O117" s="34">
-        <v>300000</v>
-      </c>
-      <c r="P117" s="2">
-        <v>300000</v>
-      </c>
-      <c r="Q117" s="2">
-        <v>300000</v>
-      </c>
-      <c r="R117" s="34">
-        <v>300000</v>
-      </c>
-      <c r="S117" s="2">
-        <v>300000</v>
-      </c>
-      <c r="T117" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G118" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I118" s="34">
-        <v>1</v>
-      </c>
-      <c r="J118" s="34">
-        <v>1</v>
-      </c>
-      <c r="K118" s="8">
-        <v>1</v>
-      </c>
-      <c r="L118" s="34">
-        <v>1</v>
-      </c>
-      <c r="M118" s="34">
-        <v>1</v>
-      </c>
-      <c r="N118" s="34">
-        <v>1</v>
-      </c>
-      <c r="O118" s="34">
-        <v>1</v>
-      </c>
-      <c r="P118" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q118" s="2">
-        <v>1</v>
-      </c>
-      <c r="R118" s="34">
-        <v>1</v>
-      </c>
-      <c r="S118" s="2">
-        <v>1</v>
-      </c>
-      <c r="T118" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G119" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I119" s="34">
-        <v>1</v>
-      </c>
-      <c r="J119" s="34">
-        <v>1</v>
-      </c>
-      <c r="K119" s="8">
-        <v>1</v>
-      </c>
-      <c r="L119" s="34">
-        <v>1</v>
-      </c>
-      <c r="M119" s="34">
-        <v>1</v>
-      </c>
-      <c r="N119" s="34">
-        <v>1</v>
-      </c>
-      <c r="O119" s="34">
-        <v>1</v>
-      </c>
-      <c r="P119" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q119" s="2">
-        <v>1</v>
-      </c>
-      <c r="R119" s="34">
-        <v>1</v>
-      </c>
-      <c r="S119" s="2">
-        <v>1</v>
-      </c>
-      <c r="T119" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G120" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I120" s="34">
-        <v>1</v>
-      </c>
-      <c r="J120" s="34">
-        <v>1</v>
-      </c>
-      <c r="K120" s="8">
-        <v>1</v>
-      </c>
-      <c r="L120" s="34">
-        <v>1</v>
-      </c>
-      <c r="M120" s="34">
-        <v>1</v>
-      </c>
-      <c r="N120" s="34">
-        <v>1</v>
-      </c>
-      <c r="O120" s="34">
-        <v>1</v>
-      </c>
-      <c r="P120" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q120" s="2">
-        <v>1</v>
-      </c>
-      <c r="R120" s="34">
-        <v>1</v>
-      </c>
-      <c r="S120" s="2">
-        <v>1</v>
-      </c>
-      <c r="T120" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G121" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I121" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="J121" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="K121" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="L121" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="M121" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="N121" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="O121" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="P121" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q121" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R121" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="S121" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T121" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G122" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I122" s="34">
-        <v>15</v>
-      </c>
-      <c r="J122" s="34">
-        <v>15</v>
-      </c>
-      <c r="K122" s="8">
-        <v>15</v>
-      </c>
-      <c r="L122" s="34">
-        <v>15</v>
-      </c>
-      <c r="M122" s="34">
-        <v>15</v>
-      </c>
-      <c r="N122" s="34">
-        <v>15</v>
-      </c>
-      <c r="O122" s="34">
-        <v>15</v>
-      </c>
-      <c r="P122" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q122" s="2">
-        <v>15</v>
-      </c>
-      <c r="R122" s="34">
-        <v>15</v>
-      </c>
-      <c r="S122" s="2">
-        <v>15</v>
-      </c>
-      <c r="T122" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G123" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I123" s="34">
-        <v>5</v>
-      </c>
-      <c r="J123" s="34">
-        <v>5</v>
-      </c>
-      <c r="K123" s="8">
-        <v>5</v>
-      </c>
-      <c r="L123" s="34">
-        <v>5</v>
-      </c>
-      <c r="M123" s="34">
-        <v>5</v>
-      </c>
-      <c r="N123" s="34">
-        <v>5</v>
-      </c>
-      <c r="O123" s="34">
-        <v>5</v>
-      </c>
-      <c r="P123" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q123" s="2">
-        <v>5</v>
-      </c>
-      <c r="R123" s="34">
-        <v>5</v>
-      </c>
-      <c r="S123" s="2">
-        <v>5</v>
-      </c>
-      <c r="T123" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I124" s="34">
-        <v>100</v>
-      </c>
-      <c r="J124" s="34">
-        <v>100</v>
-      </c>
-      <c r="K124" s="8">
-        <v>100</v>
-      </c>
-      <c r="L124" s="34">
-        <v>100</v>
-      </c>
-      <c r="M124" s="34">
-        <v>100</v>
-      </c>
-      <c r="N124" s="34">
-        <v>100</v>
-      </c>
-      <c r="O124" s="34">
-        <v>100</v>
-      </c>
-      <c r="P124" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q124" s="2">
-        <v>100</v>
-      </c>
-      <c r="R124" s="34">
-        <v>100</v>
-      </c>
-      <c r="S124" s="2">
-        <v>100</v>
-      </c>
-      <c r="T124" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="37"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="39"/>
-      <c r="J125" s="39"/>
-      <c r="K125" s="39"/>
-      <c r="L125" s="39"/>
-      <c r="M125" s="39"/>
-      <c r="N125" s="39"/>
-      <c r="O125" s="39"/>
-      <c r="P125" s="39"/>
-      <c r="Q125" s="40"/>
-      <c r="R125" s="40"/>
-      <c r="S125" s="39"/>
-      <c r="T125" s="39"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A126" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
-      <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B127" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F127" s="41"/>
-      <c r="G127" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I127" s="48">
-        <v>10</v>
-      </c>
-      <c r="J127" s="48">
-        <v>10</v>
-      </c>
-      <c r="K127" s="8">
-        <v>10</v>
-      </c>
-      <c r="L127" s="2">
-        <v>10</v>
-      </c>
-      <c r="M127" s="35">
-        <v>10</v>
-      </c>
-      <c r="N127" s="2">
-        <v>10</v>
-      </c>
-      <c r="O127" s="2">
-        <v>10</v>
-      </c>
-      <c r="P127" s="35">
-        <v>10</v>
-      </c>
-      <c r="Q127" s="2">
-        <v>9.65</v>
-      </c>
-      <c r="R127" s="2">
-        <v>9.65</v>
-      </c>
-      <c r="S127" s="2">
-        <v>9.65</v>
-      </c>
-      <c r="T127" s="2">
-        <v>9.65</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B128" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F128" s="41"/>
-      <c r="G128" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I128" s="48">
-        <v>1300</v>
-      </c>
-      <c r="J128" s="48">
-        <v>1300</v>
-      </c>
-      <c r="K128" s="8">
-        <v>1300</v>
-      </c>
-      <c r="L128" s="2">
-        <v>1300</v>
-      </c>
-      <c r="M128" s="35">
-        <v>1300</v>
-      </c>
-      <c r="N128" s="2">
-        <v>1300</v>
-      </c>
-      <c r="O128" s="2">
-        <v>1300</v>
-      </c>
-      <c r="P128" s="35">
-        <v>1300</v>
-      </c>
-      <c r="Q128" s="2">
-        <v>1300</v>
-      </c>
-      <c r="R128" s="2">
-        <v>1300</v>
-      </c>
-      <c r="S128" s="2">
-        <v>1300</v>
-      </c>
-      <c r="T128" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B129" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F129" s="41"/>
-      <c r="G129" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I129" s="48">
-        <v>58</v>
-      </c>
-      <c r="J129" s="48">
-        <v>58</v>
-      </c>
-      <c r="K129" s="8">
-        <v>60</v>
-      </c>
-      <c r="L129" s="2">
-        <v>58</v>
-      </c>
-      <c r="M129" s="35">
-        <v>60</v>
-      </c>
-      <c r="N129" s="2">
-        <v>58</v>
-      </c>
-      <c r="O129" s="2">
-        <v>60</v>
-      </c>
-      <c r="P129" s="35">
-        <v>58</v>
-      </c>
-      <c r="Q129" s="2">
-        <v>115.00000000000001</v>
-      </c>
-      <c r="R129" s="2">
-        <v>115.00000000000001</v>
-      </c>
-      <c r="S129" s="2">
-        <v>115.00000000000001</v>
-      </c>
-      <c r="T129" s="2">
-        <v>115.00000000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B130" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F130" s="41"/>
-      <c r="G130" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I130" s="48">
-        <v>2000</v>
-      </c>
-      <c r="J130" s="48">
-        <v>2000</v>
-      </c>
-      <c r="K130" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L130" s="2">
-        <v>2000</v>
-      </c>
-      <c r="M130" s="35">
-        <v>1500</v>
-      </c>
-      <c r="N130" s="2">
-        <v>2000</v>
-      </c>
-      <c r="O130" s="2">
-        <v>1500</v>
-      </c>
-      <c r="P130" s="35">
-        <v>2000</v>
-      </c>
-      <c r="Q130" s="2">
-        <v>1500</v>
-      </c>
-      <c r="R130" s="2">
-        <v>1500</v>
-      </c>
-      <c r="S130" s="2">
-        <v>1500</v>
-      </c>
-      <c r="T130" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B131" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F131" s="41"/>
-      <c r="G131" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I131" s="48">
-        <v>0.9</v>
-      </c>
-      <c r="J131" s="48">
-        <v>0.9</v>
-      </c>
-      <c r="K131" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="L131" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="M131" s="35">
-        <v>0.9</v>
-      </c>
-      <c r="N131" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="O131" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="P131" s="35">
-        <v>0.9</v>
-      </c>
-      <c r="Q131" s="2">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="R131" s="2">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="S131" s="2">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="T131" s="2">
-        <v>0.69499999999999995</v>
-      </c>
-    </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B132" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F132" s="41"/>
-      <c r="G132" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I132" s="48">
-        <v>2000</v>
-      </c>
-      <c r="J132" s="48">
-        <v>2000</v>
-      </c>
-      <c r="K132" s="8">
-        <v>1600</v>
-      </c>
-      <c r="L132" s="2">
-        <v>2000</v>
-      </c>
-      <c r="M132" s="35">
-        <v>1600</v>
-      </c>
-      <c r="N132" s="2">
-        <v>2000</v>
-      </c>
-      <c r="O132" s="2">
-        <v>1600</v>
-      </c>
-      <c r="P132" s="35">
-        <v>2000</v>
-      </c>
-      <c r="Q132" s="2">
-        <v>2000</v>
-      </c>
-      <c r="R132" s="2">
-        <v>2000</v>
-      </c>
-      <c r="S132" s="2">
-        <v>2000</v>
-      </c>
-      <c r="T132" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B133" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F133" s="43"/>
-      <c r="G133" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I133" s="48">
-        <v>150</v>
-      </c>
-      <c r="J133" s="48">
-        <v>150</v>
-      </c>
-      <c r="K133" s="8">
-        <v>30</v>
-      </c>
-      <c r="L133" s="2">
-        <v>150</v>
-      </c>
-      <c r="M133" s="35">
-        <v>30</v>
-      </c>
-      <c r="N133" s="2">
-        <v>150</v>
-      </c>
-      <c r="O133" s="2">
-        <v>30</v>
-      </c>
-      <c r="P133" s="35">
-        <v>150</v>
-      </c>
-      <c r="Q133" s="2">
-        <v>125.00000000000001</v>
-      </c>
-      <c r="R133" s="2">
-        <v>125.00000000000001</v>
-      </c>
-      <c r="S133" s="2">
-        <v>125.00000000000001</v>
-      </c>
-      <c r="T133" s="2">
-        <v>125.00000000000001</v>
-      </c>
-    </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B134" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F134" s="43"/>
-      <c r="G134" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I134" s="48">
-        <v>2000</v>
-      </c>
-      <c r="J134" s="48">
-        <v>2000</v>
-      </c>
-      <c r="K134" s="8">
-        <v>1300</v>
-      </c>
-      <c r="L134" s="2">
-        <v>2000</v>
-      </c>
-      <c r="M134" s="35">
-        <v>1300</v>
-      </c>
-      <c r="N134" s="2">
-        <v>2000</v>
-      </c>
-      <c r="O134" s="2">
-        <v>1300</v>
-      </c>
-      <c r="P134" s="35">
-        <v>2000</v>
-      </c>
-      <c r="Q134" s="2">
-        <v>1300</v>
-      </c>
-      <c r="R134" s="2">
-        <v>1300</v>
-      </c>
-      <c r="S134" s="2">
-        <v>1300</v>
-      </c>
-      <c r="T134" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B135" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F135" s="43"/>
-      <c r="G135" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I135" s="48">
-        <v>3</v>
-      </c>
-      <c r="J135" s="48">
-        <v>3</v>
-      </c>
-      <c r="K135" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="L135" s="2">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="M135" s="35">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="N135" s="2">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="O135" s="2">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="P135" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q135" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="R135" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="S135" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="T135" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B136" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F136" s="43"/>
-      <c r="G136" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I136" s="48">
-        <v>2500</v>
-      </c>
-      <c r="J136" s="48">
-        <v>2500</v>
-      </c>
-      <c r="K136" s="8">
-        <v>1800</v>
-      </c>
-      <c r="L136" s="2">
-        <v>2200</v>
-      </c>
-      <c r="M136" s="35">
-        <v>2200</v>
-      </c>
-      <c r="N136" s="2">
-        <v>2200</v>
-      </c>
-      <c r="O136" s="2">
-        <v>2200</v>
-      </c>
-      <c r="P136" s="35">
-        <v>2500</v>
-      </c>
-      <c r="Q136" s="2">
-        <v>2000</v>
-      </c>
-      <c r="R136" s="2">
-        <v>2000</v>
-      </c>
-      <c r="S136" s="2">
-        <v>2000</v>
-      </c>
-      <c r="T136" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B137" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F137" s="43"/>
-      <c r="G137" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I137" s="48">
-        <v>150</v>
-      </c>
-      <c r="J137" s="48">
-        <v>150</v>
-      </c>
-      <c r="K137" s="8">
-        <v>125</v>
-      </c>
-      <c r="L137" s="2">
-        <v>150</v>
-      </c>
-      <c r="M137" s="35">
-        <v>125</v>
-      </c>
-      <c r="N137" s="2">
-        <v>150</v>
-      </c>
-      <c r="O137" s="2">
-        <v>125</v>
-      </c>
-      <c r="P137" s="35">
-        <v>150</v>
-      </c>
-      <c r="Q137" s="2">
-        <v>50.000000000000007</v>
-      </c>
-      <c r="R137" s="2">
-        <v>50.000000000000007</v>
-      </c>
-      <c r="S137" s="2">
-        <v>50.000000000000007</v>
-      </c>
-      <c r="T137" s="2">
-        <v>50.000000000000007</v>
-      </c>
-    </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B138" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F138" s="43"/>
-      <c r="G138" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I138" s="48">
-        <v>2000</v>
-      </c>
-      <c r="J138" s="48">
-        <v>2000</v>
-      </c>
-      <c r="K138" s="8">
-        <v>2000</v>
-      </c>
-      <c r="L138" s="2">
-        <v>2000</v>
-      </c>
-      <c r="M138" s="35">
-        <v>2000</v>
-      </c>
-      <c r="N138" s="2">
-        <v>2000</v>
-      </c>
-      <c r="O138" s="2">
-        <v>0</v>
-      </c>
-      <c r="P138" s="35">
-        <v>2000</v>
-      </c>
-      <c r="Q138" s="2">
-        <v>1300</v>
-      </c>
-      <c r="R138" s="2">
-        <v>1300</v>
-      </c>
-      <c r="S138" s="2">
-        <v>1300</v>
-      </c>
-      <c r="T138" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B139" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F139" s="41"/>
-      <c r="G139" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I139" s="48">
-        <v>128</v>
-      </c>
-      <c r="J139" s="48">
-        <v>128</v>
-      </c>
-      <c r="K139" s="8">
-        <v>130</v>
-      </c>
-      <c r="L139" s="2">
-        <v>130</v>
-      </c>
-      <c r="M139" s="35">
-        <v>130</v>
-      </c>
-      <c r="N139" s="2">
-        <v>130</v>
-      </c>
-      <c r="O139" s="2">
-        <v>130</v>
-      </c>
-      <c r="P139" s="35">
-        <v>128</v>
-      </c>
-      <c r="Q139" s="2">
-        <v>65</v>
-      </c>
-      <c r="R139" s="2">
-        <v>65</v>
-      </c>
-      <c r="S139" s="2">
-        <v>65</v>
-      </c>
-      <c r="T139" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B140" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F140" s="43"/>
-      <c r="G140" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I140" s="48">
-        <v>150</v>
-      </c>
-      <c r="J140" s="48">
-        <v>150</v>
-      </c>
-      <c r="K140" s="8">
-        <v>60</v>
-      </c>
-      <c r="L140" s="35">
-        <v>150</v>
-      </c>
-      <c r="M140" s="35">
-        <v>60</v>
-      </c>
-      <c r="N140" s="2">
-        <v>150</v>
-      </c>
-      <c r="O140" s="2">
-        <v>60</v>
-      </c>
-      <c r="P140" s="35">
-        <v>150</v>
-      </c>
-      <c r="Q140" s="2">
-        <v>60.000000000000007</v>
-      </c>
-      <c r="R140" s="2">
-        <v>60.000000000000007</v>
-      </c>
-      <c r="S140" s="2">
-        <v>60.000000000000007</v>
-      </c>
-      <c r="T140" s="2">
-        <v>60.000000000000007</v>
-      </c>
-    </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B141" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F141" s="43"/>
-      <c r="G141" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I141" s="48">
-        <v>2000</v>
-      </c>
-      <c r="J141" s="48">
-        <v>2000</v>
-      </c>
-      <c r="K141" s="8">
-        <v>2000</v>
-      </c>
-      <c r="L141" s="35">
-        <v>2000</v>
-      </c>
-      <c r="M141" s="35">
-        <v>2000</v>
-      </c>
-      <c r="N141" s="2">
-        <v>2000</v>
-      </c>
-      <c r="O141" s="2">
-        <v>0</v>
-      </c>
-      <c r="P141" s="35">
-        <v>2000</v>
-      </c>
-      <c r="Q141" s="2">
-        <v>1300</v>
-      </c>
-      <c r="R141" s="2">
-        <v>1300</v>
-      </c>
-      <c r="S141" s="2">
-        <v>1300</v>
-      </c>
-      <c r="T141" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B142" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F142" s="43"/>
-      <c r="G142" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I142" s="48">
-        <v>128</v>
-      </c>
-      <c r="J142" s="48">
-        <v>128</v>
-      </c>
-      <c r="K142" s="8">
-        <v>130</v>
-      </c>
-      <c r="L142" s="2">
-        <v>31.500356271862902</v>
-      </c>
-      <c r="M142" s="35">
-        <v>31.500356271862902</v>
-      </c>
-      <c r="N142" s="2">
-        <v>31.500356271862902</v>
-      </c>
-      <c r="O142" s="2">
-        <v>31.500356271862902</v>
-      </c>
-      <c r="P142" s="35">
-        <v>128</v>
-      </c>
-      <c r="Q142" s="2">
-        <v>650</v>
-      </c>
-      <c r="R142" s="2">
-        <v>650</v>
-      </c>
-      <c r="S142" s="2">
-        <v>650</v>
-      </c>
-      <c r="T142" s="2">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B143" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F143" s="43"/>
-      <c r="G143" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I143" s="48">
-        <v>2500</v>
-      </c>
-      <c r="J143" s="48">
-        <v>2500</v>
-      </c>
-      <c r="K143" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L143" s="2">
-        <v>2500</v>
-      </c>
-      <c r="M143" s="35">
-        <v>2500</v>
-      </c>
-      <c r="N143" s="2">
-        <v>2500</v>
-      </c>
-      <c r="O143" s="2">
-        <v>2500</v>
-      </c>
-      <c r="P143" s="35">
-        <v>2500</v>
-      </c>
-      <c r="Q143" s="2">
-        <v>2500</v>
-      </c>
-      <c r="R143" s="2">
-        <v>2500</v>
-      </c>
-      <c r="S143" s="2">
-        <v>2500</v>
-      </c>
-      <c r="T143" s="2">
-        <v>2500</v>
-      </c>
+    <row r="112" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F112" s="44"/>
+      <c r="G112" s="42"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="43"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="32"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I8 I10 I13">
-    <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
+  <conditionalFormatting sqref="I8:J8 I10 I13">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I97:J110">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+  <conditionalFormatting sqref="I66:J79">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="21" priority="43" operator="equal">
+  <conditionalFormatting sqref="K54:K62">
+    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
+      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="24" stopIfTrue="1">
+      <formula>HLOOKUP(CaseName,CaseData,ROW()-3,FALSE)&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="25" stopIfTrue="1">
+      <formula>HLOOKUP(ScenarioName,ScenarioData,ROW()-180,FALSE)&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38:L47 I38:J49 L49 I51:J53 L58 L61 J80 I81:J83">
+    <cfRule type="cellIs" dxfId="15" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K85:K93">
-    <cfRule type="expression" dxfId="20" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="M38 M40:M47 M49 M58 M61">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-3,FALSE)&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
       <formula>HLOOKUP(ScenarioName,ScenarioData,ROW()-180,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:O8 K10:O10 K13:O13">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+  <conditionalFormatting sqref="N38:O38 N40:O47 N49:O49 O54:O57 N58:O58 O59:O60 N61:O61 O62 I64:O65">
+    <cfRule type="cellIs" dxfId="11" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L69:L78 I69:J80 L80 I82:J84 L89 L92 J111 I112:J114">
-    <cfRule type="cellIs" dxfId="16" priority="42" operator="equal">
+  <conditionalFormatting sqref="P38:Q49 P51:Q67 P70:Q79 P81:Q93">
+    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M69 M71:M78 M80 M89 M92">
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-3,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
-      <formula>HLOOKUP(ScenarioName,ScenarioData,ROW()-180,FALSE)&lt;&gt;""</formula>
+  <conditionalFormatting sqref="R64:S65">
+    <cfRule type="cellIs" dxfId="9" priority="33" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M127:M137">
-    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="S51:S63 S66:S67">
+    <cfRule type="cellIs" dxfId="8" priority="42" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S38:T49 S51:T67 S70:T79">
+    <cfRule type="cellIs" dxfId="7" priority="32" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S81:T93">
+    <cfRule type="cellIs" dxfId="6" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M96:M106">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M139:M140">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="M108:M109">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M142:M143">
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="M111:M112">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N69:O69 N71:O78 N80:O80 O85:O88 N89:O89 O90:O91 N92:O92 O93 I95:O96">
-    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P127:P137">
-    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="P96:P106">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P139:P140">
-    <cfRule type="expression" dxfId="7" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="P108:P109">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P142:P143">
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="P111:P112">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P69:Q80 P82:Q98 P101:Q110 P112:Q124">
-    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R95:S96">
-    <cfRule type="cellIs" dxfId="4" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S82:S94 S97:S98">
-    <cfRule type="cellIs" dxfId="3" priority="36" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S69:T80 S82:T98 S101:T110">
-    <cfRule type="cellIs" dxfId="2" priority="26" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S112:T124">
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38 I40 I43">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SimpleBox4PFAS/src/main/webapp/resources/templates/scenarios.xlsx
+++ b/SimpleBox4PFAS/src/main/webapp/resources/templates/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\git\SimpleBox4PFAS\SimpleBox4PFAS\src\main\webapp\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4229CC10-6A21-4539-931B-320A0D39A091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336A5FCD-33EC-4621-B5FC-AB44EB84F533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25820,8 +25820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:XFD112"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SimpleBox4PFAS/src/main/webapp/resources/templates/scenarios.xlsx
+++ b/SimpleBox4PFAS/src/main/webapp/resources/templates/scenarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\git\SimpleBox4PFAS\SimpleBox4PFAS\src\main\webapp\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\git\SimpleBox4Nano\SimpleBox4Nano\src\main\webapp\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336A5FCD-33EC-4621-B5FC-AB44EB84F533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB903C8D-A86B-47C7-9295-EF9705B1BC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,12 +150,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="216">
   <si>
     <t>Scenario</t>
   </si>
@@ -196,6 +203,9 @@
     <t>Unit</t>
   </si>
   <si>
+    <t>Solid species ENPs (S)</t>
+  </si>
+  <si>
     <t>REGIONAL SCALE</t>
   </si>
   <si>
@@ -205,10 +215,43 @@
     <t>E.aRS</t>
   </si>
   <si>
+    <r>
+      <t>[t.yr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>EMISSION to lake water</t>
+  </si>
+  <si>
     <t>E.w0RS</t>
   </si>
   <si>
+    <t>EMISSION to fresh water</t>
+  </si>
+  <si>
     <t>E.w1RS</t>
+  </si>
+  <si>
+    <t>EMISSION to sea water</t>
   </si>
   <si>
     <t>E.w2RS</t>
@@ -301,16 +344,346 @@
     <t>Dissolved or Gas species (G/D)</t>
   </si>
   <si>
+    <r>
+      <t>E.aR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+  </si>
+  <si>
     <t>[t.yr-1]</t>
   </si>
   <si>
     <t>EMISSION to water0</t>
   </si>
   <si>
+    <r>
+      <t>E.w0R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
     <t>EMISSION to water1</t>
   </si>
   <si>
     <t>EMISSION to water2</t>
+  </si>
+  <si>
+    <r>
+      <t>E.w2R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.s1R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.s2R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.s3R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.aC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.w0C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.w1C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.w2C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.s1C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.s2C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.s3C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.aM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.w2M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.sM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.aA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.w2A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.sA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.aT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.w2T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.sT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
   </si>
   <si>
     <t>LANSCAPE SETTINGS</t>
@@ -598,6 +971,140 @@
     <t>mConcNC.sC</t>
   </si>
   <si>
+    <t>ENVIRONMENTAL PROPERTIES (ALL SCALES)</t>
+  </si>
+  <si>
+    <t>Radius nucleation mode aerosol particle</t>
+  </si>
+  <si>
+    <t>RadNuc</t>
+  </si>
+  <si>
+    <t>[nm]</t>
+  </si>
+  <si>
+    <t>Density nucleation mode aerosol particle</t>
+  </si>
+  <si>
+    <t>RhoNuc</t>
+  </si>
+  <si>
+    <t>[kg.m-3]</t>
+  </si>
+  <si>
+    <t>Radius accumulation mode aerosol particle</t>
+  </si>
+  <si>
+    <t>RadAcc</t>
+  </si>
+  <si>
+    <t>Density accumulation mode aerosol particle</t>
+  </si>
+  <si>
+    <t>RhoAcc</t>
+  </si>
+  <si>
+    <t>Radius coarse mode aerosol particle</t>
+  </si>
+  <si>
+    <t>RadCP.a</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>µ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m]</t>
+    </r>
+  </si>
+  <si>
+    <t>Density Coarse mode aerosol particle</t>
+  </si>
+  <si>
+    <t>RhoCP.a</t>
+  </si>
+  <si>
+    <t>Radius natural colloids (NC, &lt; 450 nm) in water</t>
+  </si>
+  <si>
+    <t>RadNC.w</t>
+  </si>
+  <si>
+    <t>Density natural colloids (NC, &lt; 450 nm) in water</t>
+  </si>
+  <si>
+    <t>RhoNC.w</t>
+  </si>
+  <si>
+    <t>Radius natural suspended particulate matter (SPM, &gt; 450 nm) in water</t>
+  </si>
+  <si>
+    <t>RadSPM.w</t>
+  </si>
+  <si>
+    <t>Density natural suspended particulate matter (SPM, &gt; 450 nm) in water</t>
+  </si>
+  <si>
+    <t>RhoSPM.w</t>
+  </si>
+  <si>
+    <t>Radius natural colloids (NC, &lt; 450 nm) in sediment pore water</t>
+  </si>
+  <si>
+    <t>RadNC.sd</t>
+  </si>
+  <si>
+    <t>Density natural colloids (NC, &lt; 450 nm) in sediment pore water</t>
+  </si>
+  <si>
+    <t>RhoNC.sd</t>
+  </si>
+  <si>
+    <t>Radius filtration particles in sediment (FP, &gt;450 nm)</t>
+  </si>
+  <si>
+    <t>RadFP.sd</t>
+  </si>
+  <si>
+    <t>Radius natural colloids (NC, &lt; 450 nm) in soil pore water</t>
+  </si>
+  <si>
+    <t>RadNC.s</t>
+  </si>
+  <si>
+    <t>Density natural colloids (NC, &lt; 450 nm) in soil pore water</t>
+  </si>
+  <si>
+    <t>RhoNC.s</t>
+  </si>
+  <si>
+    <t>Radius filtration particulates in soil (FP, &gt; 450 nm)</t>
+  </si>
+  <si>
+    <t>RadFP.s</t>
+  </si>
+  <si>
+    <t>Density filtration particulates in soil (FP, &gt; 450 nm)</t>
+  </si>
+  <si>
+    <t>RhoFP.s</t>
+  </si>
+  <si>
     <t>EMISSION RATES</t>
   </si>
   <si>
@@ -605,6 +1112,9 @@
   </si>
   <si>
     <t xml:space="preserve">SCENARIOS DATABASE - Fixed format - Do not alter </t>
+  </si>
+  <si>
+    <t>E.w1RD</t>
   </si>
   <si>
     <t>TOTAREAland.C</t>
@@ -632,7 +1142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +1181,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -689,9 +1205,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -780,7 +1295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -790,6 +1305,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -847,9 +1365,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -863,18 +1387,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -882,29 +1412,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
     <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -925,13 +1455,35 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008C00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -957,22 +1509,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008C00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -25818,220 +26354,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL112"/>
+  <dimension ref="A1:AJ143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.33203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9" style="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="49" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.33203125" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="1.6640625" style="7" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9" style="7" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="22.6640625" style="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="10.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.6640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.77734375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.6640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="13.6640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="9.109375" style="8"/>
-    <col min="23" max="23" width="9.109375" style="8" collapsed="1"/>
-    <col min="24" max="38" width="9.109375" style="8"/>
-    <col min="39" max="16384" width="9.109375" style="8" collapsed="1"/>
+    <col min="9" max="9" width="10.5546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.6640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.77734375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.6640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="13.6640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="9.109375" style="9"/>
+    <col min="23" max="23" width="9.109375" style="9" collapsed="1"/>
+    <col min="24" max="36" width="9.109375" style="9"/>
+    <col min="37" max="16384" width="9.109375" style="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:20" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12" t="s">
+    <row r="3" spans="1:20" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="L3" s="12" t="s">
+      <c r="K3" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="P3" s="14" t="s">
+      <c r="O3" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="P3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17" t="s">
+      <c r="A4" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="22"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="23"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="A6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+    <row r="7" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I8" s="2">
         <v>10000</v>
       </c>
       <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>10000</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="P8" s="4">
+        <v>2</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>0.70615955185863544</v>
       </c>
       <c r="R8" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="S8" s="2">
-        <v>0</v>
+        <v>297.64169231251566</v>
       </c>
       <c r="T8" s="2">
-        <v>0</v>
+        <v>1.0407920872040186</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -26039,7 +26569,7 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="8">
         <v>0</v>
       </c>
       <c r="L9" s="2">
@@ -26054,32 +26584,36 @@
       <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" s="2">
-        <v>0</v>
+      <c r="P9" s="4">
+        <v>0.32500000000000001</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <v>1.6318241683455394E-2</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
       </c>
       <c r="S9" s="2">
-        <v>0</v>
+        <v>68.359013928667011</v>
       </c>
       <c r="T9" s="2">
-        <v>0</v>
+        <v>2.6776198441110208E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="I10" s="2">
         <v>10000</v>
@@ -26087,47 +26621,51 @@
       <c r="J10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="7">
-        <v>0</v>
+      <c r="K10" s="8">
+        <v>10000</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3.5750000000000002</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>0.47213230379106175</v>
       </c>
       <c r="R10" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="S10" s="2">
-        <v>0</v>
+        <v>3389.5483714837437</v>
       </c>
       <c r="T10" s="2">
-        <v>0</v>
+        <v>3.4927070810371705</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -26135,7 +26673,7 @@
       <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="8">
         <v>0</v>
       </c>
       <c r="L11" s="2">
@@ -26150,7 +26688,7 @@
       <c r="O11" s="2">
         <v>0</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="4">
         <v>0</v>
       </c>
       <c r="Q11" s="2">
@@ -26166,16 +26704,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -26183,7 +26725,7 @@
       <c r="J12" s="2">
         <v>0</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="8">
         <v>0</v>
       </c>
       <c r="L12" s="2">
@@ -26198,32 +26740,36 @@
       <c r="O12" s="2">
         <v>0</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="4">
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>0.42677470235443499</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>0</v>
+        <v>339.44655117338186</v>
       </c>
       <c r="T12" s="2">
-        <v>0</v>
+        <v>0.48491560650155491</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I13" s="2">
         <v>10000</v>
@@ -26231,47 +26777,51 @@
       <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="7">
-        <v>0</v>
+      <c r="K13" s="8">
+        <v>10000</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="P13" s="4">
+        <v>180</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>2.396914871555909</v>
       </c>
       <c r="R13" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="S13" s="2">
-        <v>0</v>
+        <v>5106.3643794170539</v>
       </c>
       <c r="T13" s="2">
-        <v>0</v>
+        <v>6.3545689186753025</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -26279,7 +26829,7 @@
       <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="8">
         <v>0</v>
       </c>
       <c r="L14" s="2">
@@ -26294,49 +26844,84 @@
       <c r="O14" s="2">
         <v>0</v>
       </c>
-      <c r="P14" s="2">
-        <v>0</v>
+      <c r="P14" s="4">
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>0.15806470457571664</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>0</v>
+        <v>125.7209448790303</v>
       </c>
       <c r="T14" s="2">
-        <v>0</v>
+        <v>0.17959837277835367</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>25</v>
-      </c>
+    <row r="15" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="3"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -26344,7 +26929,7 @@
       <c r="J16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="8">
         <v>0</v>
       </c>
       <c r="L16" s="2">
@@ -26359,8 +26944,8 @@
       <c r="O16" s="2">
         <v>0</v>
       </c>
-      <c r="P16" s="2">
-        <v>0</v>
+      <c r="P16" s="4">
+        <v>18</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -26375,16 +26960,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -26392,7 +26981,7 @@
       <c r="J17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="8">
         <v>0</v>
       </c>
       <c r="L17" s="2">
@@ -26407,8 +26996,8 @@
       <c r="O17" s="2">
         <v>0</v>
       </c>
-      <c r="P17" s="2">
-        <v>0</v>
+      <c r="P17" s="4">
+        <v>2.93</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -26423,16 +27012,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -26440,7 +27033,7 @@
       <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="8">
         <v>0</v>
       </c>
       <c r="L18" s="2">
@@ -26455,8 +27048,8 @@
       <c r="O18" s="2">
         <v>0</v>
       </c>
-      <c r="P18" s="2">
-        <v>0</v>
+      <c r="P18" s="4">
+        <v>32.200000000000003</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -26471,16 +27064,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -26488,7 +27085,7 @@
       <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="8">
         <v>0</v>
       </c>
       <c r="L19" s="2">
@@ -26503,7 +27100,7 @@
       <c r="O19" s="2">
         <v>0</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="4">
         <v>0</v>
       </c>
       <c r="Q19" s="2">
@@ -26519,16 +27116,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -26536,7 +27137,7 @@
       <c r="J20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="8">
         <v>0</v>
       </c>
       <c r="L20" s="2">
@@ -26551,7 +27152,7 @@
       <c r="O20" s="2">
         <v>0</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="4">
         <v>0</v>
       </c>
       <c r="Q20" s="2">
@@ -26567,16 +27168,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -26584,7 +27189,7 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="8">
         <v>0</v>
       </c>
       <c r="L21" s="2">
@@ -26599,8 +27204,8 @@
       <c r="O21" s="2">
         <v>0</v>
       </c>
-      <c r="P21" s="2">
-        <v>0</v>
+      <c r="P21" s="4">
+        <v>1620</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -26615,16 +27220,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -26632,7 +27241,7 @@
       <c r="J22" s="2">
         <v>0</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="8">
         <v>0</v>
       </c>
       <c r="L22" s="2">
@@ -26647,8 +27256,8 @@
       <c r="O22" s="2">
         <v>0</v>
       </c>
-      <c r="P22" s="2">
-        <v>0</v>
+      <c r="P22" s="4">
+        <v>9</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -26663,33 +27272,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>33</v>
-      </c>
+    <row r="23" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="3"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -26697,7 +27341,7 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="8">
         <v>0</v>
       </c>
       <c r="L24" s="2">
@@ -26728,16 +27372,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -26745,7 +27393,7 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="8">
         <v>0</v>
       </c>
       <c r="L25" s="2">
@@ -26776,16 +27424,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -26793,7 +27445,7 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="8">
         <v>0</v>
       </c>
       <c r="L26" s="2">
@@ -26824,34 +27476,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>39</v>
+    <row r="27" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="B27" s="1"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="3"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
@@ -26859,7 +27545,7 @@
       <c r="J28" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="8">
         <v>0</v>
       </c>
       <c r="L28" s="2">
@@ -26890,16 +27576,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
@@ -26907,7 +27597,7 @@
       <c r="J29" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="8">
         <v>0</v>
       </c>
       <c r="L29" s="2">
@@ -26938,129 +27628,172 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="7">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0</v>
-      </c>
-      <c r="S30" s="2">
-        <v>0</v>
-      </c>
-      <c r="T30" s="2">
+      <c r="B31" s="7"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="7">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2">
-        <v>0</v>
-      </c>
-      <c r="S32" s="2">
-        <v>0</v>
-      </c>
-      <c r="T32" s="2">
+        <v>17</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="45">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0</v>
+      </c>
+      <c r="S32" s="5">
+        <v>0</v>
+      </c>
+      <c r="T32" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -27068,7 +27801,7 @@
       <c r="J33" s="2">
         <v>0</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="8">
         <v>0</v>
       </c>
       <c r="L33" s="2">
@@ -27099,16 +27832,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
@@ -27116,7 +27853,7 @@
       <c r="J34" s="2">
         <v>0</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="8">
         <v>0</v>
       </c>
       <c r="L34" s="2">
@@ -27147,9 +27884,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="L35" s="2"/>
@@ -27162,11 +27898,17 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="L36" s="2"/>
@@ -27179,12 +27921,10 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="L37" s="2"/>
@@ -27197,1249 +27937,1182 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="H38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="I38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I38" s="2">
-        <v>228570</v>
-      </c>
-      <c r="J38" s="2">
-        <v>40000</v>
-      </c>
-      <c r="K38" s="7">
-        <v>228570</v>
-      </c>
-      <c r="L38" s="2">
-        <v>15875</v>
-      </c>
-      <c r="M38" s="32">
-        <v>15875</v>
-      </c>
-      <c r="N38" s="2">
-        <v>15875</v>
-      </c>
-      <c r="O38" s="2">
-        <v>15875</v>
-      </c>
-      <c r="P38" s="2">
-        <v>228570</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>228570</v>
-      </c>
-      <c r="R38" s="31">
-        <v>228570</v>
-      </c>
-      <c r="S38" s="2">
-        <v>228570</v>
-      </c>
-      <c r="T38" s="2">
-        <v>228570</v>
+      <c r="G39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="6" t="s">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="30" t="s">
+      <c r="G40" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I39" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J39" s="2">
-        <v>400</v>
-      </c>
-      <c r="K39" s="7">
-        <v>1000</v>
-      </c>
-      <c r="L39" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="31">
-        <v>1000</v>
-      </c>
-      <c r="O39" s="31">
-        <v>1000</v>
-      </c>
-      <c r="P39" s="2">
-        <v>1000</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>1000</v>
-      </c>
-      <c r="R39" s="31">
-        <v>1000</v>
-      </c>
-      <c r="S39" s="2">
-        <v>1000</v>
-      </c>
-      <c r="T39" s="2">
-        <v>1000</v>
+      <c r="G47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I40" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1E-10</v>
-      </c>
-      <c r="K40" s="7">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="L40" s="2">
-        <v>9.9999999999999995E-21</v>
-      </c>
-      <c r="M40" s="32">
-        <v>9.9999999999999995E-21</v>
-      </c>
-      <c r="N40" s="2">
-        <v>9.9999999999999995E-21</v>
-      </c>
-      <c r="O40" s="2">
-        <v>9.9999999999999995E-21</v>
-      </c>
-      <c r="P40" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="R40" s="31">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="S40" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="T40" s="2">
-        <v>2.5000000000000001E-3</v>
+      <c r="G49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I41" s="2">
-        <v>2.75E-2</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="K41" s="7">
-        <v>2.75E-2</v>
-      </c>
-      <c r="L41" s="2">
-        <v>2.5595388012618299E-4</v>
-      </c>
-      <c r="M41" s="32">
-        <v>2.5595388012618299E-4</v>
-      </c>
-      <c r="N41" s="2">
-        <v>1.0116278692474385E-4</v>
-      </c>
-      <c r="O41" s="2">
-        <v>1.0116278692474385E-4</v>
-      </c>
-      <c r="P41" s="2">
-        <v>2.75E-2</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>2.75E-2</v>
-      </c>
-      <c r="R41" s="31">
-        <v>2.75E-2</v>
-      </c>
-      <c r="S41" s="2">
-        <v>2.75E-2</v>
-      </c>
-      <c r="T41" s="2">
-        <v>2.75E-2</v>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
+        <v>0</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="K42" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0.13396571095647686</v>
-      </c>
-      <c r="M42" s="32">
-        <v>0.13396571095647686</v>
-      </c>
-      <c r="N42" s="2">
-        <v>0.13396571095647686</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0.13396571095647686</v>
-      </c>
-      <c r="P42" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="R42" s="31">
-        <v>0.27</v>
-      </c>
-      <c r="S42" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="T42" s="2">
-        <v>0.27</v>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="K43" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0.62583981387130228</v>
-      </c>
-      <c r="M43" s="32">
-        <v>0.62583981387130228</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0.62583981387130228</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0.62583981387130228</v>
-      </c>
-      <c r="P43" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="R43" s="31">
-        <v>0.6</v>
-      </c>
-      <c r="S43" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="T43" s="2">
-        <v>0.6</v>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="8">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2">
+        <v>0</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K44" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0.2399385867877197</v>
-      </c>
-      <c r="M44" s="32">
-        <v>0.2399385867877197</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0.2399385867877197</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0.2399385867877197</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R44" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="T44" s="2">
-        <v>0.1</v>
-      </c>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
     </row>
-    <row r="45" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G45" s="6" t="s">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
+      <c r="R54" s="2">
+        <v>0</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I45" s="2">
-        <v>12</v>
-      </c>
-      <c r="J45" s="2">
-        <v>12</v>
-      </c>
-      <c r="K45" s="7">
-        <v>12</v>
-      </c>
-      <c r="L45" s="2">
-        <v>10</v>
-      </c>
-      <c r="M45" s="32">
-        <v>10</v>
-      </c>
-      <c r="N45" s="2">
-        <v>10</v>
-      </c>
-      <c r="O45" s="2">
-        <v>10</v>
-      </c>
-      <c r="P45" s="2">
-        <v>12</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>12</v>
-      </c>
-      <c r="R45" s="31">
-        <v>12</v>
-      </c>
-      <c r="S45" s="2">
-        <v>12</v>
-      </c>
-      <c r="T45" s="2">
-        <v>12</v>
+      <c r="H55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="R55" s="2">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="H56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="8">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+      <c r="R56" s="2">
+        <v>0</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="G57" s="3"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="8">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I46" s="2">
-        <v>3</v>
-      </c>
-      <c r="J46" s="2">
-        <v>3</v>
-      </c>
-      <c r="K46" s="7">
-        <v>3</v>
-      </c>
-      <c r="L46" s="2">
-        <v>4.63580226898193</v>
-      </c>
-      <c r="M46" s="32">
-        <v>4.63580226898193</v>
-      </c>
-      <c r="N46" s="2">
-        <v>4.63580226898193</v>
-      </c>
-      <c r="O46" s="2">
-        <v>4.63580226898193</v>
-      </c>
-      <c r="P46" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>3</v>
-      </c>
-      <c r="R46" s="31">
-        <v>3</v>
-      </c>
-      <c r="S46" s="2">
-        <v>3</v>
-      </c>
-      <c r="T46" s="2">
-        <v>3</v>
+      <c r="H59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="8">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>0</v>
+      </c>
+      <c r="R59" s="2">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="H60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="8">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0</v>
+      </c>
+      <c r="R60" s="2">
+        <v>0</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="8">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2">
+        <v>0</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>0</v>
+      </c>
+      <c r="R62" s="2">
+        <v>0</v>
+      </c>
+      <c r="S62" s="2">
+        <v>0</v>
+      </c>
+      <c r="T62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I47" s="2">
-        <v>700</v>
-      </c>
-      <c r="J47" s="2">
-        <v>700</v>
-      </c>
-      <c r="K47" s="7">
-        <v>700</v>
-      </c>
-      <c r="L47" s="2">
-        <v>930.21250226047403</v>
-      </c>
-      <c r="M47" s="32">
-        <v>930.21250226047403</v>
-      </c>
-      <c r="N47" s="2">
-        <v>632.85703291353502</v>
-      </c>
-      <c r="O47" s="2">
-        <v>632.85703291353502</v>
-      </c>
-      <c r="P47" s="2">
-        <v>700</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>700</v>
-      </c>
-      <c r="R47" s="31">
-        <v>700</v>
-      </c>
-      <c r="S47" s="2">
-        <v>700</v>
-      </c>
-      <c r="T47" s="2">
-        <v>700</v>
+      <c r="H63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="8">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>0</v>
+      </c>
+      <c r="R63" s="2">
+        <v>0</v>
+      </c>
+      <c r="S63" s="2">
+        <v>0</v>
+      </c>
+      <c r="T63" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I48" s="2">
-        <v>100</v>
-      </c>
-      <c r="J48" s="2">
-        <v>1E-10</v>
-      </c>
-      <c r="K48" s="7">
-        <v>100</v>
-      </c>
-      <c r="L48" s="31">
-        <v>100</v>
-      </c>
-      <c r="M48" s="31">
-        <v>100</v>
-      </c>
-      <c r="N48" s="31">
-        <v>100</v>
-      </c>
-      <c r="O48" s="31">
-        <v>100</v>
-      </c>
-      <c r="P48" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>100</v>
-      </c>
-      <c r="R48" s="31">
-        <v>100</v>
-      </c>
-      <c r="S48" s="2">
-        <v>100</v>
-      </c>
-      <c r="T48" s="2">
-        <v>100</v>
+      <c r="H64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="8">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>0</v>
+      </c>
+      <c r="R64" s="2">
+        <v>0</v>
+      </c>
+      <c r="S64" s="2">
+        <v>0</v>
+      </c>
+      <c r="T64" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I49" s="2">
-        <v>3</v>
-      </c>
-      <c r="J49" s="2">
-        <v>3</v>
-      </c>
-      <c r="K49" s="7">
-        <v>3</v>
-      </c>
-      <c r="L49" s="2">
-        <v>1.87</v>
-      </c>
-      <c r="M49" s="32">
-        <v>1.87</v>
-      </c>
-      <c r="N49" s="2">
-        <v>1.62</v>
-      </c>
-      <c r="O49" s="2">
-        <v>1.62</v>
-      </c>
-      <c r="P49" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>3</v>
-      </c>
-      <c r="R49" s="31">
-        <v>3</v>
-      </c>
-      <c r="S49" s="2">
-        <v>3</v>
-      </c>
-      <c r="T49" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="7">
-        <v>0</v>
-      </c>
-      <c r="L50" s="31">
-        <v>0</v>
-      </c>
-      <c r="M50" s="31">
-        <v>0</v>
-      </c>
-      <c r="N50" s="31">
-        <v>0</v>
-      </c>
-      <c r="O50" s="31">
-        <v>0</v>
-      </c>
-      <c r="P50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0</v>
-      </c>
-      <c r="R50" s="31">
-        <v>0</v>
-      </c>
-      <c r="S50" s="2">
-        <v>0</v>
-      </c>
-      <c r="T50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="K51" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="L51" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="M51" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="N51" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="O51" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="P51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R51" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="S51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="T51" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="J52" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="K52" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="L52" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="M52" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="N52" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="O52" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="P52" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R52" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="S52" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="T52" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="J53" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="K53" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="L53" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="M53" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="N53" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="O53" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="P53" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="R53" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="S53" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T53" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I54" s="31">
-        <v>3200000000</v>
-      </c>
-      <c r="J54" s="31">
-        <v>3200000000</v>
-      </c>
-      <c r="K54" s="7">
-        <v>1400000000</v>
-      </c>
-      <c r="L54" s="31">
-        <v>3200000000</v>
-      </c>
-      <c r="M54" s="31">
-        <v>3200000000</v>
-      </c>
-      <c r="N54" s="31">
-        <v>3200000000</v>
-      </c>
-      <c r="O54" s="2">
-        <v>1400000000</v>
-      </c>
-      <c r="P54" s="2">
-        <v>3200000000</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>3200000000</v>
-      </c>
-      <c r="R54" s="31">
-        <v>3200000000</v>
-      </c>
-      <c r="S54" s="2">
-        <v>3200000000</v>
-      </c>
-      <c r="T54" s="2">
-        <v>3200000000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I55" s="31">
-        <v>2900000000</v>
-      </c>
-      <c r="J55" s="31">
-        <v>2900000000</v>
-      </c>
-      <c r="K55" s="7">
-        <v>3600000000</v>
-      </c>
-      <c r="L55" s="31">
-        <v>2900000000</v>
-      </c>
-      <c r="M55" s="31">
-        <v>2900000000</v>
-      </c>
-      <c r="N55" s="31">
-        <v>2900000000</v>
-      </c>
-      <c r="O55" s="2">
-        <v>3600000000</v>
-      </c>
-      <c r="P55" s="2">
-        <v>2900000000</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>2900000000</v>
-      </c>
-      <c r="R55" s="31">
-        <v>2900000000</v>
-      </c>
-      <c r="S55" s="2">
-        <v>2900000000</v>
-      </c>
-      <c r="T55" s="2">
-        <v>2900000000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I56" s="31">
-        <v>300000</v>
-      </c>
-      <c r="J56" s="31">
-        <v>300000</v>
-      </c>
-      <c r="K56" s="7">
-        <v>2100000</v>
-      </c>
-      <c r="L56" s="31">
-        <v>300000</v>
-      </c>
-      <c r="M56" s="31">
-        <v>300000</v>
-      </c>
-      <c r="N56" s="31">
-        <v>300000</v>
-      </c>
-      <c r="O56" s="2">
-        <v>2100000</v>
-      </c>
-      <c r="P56" s="2">
-        <v>300000</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>300000</v>
-      </c>
-      <c r="R56" s="31">
-        <v>300000</v>
-      </c>
-      <c r="S56" s="2">
-        <v>300000</v>
-      </c>
-      <c r="T56" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G57" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I57" s="31">
-        <v>1</v>
-      </c>
-      <c r="J57" s="31">
-        <v>1</v>
-      </c>
-      <c r="K57" s="7">
-        <v>2.4994511151960403E-2</v>
-      </c>
-      <c r="L57" s="31">
-        <v>1</v>
-      </c>
-      <c r="M57" s="31">
-        <v>1</v>
-      </c>
-      <c r="N57" s="31">
-        <v>1</v>
-      </c>
-      <c r="O57" s="2">
-        <v>4.8066367599923847</v>
-      </c>
-      <c r="P57" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>1</v>
-      </c>
-      <c r="R57" s="31">
-        <v>1</v>
-      </c>
-      <c r="S57" s="2">
-        <v>1</v>
-      </c>
-      <c r="T57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G58" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I58" s="31">
-        <v>1</v>
-      </c>
-      <c r="J58" s="31">
-        <v>1</v>
-      </c>
-      <c r="K58" s="7">
-        <v>2.4994511151960403E-2</v>
-      </c>
-      <c r="L58" s="2">
-        <v>0.12393037193697687</v>
-      </c>
-      <c r="M58" s="32">
-        <v>0.12393037193697687</v>
-      </c>
-      <c r="N58" s="2">
-        <v>0.11329900738000624</v>
-      </c>
-      <c r="O58" s="2">
-        <v>0.11329900738000624</v>
-      </c>
-      <c r="P58" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>1</v>
-      </c>
-      <c r="R58" s="31">
-        <v>1</v>
-      </c>
-      <c r="S58" s="2">
-        <v>1</v>
-      </c>
-      <c r="T58" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G59" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I59" s="31">
-        <v>1</v>
-      </c>
-      <c r="J59" s="31">
-        <v>1</v>
-      </c>
-      <c r="K59" s="7">
-        <v>2.4994511151960403E-2</v>
-      </c>
-      <c r="L59" s="31">
-        <v>1</v>
-      </c>
-      <c r="M59" s="31">
-        <v>1</v>
-      </c>
-      <c r="N59" s="31">
-        <v>1</v>
-      </c>
-      <c r="O59" s="2">
-        <v>4.8066367599923847</v>
-      </c>
-      <c r="P59" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>1</v>
-      </c>
-      <c r="R59" s="31">
-        <v>1</v>
-      </c>
-      <c r="S59" s="2">
-        <v>1</v>
-      </c>
-      <c r="T59" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G60" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I60" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="J60" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K60" s="7">
-        <v>3.3929200658769768E-2</v>
-      </c>
-      <c r="L60" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="M60" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="N60" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="O60" s="2">
-        <v>10.178760197630933</v>
-      </c>
-      <c r="P60" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R60" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="S60" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T60" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G61" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I61" s="31">
-        <v>15</v>
-      </c>
-      <c r="J61" s="31">
-        <v>15</v>
-      </c>
-      <c r="K61" s="7">
-        <v>3.3929200658769768E-2</v>
-      </c>
-      <c r="L61" s="2">
-        <v>1.858955579054653</v>
-      </c>
-      <c r="M61" s="32">
-        <v>1.858955579054653</v>
-      </c>
-      <c r="N61" s="2">
-        <v>1.6994851107000937</v>
-      </c>
-      <c r="O61" s="2">
-        <v>1.6994851107000937</v>
-      </c>
-      <c r="P61" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>15</v>
-      </c>
-      <c r="R61" s="31">
-        <v>15</v>
-      </c>
-      <c r="S61" s="2">
-        <v>15</v>
-      </c>
-      <c r="T61" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I62" s="31">
-        <v>5</v>
-      </c>
-      <c r="J62" s="31">
-        <v>5</v>
-      </c>
-      <c r="K62" s="7">
-        <v>3.3929200658769768E-2</v>
-      </c>
-      <c r="L62" s="31">
-        <v>5</v>
-      </c>
-      <c r="M62" s="31">
-        <v>5</v>
-      </c>
-      <c r="N62" s="31">
-        <v>5</v>
-      </c>
-      <c r="O62" s="2">
-        <v>10.178760197630933</v>
-      </c>
-      <c r="P62" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>5</v>
-      </c>
-      <c r="R62" s="31">
-        <v>5</v>
-      </c>
-      <c r="S62" s="2">
-        <v>5</v>
-      </c>
-      <c r="T62" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I63" s="2">
-        <v>100</v>
-      </c>
-      <c r="J63" s="2">
-        <v>100</v>
-      </c>
-      <c r="K63" s="7">
-        <v>100</v>
-      </c>
-      <c r="L63" s="2">
-        <v>100</v>
-      </c>
-      <c r="M63" s="2">
-        <v>100</v>
-      </c>
-      <c r="N63" s="2">
-        <v>100</v>
-      </c>
-      <c r="O63" s="2">
-        <v>100</v>
-      </c>
-      <c r="P63" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>100</v>
-      </c>
-      <c r="R63" s="2">
-        <v>100</v>
-      </c>
-      <c r="S63" s="2">
-        <v>100</v>
-      </c>
-      <c r="T63" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-    </row>
-    <row r="65" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="L65" s="2"/>
@@ -28452,769 +29125,676 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H66" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I66" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="J66" s="2">
-        <v>3520000</v>
-      </c>
-      <c r="K66" s="7">
-        <v>3714410</v>
-      </c>
-      <c r="L66" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="M66" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="N66" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="O66" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="P66" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="Q66" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="R66" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="S66" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="T66" s="2">
-        <v>3714410</v>
-      </c>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
     </row>
     <row r="67" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H67" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I67" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="J67" s="2">
-        <v>3520200</v>
-      </c>
-      <c r="K67" s="7">
-        <v>3714410</v>
-      </c>
-      <c r="L67" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="M67" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="N67" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="O67" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="P67" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="R67" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="S67" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="T67" s="2">
-        <v>3714410</v>
-      </c>
+      <c r="A67" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
     </row>
     <row r="68" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68" s="8"/>
-      <c r="G68" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="H68" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I68" s="7">
-        <v>3714410</v>
-      </c>
-      <c r="J68" s="7">
-        <v>3520000</v>
-      </c>
-      <c r="K68" s="7">
-        <v>3714410</v>
-      </c>
-      <c r="L68" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="M68" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="N68" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="O68" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="P68" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="Q68" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="R68" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="S68" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="T68" s="31">
-        <v>3714410</v>
-      </c>
+      <c r="A68" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
     </row>
     <row r="69" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="G69" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I69" s="7">
-        <v>3714410</v>
-      </c>
-      <c r="J69" s="7">
-        <v>3520200</v>
-      </c>
-      <c r="K69" s="7">
-        <v>3714410</v>
-      </c>
-      <c r="L69" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="M69" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="N69" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="O69" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="P69" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="Q69" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="R69" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="S69" s="31">
-        <v>3714410</v>
-      </c>
-      <c r="T69" s="31">
-        <v>3714410</v>
+      <c r="A69" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69" s="2">
+        <v>228570</v>
+      </c>
+      <c r="J69" s="2">
+        <v>40000</v>
+      </c>
+      <c r="K69" s="8">
+        <v>228570</v>
+      </c>
+      <c r="L69" s="2">
+        <v>15875</v>
+      </c>
+      <c r="M69" s="35">
+        <v>15875</v>
+      </c>
+      <c r="N69" s="2">
+        <v>15875</v>
+      </c>
+      <c r="O69" s="2">
+        <v>15875</v>
+      </c>
+      <c r="P69" s="2">
+        <v>228570</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>228570</v>
+      </c>
+      <c r="R69" s="34">
+        <v>228570</v>
+      </c>
+      <c r="S69" s="2">
+        <v>228570</v>
+      </c>
+      <c r="T69" s="2">
+        <v>228570</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>60</v>
+      <c r="A70" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="I70" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>1000</v>
       </c>
       <c r="J70" s="2">
-        <v>1E-10</v>
-      </c>
-      <c r="K70" s="7">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="L70" s="31">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="M70" s="31">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="N70" s="31">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="O70" s="31">
-        <v>2.5000000000000001E-3</v>
+        <v>400</v>
+      </c>
+      <c r="K70" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L70" s="8">
+        <v>1000</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
+      <c r="N70" s="34">
+        <v>1000</v>
+      </c>
+      <c r="O70" s="34">
+        <v>1000</v>
       </c>
       <c r="P70" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>1000</v>
       </c>
       <c r="Q70" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="R70" s="31">
-        <v>2.5000000000000001E-3</v>
+        <v>1000</v>
+      </c>
+      <c r="R70" s="34">
+        <v>1000</v>
       </c>
       <c r="S70" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>1000</v>
       </c>
       <c r="T70" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>60</v>
+      <c r="A71" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="I71" s="2">
-        <v>2.75E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="J71" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="K71" s="7">
-        <v>2.75E-2</v>
-      </c>
-      <c r="L71" s="31">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M71" s="31">
-        <v>2.75E-2</v>
-      </c>
-      <c r="N71" s="31">
-        <v>2.75E-2</v>
-      </c>
-      <c r="O71" s="31">
-        <v>2.75E-2</v>
+        <v>1E-10</v>
+      </c>
+      <c r="K71" s="8">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L71" s="2">
+        <v>9.9999999999999995E-21</v>
+      </c>
+      <c r="M71" s="35">
+        <v>9.9999999999999995E-21</v>
+      </c>
+      <c r="N71" s="2">
+        <v>9.9999999999999995E-21</v>
+      </c>
+      <c r="O71" s="2">
+        <v>9.9999999999999995E-21</v>
       </c>
       <c r="P71" s="2">
-        <v>2.75E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q71" s="2">
-        <v>2.75E-2</v>
-      </c>
-      <c r="R71" s="31">
-        <v>2.75E-2</v>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="R71" s="34">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="S71" s="2">
-        <v>2.75E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="T71" s="2">
-        <v>2.75E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>60</v>
+      <c r="A72" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="I72" s="2">
-        <v>0.27</v>
+        <v>2.75E-2</v>
       </c>
       <c r="J72" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="K72" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="L72" s="31">
-        <v>0.27</v>
-      </c>
-      <c r="M72" s="31">
-        <v>0.27</v>
-      </c>
-      <c r="N72" s="31">
-        <v>0.27</v>
-      </c>
-      <c r="O72" s="31">
-        <v>0.27</v>
+        <v>0.03</v>
+      </c>
+      <c r="K72" s="8">
+        <v>2.75E-2</v>
+      </c>
+      <c r="L72" s="2">
+        <v>2.5595388012618299E-4</v>
+      </c>
+      <c r="M72" s="35">
+        <v>2.5595388012618299E-4</v>
+      </c>
+      <c r="N72" s="2">
+        <v>1.0116278692474385E-4</v>
+      </c>
+      <c r="O72" s="2">
+        <v>1.0116278692474385E-4</v>
       </c>
       <c r="P72" s="2">
-        <v>0.27</v>
+        <v>2.75E-2</v>
       </c>
       <c r="Q72" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="R72" s="31">
-        <v>0.27</v>
+        <v>2.75E-2</v>
+      </c>
+      <c r="R72" s="34">
+        <v>2.75E-2</v>
       </c>
       <c r="S72" s="2">
-        <v>0.27</v>
+        <v>2.75E-2</v>
       </c>
       <c r="T72" s="2">
-        <v>0.27</v>
+        <v>2.75E-2</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>60</v>
+      <c r="A73" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="I73" s="2">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
       <c r="J73" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="K73" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="L73" s="31">
-        <v>0.6</v>
-      </c>
-      <c r="M73" s="31">
-        <v>0.6</v>
-      </c>
-      <c r="N73" s="31">
-        <v>0.6</v>
-      </c>
-      <c r="O73" s="31">
-        <v>0.6</v>
+        <v>0.27</v>
+      </c>
+      <c r="K73" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0.13396571095647686</v>
+      </c>
+      <c r="M73" s="35">
+        <v>0.13396571095647686</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0.13396571095647686</v>
+      </c>
+      <c r="O73" s="2">
+        <v>0.13396571095647686</v>
       </c>
       <c r="P73" s="2">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
       <c r="Q73" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="R73" s="31">
-        <v>0.6</v>
+        <v>0.27</v>
+      </c>
+      <c r="R73" s="34">
+        <v>0.27</v>
       </c>
       <c r="S73" s="2">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
       <c r="T73" s="2">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>60</v>
+      <c r="A74" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="I74" s="2">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="J74" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K74" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L74" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="M74" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="N74" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="O74" s="31">
-        <v>0.1</v>
+        <v>0.6</v>
+      </c>
+      <c r="K74" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0.62583981387130228</v>
+      </c>
+      <c r="M74" s="35">
+        <v>0.62583981387130228</v>
+      </c>
+      <c r="N74" s="2">
+        <v>0.62583981387130228</v>
+      </c>
+      <c r="O74" s="2">
+        <v>0.62583981387130228</v>
       </c>
       <c r="P74" s="2">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="Q74" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R74" s="31">
-        <v>0.1</v>
+        <v>0.6</v>
+      </c>
+      <c r="R74" s="34">
+        <v>0.6</v>
       </c>
       <c r="S74" s="2">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="T74" s="2">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>71</v>
+      <c r="A75" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="I75" s="2">
-        <v>12</v>
+        <v>0.1</v>
       </c>
       <c r="J75" s="2">
-        <v>12</v>
-      </c>
-      <c r="K75" s="7">
-        <v>12</v>
-      </c>
-      <c r="L75" s="31">
-        <v>12</v>
-      </c>
-      <c r="M75" s="31">
-        <v>12</v>
-      </c>
-      <c r="N75" s="31">
-        <v>12</v>
-      </c>
-      <c r="O75" s="31">
-        <v>12</v>
+        <v>0.1</v>
+      </c>
+      <c r="K75" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0.2399385867877197</v>
+      </c>
+      <c r="M75" s="35">
+        <v>0.2399385867877197</v>
+      </c>
+      <c r="N75" s="2">
+        <v>0.2399385867877197</v>
+      </c>
+      <c r="O75" s="2">
+        <v>0.2399385867877197</v>
       </c>
       <c r="P75" s="2">
-        <v>12</v>
+        <v>0.1</v>
       </c>
       <c r="Q75" s="2">
-        <v>12</v>
-      </c>
-      <c r="R75" s="31">
-        <v>12</v>
+        <v>0.1</v>
+      </c>
+      <c r="R75" s="34">
+        <v>0.1</v>
       </c>
       <c r="S75" s="2">
-        <v>12</v>
+        <v>0.1</v>
       </c>
       <c r="T75" s="2">
-        <v>12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>74</v>
+      <c r="A76" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="I76" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J76" s="2">
-        <v>3</v>
-      </c>
-      <c r="K76" s="7">
-        <v>3</v>
-      </c>
-      <c r="L76" s="31">
-        <v>3</v>
-      </c>
-      <c r="M76" s="31">
-        <v>3</v>
-      </c>
-      <c r="N76" s="31">
-        <v>3</v>
-      </c>
-      <c r="O76" s="31">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="K76" s="8">
+        <v>12</v>
+      </c>
+      <c r="L76" s="2">
+        <v>10</v>
+      </c>
+      <c r="M76" s="35">
+        <v>10</v>
+      </c>
+      <c r="N76" s="2">
+        <v>10</v>
+      </c>
+      <c r="O76" s="2">
+        <v>10</v>
       </c>
       <c r="P76" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q76" s="2">
-        <v>3</v>
-      </c>
-      <c r="R76" s="31">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="R76" s="34">
+        <v>12</v>
       </c>
       <c r="S76" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="T76" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>77</v>
+      <c r="A77" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="I77" s="2">
-        <v>700</v>
+        <v>3</v>
       </c>
       <c r="J77" s="2">
-        <v>700</v>
-      </c>
-      <c r="K77" s="7">
-        <v>700</v>
-      </c>
-      <c r="L77" s="31">
-        <v>700</v>
-      </c>
-      <c r="M77" s="31">
-        <v>700</v>
-      </c>
-      <c r="N77" s="31">
-        <v>700</v>
-      </c>
-      <c r="O77" s="31">
-        <v>700</v>
+        <v>3</v>
+      </c>
+      <c r="K77" s="8">
+        <v>3</v>
+      </c>
+      <c r="L77" s="2">
+        <v>4.63580226898193</v>
+      </c>
+      <c r="M77" s="35">
+        <v>4.63580226898193</v>
+      </c>
+      <c r="N77" s="2">
+        <v>4.63580226898193</v>
+      </c>
+      <c r="O77" s="2">
+        <v>4.63580226898193</v>
       </c>
       <c r="P77" s="2">
-        <v>700</v>
+        <v>3</v>
       </c>
       <c r="Q77" s="2">
-        <v>700</v>
-      </c>
-      <c r="R77" s="31">
-        <v>700</v>
+        <v>3</v>
+      </c>
+      <c r="R77" s="34">
+        <v>3</v>
       </c>
       <c r="S77" s="2">
-        <v>700</v>
+        <v>3</v>
       </c>
       <c r="T77" s="2">
-        <v>700</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>80</v>
+      <c r="A78" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="I78" s="2">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="J78" s="2">
-        <v>1E-10</v>
-      </c>
-      <c r="K78" s="7">
-        <v>100</v>
-      </c>
-      <c r="L78" s="31">
-        <v>100</v>
-      </c>
-      <c r="M78" s="31">
-        <v>100</v>
-      </c>
-      <c r="N78" s="31">
-        <v>100</v>
-      </c>
-      <c r="O78" s="31">
-        <v>100</v>
+        <v>700</v>
+      </c>
+      <c r="K78" s="8">
+        <v>700</v>
+      </c>
+      <c r="L78" s="2">
+        <v>930.21250226047403</v>
+      </c>
+      <c r="M78" s="35">
+        <v>930.21250226047403</v>
+      </c>
+      <c r="N78" s="2">
+        <v>632.85703291353502</v>
+      </c>
+      <c r="O78" s="2">
+        <v>632.85703291353502</v>
       </c>
       <c r="P78" s="2">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="Q78" s="2">
-        <v>100</v>
-      </c>
-      <c r="R78" s="31">
-        <v>100</v>
+        <v>700</v>
+      </c>
+      <c r="R78" s="34">
+        <v>700</v>
       </c>
       <c r="S78" s="2">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="T78" s="2">
-        <v>100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>80</v>
+      <c r="A79" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="I79" s="2">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J79" s="2">
-        <v>3</v>
-      </c>
-      <c r="K79" s="7">
-        <v>3</v>
-      </c>
-      <c r="L79" s="31">
-        <v>3</v>
-      </c>
-      <c r="M79" s="31">
-        <v>3</v>
-      </c>
-      <c r="N79" s="31">
-        <v>3</v>
-      </c>
-      <c r="O79" s="31">
-        <v>3</v>
+        <v>1E-10</v>
+      </c>
+      <c r="K79" s="8">
+        <v>100</v>
+      </c>
+      <c r="L79" s="34">
+        <v>100</v>
+      </c>
+      <c r="M79" s="34">
+        <v>100</v>
+      </c>
+      <c r="N79" s="34">
+        <v>100</v>
+      </c>
+      <c r="O79" s="34">
+        <v>100</v>
       </c>
       <c r="P79" s="2">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="Q79" s="2">
-        <v>3</v>
-      </c>
-      <c r="R79" s="31">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="R79" s="34">
+        <v>100</v>
       </c>
       <c r="S79" s="2">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="T79" s="2">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>60</v>
+      <c r="A80" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="I80" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J80" s="2">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="K80" s="7">
-        <v>0</v>
-      </c>
-      <c r="L80" s="31">
-        <v>0</v>
-      </c>
-      <c r="M80" s="31">
-        <v>0</v>
-      </c>
-      <c r="N80" s="31">
-        <v>0</v>
-      </c>
-      <c r="O80" s="31">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K80" s="8">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="M80" s="35">
+        <v>1.87</v>
+      </c>
+      <c r="N80" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="O80" s="2">
+        <v>1.62</v>
       </c>
       <c r="P80" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q80" s="2">
-        <v>0</v>
-      </c>
-      <c r="R80" s="31">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="R80" s="34">
+        <v>3</v>
       </c>
       <c r="S80" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T80" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H81" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G81" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="I81" s="2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J81" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="K81" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="L81" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="M81" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="N81" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="O81" s="31">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="K81" s="8">
+        <v>0</v>
+      </c>
+      <c r="L81" s="34">
+        <v>0</v>
+      </c>
+      <c r="M81" s="34">
+        <v>0</v>
+      </c>
+      <c r="N81" s="34">
+        <v>0</v>
+      </c>
+      <c r="O81" s="34">
+        <v>0</v>
       </c>
       <c r="P81" s="2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R81" s="31">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="R81" s="34">
+        <v>0</v>
       </c>
       <c r="S81" s="2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T81" s="2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>60</v>
+      <c r="A82" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="I82" s="2">
         <v>0.25</v>
@@ -29222,19 +29802,19 @@
       <c r="J82" s="2">
         <v>0.25</v>
       </c>
-      <c r="K82" s="7">
+      <c r="K82" s="8">
         <v>0.25</v>
       </c>
-      <c r="L82" s="31">
+      <c r="L82" s="34">
         <v>0.25</v>
       </c>
-      <c r="M82" s="31">
+      <c r="M82" s="34">
         <v>0.25</v>
       </c>
-      <c r="N82" s="31">
+      <c r="N82" s="34">
         <v>0.25</v>
       </c>
-      <c r="O82" s="31">
+      <c r="O82" s="34">
         <v>0.25</v>
       </c>
       <c r="P82" s="2">
@@ -29243,7 +29823,7 @@
       <c r="Q82" s="2">
         <v>0.25</v>
       </c>
-      <c r="R82" s="31">
+      <c r="R82" s="34">
         <v>0.25</v>
       </c>
       <c r="S82" s="2">
@@ -29254,270 +29834,270 @@
       </c>
     </row>
     <row r="83" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>77</v>
+      <c r="A83" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="I83" s="2">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="J83" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="K83" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="L83" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="M83" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="N83" s="31">
-        <v>0.03</v>
-      </c>
-      <c r="O83" s="31">
-        <v>0.03</v>
+        <v>0.25</v>
+      </c>
+      <c r="K83" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="L83" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="M83" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="N83" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="O83" s="34">
+        <v>0.25</v>
       </c>
       <c r="P83" s="2">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="Q83" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="R83" s="31">
-        <v>0.03</v>
+        <v>0.25</v>
+      </c>
+      <c r="R83" s="34">
+        <v>0.25</v>
       </c>
       <c r="S83" s="2">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="T83" s="2">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I84" s="31">
-        <v>3200000000</v>
-      </c>
-      <c r="J84" s="31">
-        <v>3200000000</v>
-      </c>
-      <c r="K84" s="7">
-        <v>3200000000</v>
-      </c>
-      <c r="L84" s="31">
-        <v>3200000000</v>
-      </c>
-      <c r="M84" s="31">
-        <v>3200000000</v>
-      </c>
-      <c r="N84" s="31">
-        <v>3200000000</v>
-      </c>
-      <c r="O84" s="31">
-        <v>3200000000</v>
+      <c r="A84" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="K84" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="L84" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="M84" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="N84" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="O84" s="34">
+        <v>0.03</v>
       </c>
       <c r="P84" s="2">
-        <v>3200000000</v>
+        <v>0.03</v>
       </c>
       <c r="Q84" s="2">
-        <v>3200000000</v>
-      </c>
-      <c r="R84" s="31">
-        <v>3200000000</v>
+        <v>0.03</v>
+      </c>
+      <c r="R84" s="34">
+        <v>0.03</v>
       </c>
       <c r="S84" s="2">
-        <v>3200000000</v>
+        <v>0.03</v>
       </c>
       <c r="T84" s="2">
-        <v>3200000000</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I85" s="31">
-        <v>2900000000</v>
-      </c>
-      <c r="J85" s="31">
-        <v>2900000000</v>
-      </c>
-      <c r="K85" s="7">
-        <v>2900000000</v>
-      </c>
-      <c r="L85" s="31">
-        <v>2900000000</v>
-      </c>
-      <c r="M85" s="31">
-        <v>2900000000</v>
-      </c>
-      <c r="N85" s="31">
-        <v>2900000000</v>
-      </c>
-      <c r="O85" s="31">
-        <v>2900000000</v>
+      <c r="A85" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I85" s="34">
+        <v>3200000000</v>
+      </c>
+      <c r="J85" s="34">
+        <v>3200000000</v>
+      </c>
+      <c r="K85" s="8">
+        <v>1400000000</v>
+      </c>
+      <c r="L85" s="34">
+        <v>3200000000</v>
+      </c>
+      <c r="M85" s="34">
+        <v>3200000000</v>
+      </c>
+      <c r="N85" s="34">
+        <v>3200000000</v>
+      </c>
+      <c r="O85" s="2">
+        <v>1400000000</v>
       </c>
       <c r="P85" s="2">
-        <v>2900000000</v>
+        <v>3200000000</v>
       </c>
       <c r="Q85" s="2">
-        <v>2900000000</v>
-      </c>
-      <c r="R85" s="31">
-        <v>2900000000</v>
+        <v>3200000000</v>
+      </c>
+      <c r="R85" s="34">
+        <v>3200000000</v>
       </c>
       <c r="S85" s="2">
-        <v>2900000000</v>
+        <v>3200000000</v>
       </c>
       <c r="T85" s="2">
-        <v>2900000000</v>
+        <v>3200000000</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I86" s="31">
-        <v>300000</v>
-      </c>
-      <c r="J86" s="31">
-        <v>300000</v>
-      </c>
-      <c r="K86" s="7">
-        <v>300000</v>
-      </c>
-      <c r="L86" s="31">
-        <v>300000</v>
-      </c>
-      <c r="M86" s="31">
-        <v>300000</v>
-      </c>
-      <c r="N86" s="31">
-        <v>300000</v>
-      </c>
-      <c r="O86" s="31">
-        <v>300000</v>
+      <c r="A86" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I86" s="34">
+        <v>2900000000</v>
+      </c>
+      <c r="J86" s="34">
+        <v>2900000000</v>
+      </c>
+      <c r="K86" s="8">
+        <v>3600000000</v>
+      </c>
+      <c r="L86" s="34">
+        <v>2900000000</v>
+      </c>
+      <c r="M86" s="34">
+        <v>2900000000</v>
+      </c>
+      <c r="N86" s="34">
+        <v>2900000000</v>
+      </c>
+      <c r="O86" s="2">
+        <v>3600000000</v>
       </c>
       <c r="P86" s="2">
-        <v>300000</v>
+        <v>2900000000</v>
       </c>
       <c r="Q86" s="2">
-        <v>300000</v>
-      </c>
-      <c r="R86" s="31">
-        <v>300000</v>
+        <v>2900000000</v>
+      </c>
+      <c r="R86" s="34">
+        <v>2900000000</v>
       </c>
       <c r="S86" s="2">
-        <v>300000</v>
+        <v>2900000000</v>
       </c>
       <c r="T86" s="2">
-        <v>300000</v>
+        <v>2900000000</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I87" s="31">
-        <v>1</v>
-      </c>
-      <c r="J87" s="31">
-        <v>1</v>
-      </c>
-      <c r="K87" s="7">
-        <v>1</v>
-      </c>
-      <c r="L87" s="31">
-        <v>1</v>
-      </c>
-      <c r="M87" s="31">
-        <v>1</v>
-      </c>
-      <c r="N87" s="31">
-        <v>1</v>
-      </c>
-      <c r="O87" s="31">
-        <v>1</v>
+      <c r="A87" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I87" s="34">
+        <v>300000</v>
+      </c>
+      <c r="J87" s="34">
+        <v>300000</v>
+      </c>
+      <c r="K87" s="8">
+        <v>2100000</v>
+      </c>
+      <c r="L87" s="34">
+        <v>300000</v>
+      </c>
+      <c r="M87" s="34">
+        <v>300000</v>
+      </c>
+      <c r="N87" s="34">
+        <v>300000</v>
+      </c>
+      <c r="O87" s="2">
+        <v>2100000</v>
       </c>
       <c r="P87" s="2">
-        <v>1</v>
+        <v>300000</v>
       </c>
       <c r="Q87" s="2">
-        <v>1</v>
-      </c>
-      <c r="R87" s="31">
-        <v>1</v>
+        <v>300000</v>
+      </c>
+      <c r="R87" s="34">
+        <v>300000</v>
       </c>
       <c r="S87" s="2">
-        <v>1</v>
+        <v>300000</v>
       </c>
       <c r="T87" s="2">
-        <v>1</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="G88" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I88" s="31">
+        <v>126</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I88" s="34">
         <v>1</v>
       </c>
-      <c r="J88" s="31">
+      <c r="J88" s="34">
         <v>1</v>
       </c>
-      <c r="K88" s="7">
+      <c r="K88" s="8">
+        <v>2.4994511151960403E-2</v>
+      </c>
+      <c r="L88" s="34">
         <v>1</v>
       </c>
-      <c r="L88" s="31">
+      <c r="M88" s="34">
         <v>1</v>
       </c>
-      <c r="M88" s="31">
+      <c r="N88" s="34">
         <v>1</v>
       </c>
-      <c r="N88" s="31">
-        <v>1</v>
-      </c>
-      <c r="O88" s="31">
-        <v>1</v>
+      <c r="O88" s="2">
+        <v>4.8066367599923847</v>
       </c>
       <c r="P88" s="2">
         <v>1</v>
@@ -29525,7 +30105,7 @@
       <c r="Q88" s="2">
         <v>1</v>
       </c>
-      <c r="R88" s="31">
+      <c r="R88" s="34">
         <v>1</v>
       </c>
       <c r="S88" s="2">
@@ -29537,34 +30117,34 @@
     </row>
     <row r="89" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="G89" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I89" s="31">
+        <v>128</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I89" s="34">
         <v>1</v>
       </c>
-      <c r="J89" s="31">
+      <c r="J89" s="34">
         <v>1</v>
       </c>
-      <c r="K89" s="7">
-        <v>1</v>
-      </c>
-      <c r="L89" s="31">
-        <v>1</v>
-      </c>
-      <c r="M89" s="31">
-        <v>1</v>
-      </c>
-      <c r="N89" s="31">
-        <v>1</v>
-      </c>
-      <c r="O89" s="31">
-        <v>1</v>
+      <c r="K89" s="8">
+        <v>2.4994511151960403E-2</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0.12393037193697687</v>
+      </c>
+      <c r="M89" s="35">
+        <v>0.12393037193697687</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0.11329900738000624</v>
+      </c>
+      <c r="O89" s="2">
+        <v>0.11329900738000624</v>
       </c>
       <c r="P89" s="2">
         <v>1</v>
@@ -29572,7 +30152,7 @@
       <c r="Q89" s="2">
         <v>1</v>
       </c>
-      <c r="R89" s="31">
+      <c r="R89" s="34">
         <v>1</v>
       </c>
       <c r="S89" s="2">
@@ -29584,226 +30164,244 @@
     </row>
     <row r="90" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I90" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="J90" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K90" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L90" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="M90" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="N90" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="O90" s="31">
-        <v>0.5</v>
+        <v>129</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I90" s="34">
+        <v>1</v>
+      </c>
+      <c r="J90" s="34">
+        <v>1</v>
+      </c>
+      <c r="K90" s="8">
+        <v>2.4994511151960403E-2</v>
+      </c>
+      <c r="L90" s="34">
+        <v>1</v>
+      </c>
+      <c r="M90" s="34">
+        <v>1</v>
+      </c>
+      <c r="N90" s="34">
+        <v>1</v>
+      </c>
+      <c r="O90" s="2">
+        <v>4.8066367599923847</v>
       </c>
       <c r="P90" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q90" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R90" s="31">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="R90" s="34">
+        <v>1</v>
       </c>
       <c r="S90" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T90" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="G91" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I91" s="31">
-        <v>15</v>
-      </c>
-      <c r="J91" s="31">
-        <v>15</v>
-      </c>
-      <c r="K91" s="7">
-        <v>15</v>
-      </c>
-      <c r="L91" s="31">
-        <v>15</v>
-      </c>
-      <c r="M91" s="31">
-        <v>15</v>
-      </c>
-      <c r="N91" s="31">
-        <v>15</v>
-      </c>
-      <c r="O91" s="31">
-        <v>15</v>
+        <v>131</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I91" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J91" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="K91" s="8">
+        <v>3.3929200658769768E-2</v>
+      </c>
+      <c r="L91" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="M91" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="N91" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="O91" s="2">
+        <v>10.178760197630933</v>
       </c>
       <c r="P91" s="2">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="Q91" s="2">
-        <v>15</v>
-      </c>
-      <c r="R91" s="31">
-        <v>15</v>
+        <v>0.5</v>
+      </c>
+      <c r="R91" s="34">
+        <v>0.5</v>
       </c>
       <c r="S91" s="2">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T91" s="2">
-        <v>15</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="G92" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I92" s="31">
-        <v>5</v>
-      </c>
-      <c r="J92" s="31">
-        <v>5</v>
-      </c>
-      <c r="K92" s="7">
-        <v>5</v>
-      </c>
-      <c r="L92" s="31">
-        <v>5</v>
-      </c>
-      <c r="M92" s="31">
-        <v>5</v>
-      </c>
-      <c r="N92" s="31">
-        <v>5</v>
-      </c>
-      <c r="O92" s="31">
-        <v>5</v>
+        <v>134</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I92" s="34">
+        <v>15</v>
+      </c>
+      <c r="J92" s="34">
+        <v>15</v>
+      </c>
+      <c r="K92" s="8">
+        <v>3.3929200658769768E-2</v>
+      </c>
+      <c r="L92" s="2">
+        <v>1.858955579054653</v>
+      </c>
+      <c r="M92" s="35">
+        <v>1.858955579054653</v>
+      </c>
+      <c r="N92" s="2">
+        <v>1.6994851107000937</v>
+      </c>
+      <c r="O92" s="2">
+        <v>1.6994851107000937</v>
       </c>
       <c r="P92" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q92" s="2">
-        <v>5</v>
-      </c>
-      <c r="R92" s="31">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="R92" s="34">
+        <v>15</v>
       </c>
       <c r="S92" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T92" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G93" s="6" t="s">
+      <c r="A93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G93" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I93" s="34">
+        <v>5</v>
+      </c>
+      <c r="J93" s="34">
+        <v>5</v>
+      </c>
+      <c r="K93" s="8">
+        <v>3.3929200658769768E-2</v>
+      </c>
+      <c r="L93" s="34">
+        <v>5</v>
+      </c>
+      <c r="M93" s="34">
+        <v>5</v>
+      </c>
+      <c r="N93" s="34">
+        <v>5</v>
+      </c>
+      <c r="O93" s="2">
+        <v>10.178760197630933</v>
+      </c>
+      <c r="P93" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>5</v>
+      </c>
+      <c r="R93" s="34">
+        <v>5</v>
+      </c>
+      <c r="S93" s="2">
+        <v>5</v>
+      </c>
+      <c r="T93" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H93" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I93" s="31">
+      <c r="I94" s="2">
         <v>100</v>
       </c>
-      <c r="J93" s="31">
+      <c r="J94" s="2">
         <v>100</v>
       </c>
-      <c r="K93" s="7">
+      <c r="K94" s="8">
         <v>100</v>
       </c>
-      <c r="L93" s="31">
+      <c r="L94" s="2">
         <v>100</v>
       </c>
-      <c r="M93" s="31">
+      <c r="M94" s="2">
         <v>100</v>
       </c>
-      <c r="N93" s="31">
+      <c r="N94" s="2">
         <v>100</v>
       </c>
-      <c r="O93" s="31">
+      <c r="O94" s="2">
         <v>100</v>
       </c>
-      <c r="P93" s="2">
+      <c r="P94" s="2">
         <v>100</v>
       </c>
-      <c r="Q93" s="2">
+      <c r="Q94" s="2">
         <v>100</v>
       </c>
-      <c r="R93" s="31">
+      <c r="R94" s="2">
         <v>100</v>
       </c>
-      <c r="S93" s="2">
+      <c r="S94" s="2">
         <v>100</v>
       </c>
-      <c r="T93" s="2">
+      <c r="T94" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="34"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
-      <c r="Q94" s="37"/>
-      <c r="R94" s="37"/>
-      <c r="S94" s="36"/>
-      <c r="T94" s="36"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" s="23"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
+    <row r="95" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -29814,364 +30412,2315 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="F96" s="41"/>
-      <c r="G96" s="42"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
+    <row r="96" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
       <c r="L96" s="2"/>
-      <c r="M96" s="32"/>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
-      <c r="P96" s="32"/>
+      <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F97" s="41"/>
-      <c r="G97" s="42"/>
-      <c r="I97" s="43"/>
-      <c r="J97" s="43"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="32"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="32"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
+    <row r="97" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H97" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="I97" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="J97" s="2">
+        <v>3520000</v>
+      </c>
+      <c r="K97" s="8">
+        <v>3714410</v>
+      </c>
+      <c r="L97" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="M97" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="N97" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="O97" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="P97" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="R97" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="S97" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="T97" s="2">
+        <v>3714410</v>
+      </c>
     </row>
-    <row r="98" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F98" s="41"/>
-      <c r="G98" s="42"/>
-      <c r="I98" s="43"/>
-      <c r="J98" s="43"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="32"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="32"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
+    <row r="98" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H98" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="I98" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="J98" s="2">
+        <v>3520200</v>
+      </c>
+      <c r="K98" s="8">
+        <v>3714410</v>
+      </c>
+      <c r="L98" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="M98" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="N98" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="O98" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="P98" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="R98" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="S98" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="T98" s="2">
+        <v>3714410</v>
+      </c>
     </row>
-    <row r="99" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F99" s="41"/>
-      <c r="G99" s="42"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="32"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="32"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
+    <row r="99" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="9"/>
+      <c r="G99" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="H99" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="I99" s="8">
+        <v>3714410</v>
+      </c>
+      <c r="J99" s="8">
+        <v>3520000</v>
+      </c>
+      <c r="K99" s="8">
+        <v>3714410</v>
+      </c>
+      <c r="L99" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="M99" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="N99" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="O99" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="P99" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="Q99" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="R99" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="S99" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="T99" s="34">
+        <v>3714410</v>
+      </c>
     </row>
-    <row r="100" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F100" s="41"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="32"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="32"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
+    <row r="100" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="G100" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H100" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="I100" s="8">
+        <v>3714410</v>
+      </c>
+      <c r="J100" s="8">
+        <v>3520200</v>
+      </c>
+      <c r="K100" s="8">
+        <v>3714410</v>
+      </c>
+      <c r="L100" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="M100" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="N100" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="O100" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="P100" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="Q100" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="R100" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="S100" s="34">
+        <v>3714410</v>
+      </c>
+      <c r="T100" s="34">
+        <v>3714410</v>
+      </c>
     </row>
-    <row r="101" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F101" s="41"/>
-      <c r="G101" s="42"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="43"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="32"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
+    <row r="101" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I101" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J101" s="2">
+        <v>1E-10</v>
+      </c>
+      <c r="K101" s="8">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L101" s="34">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M101" s="34">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="N101" s="34">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O101" s="34">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="P101" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="R101" s="34">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="S101" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="T101" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
     </row>
-    <row r="102" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F102" s="44"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="43"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="32"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="32"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
+    <row r="102" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I102" s="2">
+        <v>2.75E-2</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="K102" s="8">
+        <v>2.75E-2</v>
+      </c>
+      <c r="L102" s="34">
+        <v>2.75E-2</v>
+      </c>
+      <c r="M102" s="34">
+        <v>2.75E-2</v>
+      </c>
+      <c r="N102" s="34">
+        <v>2.75E-2</v>
+      </c>
+      <c r="O102" s="34">
+        <v>2.75E-2</v>
+      </c>
+      <c r="P102" s="2">
+        <v>2.75E-2</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>2.75E-2</v>
+      </c>
+      <c r="R102" s="34">
+        <v>2.75E-2</v>
+      </c>
+      <c r="S102" s="2">
+        <v>2.75E-2</v>
+      </c>
+      <c r="T102" s="2">
+        <v>2.75E-2</v>
+      </c>
     </row>
-    <row r="103" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F103" s="44"/>
-      <c r="G103" s="42"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="43"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="32"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="2"/>
+    <row r="103" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I103" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="J103" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="K103" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="L103" s="34">
+        <v>0.27</v>
+      </c>
+      <c r="M103" s="34">
+        <v>0.27</v>
+      </c>
+      <c r="N103" s="34">
+        <v>0.27</v>
+      </c>
+      <c r="O103" s="34">
+        <v>0.27</v>
+      </c>
+      <c r="P103" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="R103" s="34">
+        <v>0.27</v>
+      </c>
+      <c r="S103" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="T103" s="2">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="104" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F104" s="44"/>
-      <c r="G104" s="42"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="43"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="32"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
+    <row r="104" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I104" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K104" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="L104" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="M104" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="N104" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="O104" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="P104" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="R104" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="S104" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="T104" s="2">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="105" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F105" s="44"/>
-      <c r="G105" s="42"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="43"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="32"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="32"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
+    <row r="105" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I105" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K105" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="L105" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="M105" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="N105" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="O105" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="P105" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R105" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="S105" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T105" s="2">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="106" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F106" s="44"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="43"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="32"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="32"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
+    <row r="106" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I106" s="2">
+        <v>12</v>
+      </c>
+      <c r="J106" s="2">
+        <v>12</v>
+      </c>
+      <c r="K106" s="8">
+        <v>12</v>
+      </c>
+      <c r="L106" s="34">
+        <v>12</v>
+      </c>
+      <c r="M106" s="34">
+        <v>12</v>
+      </c>
+      <c r="N106" s="34">
+        <v>12</v>
+      </c>
+      <c r="O106" s="34">
+        <v>12</v>
+      </c>
+      <c r="P106" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>12</v>
+      </c>
+      <c r="R106" s="34">
+        <v>12</v>
+      </c>
+      <c r="S106" s="2">
+        <v>12</v>
+      </c>
+      <c r="T106" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="107" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F107" s="44"/>
-      <c r="G107" s="42"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="32"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="32"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
+    <row r="107" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I107" s="2">
+        <v>3</v>
+      </c>
+      <c r="J107" s="2">
+        <v>3</v>
+      </c>
+      <c r="K107" s="8">
+        <v>3</v>
+      </c>
+      <c r="L107" s="34">
+        <v>3</v>
+      </c>
+      <c r="M107" s="34">
+        <v>3</v>
+      </c>
+      <c r="N107" s="34">
+        <v>3</v>
+      </c>
+      <c r="O107" s="34">
+        <v>3</v>
+      </c>
+      <c r="P107" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>3</v>
+      </c>
+      <c r="R107" s="34">
+        <v>3</v>
+      </c>
+      <c r="S107" s="2">
+        <v>3</v>
+      </c>
+      <c r="T107" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="108" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F108" s="41"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="43"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
+    <row r="108" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I108" s="2">
+        <v>700</v>
+      </c>
+      <c r="J108" s="2">
+        <v>700</v>
+      </c>
+      <c r="K108" s="8">
+        <v>700</v>
+      </c>
+      <c r="L108" s="34">
+        <v>700</v>
+      </c>
+      <c r="M108" s="34">
+        <v>700</v>
+      </c>
+      <c r="N108" s="34">
+        <v>700</v>
+      </c>
+      <c r="O108" s="34">
+        <v>700</v>
+      </c>
+      <c r="P108" s="2">
+        <v>700</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>700</v>
+      </c>
+      <c r="R108" s="34">
+        <v>700</v>
+      </c>
+      <c r="S108" s="2">
+        <v>700</v>
+      </c>
+      <c r="T108" s="2">
+        <v>700</v>
+      </c>
     </row>
-    <row r="109" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F109" s="44"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="43"/>
-      <c r="L109" s="32"/>
-      <c r="M109" s="32"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="32"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
-      <c r="S109" s="2"/>
-      <c r="T109" s="2"/>
+    <row r="109" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I109" s="2">
+        <v>100</v>
+      </c>
+      <c r="J109" s="2">
+        <v>1E-10</v>
+      </c>
+      <c r="K109" s="8">
+        <v>100</v>
+      </c>
+      <c r="L109" s="34">
+        <v>100</v>
+      </c>
+      <c r="M109" s="34">
+        <v>100</v>
+      </c>
+      <c r="N109" s="34">
+        <v>100</v>
+      </c>
+      <c r="O109" s="34">
+        <v>100</v>
+      </c>
+      <c r="P109" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>100</v>
+      </c>
+      <c r="R109" s="34">
+        <v>100</v>
+      </c>
+      <c r="S109" s="2">
+        <v>100</v>
+      </c>
+      <c r="T109" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="110" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F110" s="44"/>
-      <c r="G110" s="42"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="43"/>
-      <c r="L110" s="32"/>
-      <c r="M110" s="32"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="32"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="2"/>
-      <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
+    <row r="110" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I110" s="2">
+        <v>3</v>
+      </c>
+      <c r="J110" s="2">
+        <v>3</v>
+      </c>
+      <c r="K110" s="8">
+        <v>3</v>
+      </c>
+      <c r="L110" s="34">
+        <v>3</v>
+      </c>
+      <c r="M110" s="34">
+        <v>3</v>
+      </c>
+      <c r="N110" s="34">
+        <v>3</v>
+      </c>
+      <c r="O110" s="34">
+        <v>3</v>
+      </c>
+      <c r="P110" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>3</v>
+      </c>
+      <c r="R110" s="34">
+        <v>3</v>
+      </c>
+      <c r="S110" s="2">
+        <v>3</v>
+      </c>
+      <c r="T110" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="111" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F111" s="44"/>
-      <c r="G111" s="42"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="43"/>
-      <c r="J111" s="43"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="32"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="32"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
-      <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
+    <row r="111" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I111" s="2">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K111" s="8">
+        <v>0</v>
+      </c>
+      <c r="L111" s="34">
+        <v>0</v>
+      </c>
+      <c r="M111" s="34">
+        <v>0</v>
+      </c>
+      <c r="N111" s="34">
+        <v>0</v>
+      </c>
+      <c r="O111" s="34">
+        <v>0</v>
+      </c>
+      <c r="P111" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>0</v>
+      </c>
+      <c r="R111" s="34">
+        <v>0</v>
+      </c>
+      <c r="S111" s="2">
+        <v>0</v>
+      </c>
+      <c r="T111" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F112" s="44"/>
-      <c r="G112" s="42"/>
-      <c r="I112" s="43"/>
-      <c r="J112" s="43"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="32"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="32"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
+    <row r="112" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I112" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J112" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K112" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="L112" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="M112" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="N112" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="O112" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="P112" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="R112" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="S112" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="T112" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I113" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J113" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K113" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="L113" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="M113" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="N113" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="O113" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="P113" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="R113" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="S113" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="T113" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I114" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="J114" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="K114" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="L114" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="M114" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="N114" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="O114" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="P114" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="R114" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="S114" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="T114" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I115" s="34">
+        <v>3200000000</v>
+      </c>
+      <c r="J115" s="34">
+        <v>3200000000</v>
+      </c>
+      <c r="K115" s="8">
+        <v>3200000000</v>
+      </c>
+      <c r="L115" s="34">
+        <v>3200000000</v>
+      </c>
+      <c r="M115" s="34">
+        <v>3200000000</v>
+      </c>
+      <c r="N115" s="34">
+        <v>3200000000</v>
+      </c>
+      <c r="O115" s="34">
+        <v>3200000000</v>
+      </c>
+      <c r="P115" s="2">
+        <v>3200000000</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>3200000000</v>
+      </c>
+      <c r="R115" s="34">
+        <v>3200000000</v>
+      </c>
+      <c r="S115" s="2">
+        <v>3200000000</v>
+      </c>
+      <c r="T115" s="2">
+        <v>3200000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I116" s="34">
+        <v>2900000000</v>
+      </c>
+      <c r="J116" s="34">
+        <v>2900000000</v>
+      </c>
+      <c r="K116" s="8">
+        <v>2900000000</v>
+      </c>
+      <c r="L116" s="34">
+        <v>2900000000</v>
+      </c>
+      <c r="M116" s="34">
+        <v>2900000000</v>
+      </c>
+      <c r="N116" s="34">
+        <v>2900000000</v>
+      </c>
+      <c r="O116" s="34">
+        <v>2900000000</v>
+      </c>
+      <c r="P116" s="2">
+        <v>2900000000</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>2900000000</v>
+      </c>
+      <c r="R116" s="34">
+        <v>2900000000</v>
+      </c>
+      <c r="S116" s="2">
+        <v>2900000000</v>
+      </c>
+      <c r="T116" s="2">
+        <v>2900000000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I117" s="34">
+        <v>300000</v>
+      </c>
+      <c r="J117" s="34">
+        <v>300000</v>
+      </c>
+      <c r="K117" s="8">
+        <v>300000</v>
+      </c>
+      <c r="L117" s="34">
+        <v>300000</v>
+      </c>
+      <c r="M117" s="34">
+        <v>300000</v>
+      </c>
+      <c r="N117" s="34">
+        <v>300000</v>
+      </c>
+      <c r="O117" s="34">
+        <v>300000</v>
+      </c>
+      <c r="P117" s="2">
+        <v>300000</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>300000</v>
+      </c>
+      <c r="R117" s="34">
+        <v>300000</v>
+      </c>
+      <c r="S117" s="2">
+        <v>300000</v>
+      </c>
+      <c r="T117" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G118" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I118" s="34">
+        <v>1</v>
+      </c>
+      <c r="J118" s="34">
+        <v>1</v>
+      </c>
+      <c r="K118" s="8">
+        <v>1</v>
+      </c>
+      <c r="L118" s="34">
+        <v>1</v>
+      </c>
+      <c r="M118" s="34">
+        <v>1</v>
+      </c>
+      <c r="N118" s="34">
+        <v>1</v>
+      </c>
+      <c r="O118" s="34">
+        <v>1</v>
+      </c>
+      <c r="P118" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>1</v>
+      </c>
+      <c r="R118" s="34">
+        <v>1</v>
+      </c>
+      <c r="S118" s="2">
+        <v>1</v>
+      </c>
+      <c r="T118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G119" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I119" s="34">
+        <v>1</v>
+      </c>
+      <c r="J119" s="34">
+        <v>1</v>
+      </c>
+      <c r="K119" s="8">
+        <v>1</v>
+      </c>
+      <c r="L119" s="34">
+        <v>1</v>
+      </c>
+      <c r="M119" s="34">
+        <v>1</v>
+      </c>
+      <c r="N119" s="34">
+        <v>1</v>
+      </c>
+      <c r="O119" s="34">
+        <v>1</v>
+      </c>
+      <c r="P119" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>1</v>
+      </c>
+      <c r="R119" s="34">
+        <v>1</v>
+      </c>
+      <c r="S119" s="2">
+        <v>1</v>
+      </c>
+      <c r="T119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G120" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I120" s="34">
+        <v>1</v>
+      </c>
+      <c r="J120" s="34">
+        <v>1</v>
+      </c>
+      <c r="K120" s="8">
+        <v>1</v>
+      </c>
+      <c r="L120" s="34">
+        <v>1</v>
+      </c>
+      <c r="M120" s="34">
+        <v>1</v>
+      </c>
+      <c r="N120" s="34">
+        <v>1</v>
+      </c>
+      <c r="O120" s="34">
+        <v>1</v>
+      </c>
+      <c r="P120" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>1</v>
+      </c>
+      <c r="R120" s="34">
+        <v>1</v>
+      </c>
+      <c r="S120" s="2">
+        <v>1</v>
+      </c>
+      <c r="T120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G121" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I121" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J121" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="K121" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L121" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="M121" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="N121" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="O121" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="P121" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R121" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="S121" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T121" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G122" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I122" s="34">
+        <v>15</v>
+      </c>
+      <c r="J122" s="34">
+        <v>15</v>
+      </c>
+      <c r="K122" s="8">
+        <v>15</v>
+      </c>
+      <c r="L122" s="34">
+        <v>15</v>
+      </c>
+      <c r="M122" s="34">
+        <v>15</v>
+      </c>
+      <c r="N122" s="34">
+        <v>15</v>
+      </c>
+      <c r="O122" s="34">
+        <v>15</v>
+      </c>
+      <c r="P122" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q122" s="2">
+        <v>15</v>
+      </c>
+      <c r="R122" s="34">
+        <v>15</v>
+      </c>
+      <c r="S122" s="2">
+        <v>15</v>
+      </c>
+      <c r="T122" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G123" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I123" s="34">
+        <v>5</v>
+      </c>
+      <c r="J123" s="34">
+        <v>5</v>
+      </c>
+      <c r="K123" s="8">
+        <v>5</v>
+      </c>
+      <c r="L123" s="34">
+        <v>5</v>
+      </c>
+      <c r="M123" s="34">
+        <v>5</v>
+      </c>
+      <c r="N123" s="34">
+        <v>5</v>
+      </c>
+      <c r="O123" s="34">
+        <v>5</v>
+      </c>
+      <c r="P123" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>5</v>
+      </c>
+      <c r="R123" s="34">
+        <v>5</v>
+      </c>
+      <c r="S123" s="2">
+        <v>5</v>
+      </c>
+      <c r="T123" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I124" s="34">
+        <v>100</v>
+      </c>
+      <c r="J124" s="34">
+        <v>100</v>
+      </c>
+      <c r="K124" s="8">
+        <v>100</v>
+      </c>
+      <c r="L124" s="34">
+        <v>100</v>
+      </c>
+      <c r="M124" s="34">
+        <v>100</v>
+      </c>
+      <c r="N124" s="34">
+        <v>100</v>
+      </c>
+      <c r="O124" s="34">
+        <v>100</v>
+      </c>
+      <c r="P124" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>100</v>
+      </c>
+      <c r="R124" s="34">
+        <v>100</v>
+      </c>
+      <c r="S124" s="2">
+        <v>100</v>
+      </c>
+      <c r="T124" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="37"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="38"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="38"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="39"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="39"/>
+      <c r="M125" s="39"/>
+      <c r="N125" s="39"/>
+      <c r="O125" s="39"/>
+      <c r="P125" s="39"/>
+      <c r="Q125" s="40"/>
+      <c r="R125" s="40"/>
+      <c r="S125" s="39"/>
+      <c r="T125" s="39"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A126" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B127" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F127" s="41"/>
+      <c r="G127" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I127" s="48">
+        <v>10</v>
+      </c>
+      <c r="J127" s="48">
+        <v>10</v>
+      </c>
+      <c r="K127" s="8">
+        <v>10</v>
+      </c>
+      <c r="L127" s="2">
+        <v>10</v>
+      </c>
+      <c r="M127" s="35">
+        <v>10</v>
+      </c>
+      <c r="N127" s="2">
+        <v>10</v>
+      </c>
+      <c r="O127" s="2">
+        <v>10</v>
+      </c>
+      <c r="P127" s="35">
+        <v>10</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>9.65</v>
+      </c>
+      <c r="R127" s="2">
+        <v>9.65</v>
+      </c>
+      <c r="S127" s="2">
+        <v>9.65</v>
+      </c>
+      <c r="T127" s="2">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B128" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F128" s="41"/>
+      <c r="G128" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I128" s="48">
+        <v>1300</v>
+      </c>
+      <c r="J128" s="48">
+        <v>1300</v>
+      </c>
+      <c r="K128" s="8">
+        <v>1300</v>
+      </c>
+      <c r="L128" s="2">
+        <v>1300</v>
+      </c>
+      <c r="M128" s="35">
+        <v>1300</v>
+      </c>
+      <c r="N128" s="2">
+        <v>1300</v>
+      </c>
+      <c r="O128" s="2">
+        <v>1300</v>
+      </c>
+      <c r="P128" s="35">
+        <v>1300</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>1300</v>
+      </c>
+      <c r="R128" s="2">
+        <v>1300</v>
+      </c>
+      <c r="S128" s="2">
+        <v>1300</v>
+      </c>
+      <c r="T128" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B129" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F129" s="41"/>
+      <c r="G129" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I129" s="48">
+        <v>58</v>
+      </c>
+      <c r="J129" s="48">
+        <v>58</v>
+      </c>
+      <c r="K129" s="8">
+        <v>60</v>
+      </c>
+      <c r="L129" s="2">
+        <v>58</v>
+      </c>
+      <c r="M129" s="35">
+        <v>60</v>
+      </c>
+      <c r="N129" s="2">
+        <v>58</v>
+      </c>
+      <c r="O129" s="2">
+        <v>60</v>
+      </c>
+      <c r="P129" s="35">
+        <v>58</v>
+      </c>
+      <c r="Q129" s="2">
+        <v>115.00000000000001</v>
+      </c>
+      <c r="R129" s="2">
+        <v>115.00000000000001</v>
+      </c>
+      <c r="S129" s="2">
+        <v>115.00000000000001</v>
+      </c>
+      <c r="T129" s="2">
+        <v>115.00000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B130" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F130" s="41"/>
+      <c r="G130" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I130" s="48">
+        <v>2000</v>
+      </c>
+      <c r="J130" s="48">
+        <v>2000</v>
+      </c>
+      <c r="K130" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L130" s="2">
+        <v>2000</v>
+      </c>
+      <c r="M130" s="35">
+        <v>1500</v>
+      </c>
+      <c r="N130" s="2">
+        <v>2000</v>
+      </c>
+      <c r="O130" s="2">
+        <v>1500</v>
+      </c>
+      <c r="P130" s="35">
+        <v>2000</v>
+      </c>
+      <c r="Q130" s="2">
+        <v>1500</v>
+      </c>
+      <c r="R130" s="2">
+        <v>1500</v>
+      </c>
+      <c r="S130" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T130" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="131" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B131" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F131" s="41"/>
+      <c r="G131" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I131" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="J131" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="K131" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="L131" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M131" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="N131" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="O131" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P131" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="Q131" s="2">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="R131" s="2">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="S131" s="2">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="T131" s="2">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="132" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B132" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F132" s="41"/>
+      <c r="G132" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I132" s="48">
+        <v>2000</v>
+      </c>
+      <c r="J132" s="48">
+        <v>2000</v>
+      </c>
+      <c r="K132" s="8">
+        <v>1600</v>
+      </c>
+      <c r="L132" s="2">
+        <v>2000</v>
+      </c>
+      <c r="M132" s="35">
+        <v>1600</v>
+      </c>
+      <c r="N132" s="2">
+        <v>2000</v>
+      </c>
+      <c r="O132" s="2">
+        <v>1600</v>
+      </c>
+      <c r="P132" s="35">
+        <v>2000</v>
+      </c>
+      <c r="Q132" s="2">
+        <v>2000</v>
+      </c>
+      <c r="R132" s="2">
+        <v>2000</v>
+      </c>
+      <c r="S132" s="2">
+        <v>2000</v>
+      </c>
+      <c r="T132" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B133" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F133" s="43"/>
+      <c r="G133" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I133" s="48">
+        <v>150</v>
+      </c>
+      <c r="J133" s="48">
+        <v>150</v>
+      </c>
+      <c r="K133" s="8">
+        <v>30</v>
+      </c>
+      <c r="L133" s="2">
+        <v>150</v>
+      </c>
+      <c r="M133" s="35">
+        <v>30</v>
+      </c>
+      <c r="N133" s="2">
+        <v>150</v>
+      </c>
+      <c r="O133" s="2">
+        <v>30</v>
+      </c>
+      <c r="P133" s="35">
+        <v>150</v>
+      </c>
+      <c r="Q133" s="2">
+        <v>125.00000000000001</v>
+      </c>
+      <c r="R133" s="2">
+        <v>125.00000000000001</v>
+      </c>
+      <c r="S133" s="2">
+        <v>125.00000000000001</v>
+      </c>
+      <c r="T133" s="2">
+        <v>125.00000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B134" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F134" s="43"/>
+      <c r="G134" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I134" s="48">
+        <v>2000</v>
+      </c>
+      <c r="J134" s="48">
+        <v>2000</v>
+      </c>
+      <c r="K134" s="8">
+        <v>1300</v>
+      </c>
+      <c r="L134" s="2">
+        <v>2000</v>
+      </c>
+      <c r="M134" s="35">
+        <v>1300</v>
+      </c>
+      <c r="N134" s="2">
+        <v>2000</v>
+      </c>
+      <c r="O134" s="2">
+        <v>1300</v>
+      </c>
+      <c r="P134" s="35">
+        <v>2000</v>
+      </c>
+      <c r="Q134" s="2">
+        <v>1300</v>
+      </c>
+      <c r="R134" s="2">
+        <v>1300</v>
+      </c>
+      <c r="S134" s="2">
+        <v>1300</v>
+      </c>
+      <c r="T134" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="135" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B135" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F135" s="43"/>
+      <c r="G135" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I135" s="48">
+        <v>3</v>
+      </c>
+      <c r="J135" s="48">
+        <v>3</v>
+      </c>
+      <c r="K135" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L135" s="2">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="M135" s="35">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="N135" s="2">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="O135" s="2">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="P135" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q135" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="R135" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="S135" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T135" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="136" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B136" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F136" s="43"/>
+      <c r="G136" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I136" s="48">
+        <v>2500</v>
+      </c>
+      <c r="J136" s="48">
+        <v>2500</v>
+      </c>
+      <c r="K136" s="8">
+        <v>1800</v>
+      </c>
+      <c r="L136" s="2">
+        <v>2200</v>
+      </c>
+      <c r="M136" s="35">
+        <v>2200</v>
+      </c>
+      <c r="N136" s="2">
+        <v>2200</v>
+      </c>
+      <c r="O136" s="2">
+        <v>2200</v>
+      </c>
+      <c r="P136" s="35">
+        <v>2500</v>
+      </c>
+      <c r="Q136" s="2">
+        <v>2000</v>
+      </c>
+      <c r="R136" s="2">
+        <v>2000</v>
+      </c>
+      <c r="S136" s="2">
+        <v>2000</v>
+      </c>
+      <c r="T136" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="137" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B137" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F137" s="43"/>
+      <c r="G137" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I137" s="48">
+        <v>150</v>
+      </c>
+      <c r="J137" s="48">
+        <v>150</v>
+      </c>
+      <c r="K137" s="8">
+        <v>125</v>
+      </c>
+      <c r="L137" s="2">
+        <v>150</v>
+      </c>
+      <c r="M137" s="35">
+        <v>125</v>
+      </c>
+      <c r="N137" s="2">
+        <v>150</v>
+      </c>
+      <c r="O137" s="2">
+        <v>125</v>
+      </c>
+      <c r="P137" s="35">
+        <v>150</v>
+      </c>
+      <c r="Q137" s="2">
+        <v>50.000000000000007</v>
+      </c>
+      <c r="R137" s="2">
+        <v>50.000000000000007</v>
+      </c>
+      <c r="S137" s="2">
+        <v>50.000000000000007</v>
+      </c>
+      <c r="T137" s="2">
+        <v>50.000000000000007</v>
+      </c>
+    </row>
+    <row r="138" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B138" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F138" s="43"/>
+      <c r="G138" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I138" s="48">
+        <v>2000</v>
+      </c>
+      <c r="J138" s="48">
+        <v>2000</v>
+      </c>
+      <c r="K138" s="8">
+        <v>2000</v>
+      </c>
+      <c r="L138" s="2">
+        <v>2000</v>
+      </c>
+      <c r="M138" s="35">
+        <v>2000</v>
+      </c>
+      <c r="N138" s="2">
+        <v>2000</v>
+      </c>
+      <c r="O138" s="2">
+        <v>0</v>
+      </c>
+      <c r="P138" s="35">
+        <v>2000</v>
+      </c>
+      <c r="Q138" s="2">
+        <v>1300</v>
+      </c>
+      <c r="R138" s="2">
+        <v>1300</v>
+      </c>
+      <c r="S138" s="2">
+        <v>1300</v>
+      </c>
+      <c r="T138" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="139" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B139" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F139" s="41"/>
+      <c r="G139" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I139" s="48">
+        <v>128</v>
+      </c>
+      <c r="J139" s="48">
+        <v>128</v>
+      </c>
+      <c r="K139" s="8">
+        <v>130</v>
+      </c>
+      <c r="L139" s="2">
+        <v>130</v>
+      </c>
+      <c r="M139" s="35">
+        <v>130</v>
+      </c>
+      <c r="N139" s="2">
+        <v>130</v>
+      </c>
+      <c r="O139" s="2">
+        <v>130</v>
+      </c>
+      <c r="P139" s="35">
+        <v>128</v>
+      </c>
+      <c r="Q139" s="2">
+        <v>65</v>
+      </c>
+      <c r="R139" s="2">
+        <v>65</v>
+      </c>
+      <c r="S139" s="2">
+        <v>65</v>
+      </c>
+      <c r="T139" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B140" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F140" s="43"/>
+      <c r="G140" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I140" s="48">
+        <v>150</v>
+      </c>
+      <c r="J140" s="48">
+        <v>150</v>
+      </c>
+      <c r="K140" s="8">
+        <v>60</v>
+      </c>
+      <c r="L140" s="35">
+        <v>150</v>
+      </c>
+      <c r="M140" s="35">
+        <v>60</v>
+      </c>
+      <c r="N140" s="2">
+        <v>150</v>
+      </c>
+      <c r="O140" s="2">
+        <v>60</v>
+      </c>
+      <c r="P140" s="35">
+        <v>150</v>
+      </c>
+      <c r="Q140" s="2">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="R140" s="2">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="S140" s="2">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="T140" s="2">
+        <v>60.000000000000007</v>
+      </c>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B141" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F141" s="43"/>
+      <c r="G141" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I141" s="48">
+        <v>2000</v>
+      </c>
+      <c r="J141" s="48">
+        <v>2000</v>
+      </c>
+      <c r="K141" s="8">
+        <v>2000</v>
+      </c>
+      <c r="L141" s="35">
+        <v>2000</v>
+      </c>
+      <c r="M141" s="35">
+        <v>2000</v>
+      </c>
+      <c r="N141" s="2">
+        <v>2000</v>
+      </c>
+      <c r="O141" s="2">
+        <v>0</v>
+      </c>
+      <c r="P141" s="35">
+        <v>2000</v>
+      </c>
+      <c r="Q141" s="2">
+        <v>1300</v>
+      </c>
+      <c r="R141" s="2">
+        <v>1300</v>
+      </c>
+      <c r="S141" s="2">
+        <v>1300</v>
+      </c>
+      <c r="T141" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="142" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B142" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F142" s="43"/>
+      <c r="G142" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I142" s="48">
+        <v>128</v>
+      </c>
+      <c r="J142" s="48">
+        <v>128</v>
+      </c>
+      <c r="K142" s="8">
+        <v>130</v>
+      </c>
+      <c r="L142" s="2">
+        <v>31.500356271862902</v>
+      </c>
+      <c r="M142" s="35">
+        <v>31.500356271862902</v>
+      </c>
+      <c r="N142" s="2">
+        <v>31.500356271862902</v>
+      </c>
+      <c r="O142" s="2">
+        <v>31.500356271862902</v>
+      </c>
+      <c r="P142" s="35">
+        <v>128</v>
+      </c>
+      <c r="Q142" s="2">
+        <v>650</v>
+      </c>
+      <c r="R142" s="2">
+        <v>650</v>
+      </c>
+      <c r="S142" s="2">
+        <v>650</v>
+      </c>
+      <c r="T142" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="143" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B143" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F143" s="43"/>
+      <c r="G143" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I143" s="48">
+        <v>2500</v>
+      </c>
+      <c r="J143" s="48">
+        <v>2500</v>
+      </c>
+      <c r="K143" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L143" s="2">
+        <v>2500</v>
+      </c>
+      <c r="M143" s="35">
+        <v>2500</v>
+      </c>
+      <c r="N143" s="2">
+        <v>2500</v>
+      </c>
+      <c r="O143" s="2">
+        <v>2500</v>
+      </c>
+      <c r="P143" s="35">
+        <v>2500</v>
+      </c>
+      <c r="Q143" s="2">
+        <v>2500</v>
+      </c>
+      <c r="R143" s="2">
+        <v>2500</v>
+      </c>
+      <c r="S143" s="2">
+        <v>2500</v>
+      </c>
+      <c r="T143" s="2">
+        <v>2500</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I8:J8 I10 I13">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+  <conditionalFormatting sqref="I8 I10 I13">
+    <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:J79">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+  <conditionalFormatting sqref="I97:J110">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:K62">
-    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
+  <conditionalFormatting sqref="J38">
+    <cfRule type="cellIs" dxfId="21" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K85:K93">
+    <cfRule type="expression" dxfId="20" priority="17" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-3,FALSE)&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
       <formula>HLOOKUP(ScenarioName,ScenarioData,ROW()-180,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38:L47 I38:J49 L49 I51:J53 L58 L61 J80 I81:J83">
-    <cfRule type="cellIs" dxfId="15" priority="48" operator="equal">
+  <conditionalFormatting sqref="K8:O8 K10:O10 K13:O13">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M38 M40:M47 M49 M58 M61">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="L69:L78 I69:J80 L80 I82:J84 L89 L92 J111 I112:J114">
+    <cfRule type="cellIs" dxfId="16" priority="42" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M69 M71:M78 M80 M89 M92">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-3,FALSE)&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>HLOOKUP(ScenarioName,ScenarioData,ROW()-180,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38:O38 N40:O47 N49:O49 O54:O57 N58:O58 O59:O60 N61:O61 O62 I64:O65">
-    <cfRule type="cellIs" dxfId="11" priority="34" operator="equal">
+  <conditionalFormatting sqref="M127:M137">
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
+      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M139:M140">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M142:M143">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N69:O69 N71:O78 N80:O80 O85:O88 N89:O89 O90:O91 N92:O92 O93 I95:O96">
+    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P38:Q49 P51:Q67 P70:Q79 P81:Q93">
-    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
+  <conditionalFormatting sqref="P127:P137">
+    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
+      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P139:P140">
+    <cfRule type="expression" dxfId="7" priority="13" stopIfTrue="1">
+      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P142:P143">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P69:Q80 P82:Q98 P101:Q110 P112:Q124">
+    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R64:S65">
-    <cfRule type="cellIs" dxfId="9" priority="33" operator="equal">
+  <conditionalFormatting sqref="R95:S96">
+    <cfRule type="cellIs" dxfId="4" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S51:S63 S66:S67">
-    <cfRule type="cellIs" dxfId="8" priority="42" operator="equal">
+  <conditionalFormatting sqref="S82:S94 S97:S98">
+    <cfRule type="cellIs" dxfId="3" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S38:T49 S51:T67 S70:T79">
-    <cfRule type="cellIs" dxfId="7" priority="32" operator="equal">
+  <conditionalFormatting sqref="S69:T80 S82:T98 S101:T110">
+    <cfRule type="cellIs" dxfId="2" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S81:T93">
-    <cfRule type="cellIs" dxfId="6" priority="29" operator="equal">
+  <conditionalFormatting sqref="S112:T124">
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M96:M106">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M108:M109">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M111:M112">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P96:P106">
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P108:P109">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P111:P112">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
+  <conditionalFormatting sqref="I38 I40 I43">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SimpleBox4PFAS/src/main/webapp/resources/templates/scenarios.xlsx
+++ b/SimpleBox4PFAS/src/main/webapp/resources/templates/scenarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\git\SimpleBox4Nano\SimpleBox4Nano\src\main\webapp\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\git\SimpleBox4PFAS\SimpleBox4PFAS\src\main\webapp\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB903C8D-A86B-47C7-9295-EF9705B1BC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F19796-D6F5-4F29-B748-41CF063BC4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,19 +150,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="150">
   <si>
     <t>Scenario</t>
   </si>
@@ -339,351 +332,6 @@
   </si>
   <si>
     <t>E.sTS</t>
-  </si>
-  <si>
-    <t>Dissolved or Gas species (G/D)</t>
-  </si>
-  <si>
-    <r>
-      <t>E.aR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G</t>
-    </r>
-  </si>
-  <si>
-    <t>[t.yr-1]</t>
-  </si>
-  <si>
-    <t>EMISSION to water0</t>
-  </si>
-  <si>
-    <r>
-      <t>E.w0R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <t>EMISSION to water1</t>
-  </si>
-  <si>
-    <t>EMISSION to water2</t>
-  </si>
-  <si>
-    <r>
-      <t>E.w2R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.s1R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.s2R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.s3R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.aC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.w0C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.w1C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.w2C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.s1C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.s2C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.s3C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.aM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.w2M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.sM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.aA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.w2A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.sA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.aT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.w2T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.sT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
   </si>
   <si>
     <t>LANSCAPE SETTINGS</t>
@@ -971,140 +619,6 @@
     <t>mConcNC.sC</t>
   </si>
   <si>
-    <t>ENVIRONMENTAL PROPERTIES (ALL SCALES)</t>
-  </si>
-  <si>
-    <t>Radius nucleation mode aerosol particle</t>
-  </si>
-  <si>
-    <t>RadNuc</t>
-  </si>
-  <si>
-    <t>[nm]</t>
-  </si>
-  <si>
-    <t>Density nucleation mode aerosol particle</t>
-  </si>
-  <si>
-    <t>RhoNuc</t>
-  </si>
-  <si>
-    <t>[kg.m-3]</t>
-  </si>
-  <si>
-    <t>Radius accumulation mode aerosol particle</t>
-  </si>
-  <si>
-    <t>RadAcc</t>
-  </si>
-  <si>
-    <t>Density accumulation mode aerosol particle</t>
-  </si>
-  <si>
-    <t>RhoAcc</t>
-  </si>
-  <si>
-    <t>Radius coarse mode aerosol particle</t>
-  </si>
-  <si>
-    <t>RadCP.a</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>µ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m]</t>
-    </r>
-  </si>
-  <si>
-    <t>Density Coarse mode aerosol particle</t>
-  </si>
-  <si>
-    <t>RhoCP.a</t>
-  </si>
-  <si>
-    <t>Radius natural colloids (NC, &lt; 450 nm) in water</t>
-  </si>
-  <si>
-    <t>RadNC.w</t>
-  </si>
-  <si>
-    <t>Density natural colloids (NC, &lt; 450 nm) in water</t>
-  </si>
-  <si>
-    <t>RhoNC.w</t>
-  </si>
-  <si>
-    <t>Radius natural suspended particulate matter (SPM, &gt; 450 nm) in water</t>
-  </si>
-  <si>
-    <t>RadSPM.w</t>
-  </si>
-  <si>
-    <t>Density natural suspended particulate matter (SPM, &gt; 450 nm) in water</t>
-  </si>
-  <si>
-    <t>RhoSPM.w</t>
-  </si>
-  <si>
-    <t>Radius natural colloids (NC, &lt; 450 nm) in sediment pore water</t>
-  </si>
-  <si>
-    <t>RadNC.sd</t>
-  </si>
-  <si>
-    <t>Density natural colloids (NC, &lt; 450 nm) in sediment pore water</t>
-  </si>
-  <si>
-    <t>RhoNC.sd</t>
-  </si>
-  <si>
-    <t>Radius filtration particles in sediment (FP, &gt;450 nm)</t>
-  </si>
-  <si>
-    <t>RadFP.sd</t>
-  </si>
-  <si>
-    <t>Radius natural colloids (NC, &lt; 450 nm) in soil pore water</t>
-  </si>
-  <si>
-    <t>RadNC.s</t>
-  </si>
-  <si>
-    <t>Density natural colloids (NC, &lt; 450 nm) in soil pore water</t>
-  </si>
-  <si>
-    <t>RhoNC.s</t>
-  </si>
-  <si>
-    <t>Radius filtration particulates in soil (FP, &gt; 450 nm)</t>
-  </si>
-  <si>
-    <t>RadFP.s</t>
-  </si>
-  <si>
-    <t>Density filtration particulates in soil (FP, &gt; 450 nm)</t>
-  </si>
-  <si>
-    <t>RhoFP.s</t>
-  </si>
-  <si>
     <t>EMISSION RATES</t>
   </si>
   <si>
@@ -1112,9 +626,6 @@
   </si>
   <si>
     <t xml:space="preserve">SCENARIOS DATABASE - Fixed format - Do not alter </t>
-  </si>
-  <si>
-    <t>E.w1RD</t>
   </si>
   <si>
     <t>TOTAREAland.C</t>
@@ -1142,7 +653,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,30 +708,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAEAEA"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -1295,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1376,7 +870,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1397,9 +890,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1412,12 +902,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="16">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1435,39 +924,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1506,9 +962,6 @@
       <font>
         <color rgb="FFCC00CC"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -26354,10 +25807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ143"/>
+  <dimension ref="A1:AJ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:XFD112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26384,7 +25837,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="G1" s="7"/>
     </row>
@@ -26409,7 +25862,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>3</v>
@@ -26421,7 +25874,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>6</v>
@@ -26441,7 +25894,7 @@
     </row>
     <row r="4" spans="1:20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -27749,7 +27202,7 @@
       <c r="J32" s="5">
         <v>0</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="41">
         <v>0</v>
       </c>
       <c r="L32" s="5">
@@ -27898,17 +27351,11 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+    <row r="36" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="L36" s="2"/>
@@ -27921,10 +27368,12 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+    <row r="37" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
         <v>14</v>
       </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="L37" s="2"/>
@@ -27937,561 +27386,579 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="1" t="s">
+    <row r="38" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="G38" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="H38" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="I38" s="2">
-        <v>10000</v>
+        <v>228570</v>
       </c>
       <c r="J38" s="2">
-        <v>1</v>
+        <v>40000</v>
       </c>
       <c r="K38" s="8">
-        <v>0</v>
+        <v>228570</v>
       </c>
       <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0</v>
+        <v>15875</v>
+      </c>
+      <c r="M38" s="34">
+        <v>15875</v>
       </c>
       <c r="N38" s="2">
-        <v>0</v>
+        <v>15875</v>
       </c>
       <c r="O38" s="2">
-        <v>0</v>
+        <v>15875</v>
       </c>
       <c r="P38" s="2">
-        <v>0</v>
+        <v>228570</v>
       </c>
       <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2">
-        <v>0</v>
+        <v>228570</v>
+      </c>
+      <c r="R38" s="33">
+        <v>228570</v>
       </c>
       <c r="S38" s="2">
-        <v>0</v>
+        <v>228570</v>
       </c>
       <c r="T38" s="2">
-        <v>0</v>
+        <v>228570</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I39" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J39" s="2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K39" s="8">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="L39" s="8">
+        <v>1000</v>
       </c>
       <c r="M39" s="2">
         <v>0</v>
       </c>
-      <c r="N39" s="2">
-        <v>0</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0</v>
+      <c r="N39" s="33">
+        <v>1000</v>
+      </c>
+      <c r="O39" s="33">
+        <v>1000</v>
       </c>
       <c r="P39" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q39" s="2">
-        <v>0</v>
-      </c>
-      <c r="R39" s="2">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="R39" s="33">
+        <v>1000</v>
       </c>
       <c r="S39" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T39" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>54</v>
+    <row r="40" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="I40" s="2">
-        <v>10000</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="J40" s="2">
-        <v>0</v>
+        <v>1E-10</v>
       </c>
       <c r="K40" s="8">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
+        <v>9.9999999999999995E-21</v>
+      </c>
+      <c r="M40" s="34">
+        <v>9.9999999999999995E-21</v>
       </c>
       <c r="N40" s="2">
-        <v>0</v>
+        <v>9.9999999999999995E-21</v>
       </c>
       <c r="O40" s="2">
-        <v>0</v>
+        <v>9.9999999999999995E-21</v>
       </c>
       <c r="P40" s="2">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="R40" s="33">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="S40" s="2">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="T40" s="2">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>54</v>
+    <row r="41" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>2.75E-2</v>
       </c>
       <c r="J41" s="2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="K41" s="8">
-        <v>0</v>
+        <v>2.75E-2</v>
       </c>
       <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0</v>
+        <v>2.5595388012618299E-4</v>
+      </c>
+      <c r="M41" s="34">
+        <v>2.5595388012618299E-4</v>
       </c>
       <c r="N41" s="2">
-        <v>0</v>
+        <v>1.0116278692474385E-4</v>
       </c>
       <c r="O41" s="2">
-        <v>0</v>
+        <v>1.0116278692474385E-4</v>
       </c>
       <c r="P41" s="2">
-        <v>0</v>
+        <v>2.75E-2</v>
       </c>
       <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="2">
-        <v>0</v>
+        <v>2.75E-2</v>
+      </c>
+      <c r="R41" s="33">
+        <v>2.75E-2</v>
       </c>
       <c r="S41" s="2">
-        <v>0</v>
+        <v>2.75E-2</v>
       </c>
       <c r="T41" s="2">
-        <v>0</v>
+        <v>2.75E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="1" t="s">
+    <row r="42" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="J42" s="2">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="K42" s="8">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0</v>
+        <v>0.13396571095647686</v>
+      </c>
+      <c r="M42" s="34">
+        <v>0.13396571095647686</v>
       </c>
       <c r="N42" s="2">
-        <v>0</v>
+        <v>0.13396571095647686</v>
       </c>
       <c r="O42" s="2">
-        <v>0</v>
+        <v>0.13396571095647686</v>
       </c>
       <c r="P42" s="2">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="Q42" s="2">
-        <v>0</v>
-      </c>
-      <c r="R42" s="2">
-        <v>0</v>
+        <v>0.27</v>
+      </c>
+      <c r="R42" s="33">
+        <v>0.27</v>
       </c>
       <c r="S42" s="2">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="T42" s="2">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>54</v>
+    <row r="43" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="I43" s="2">
-        <v>10000</v>
+        <v>0.6</v>
       </c>
       <c r="J43" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K43" s="8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0</v>
+        <v>0.62583981387130228</v>
+      </c>
+      <c r="M43" s="34">
+        <v>0.62583981387130228</v>
       </c>
       <c r="N43" s="2">
-        <v>0</v>
+        <v>0.62583981387130228</v>
       </c>
       <c r="O43" s="2">
-        <v>0</v>
+        <v>0.62583981387130228</v>
       </c>
       <c r="P43" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q43" s="2">
-        <v>0</v>
-      </c>
-      <c r="R43" s="2">
-        <v>0</v>
+        <v>0.6</v>
+      </c>
+      <c r="R43" s="33">
+        <v>0.6</v>
       </c>
       <c r="S43" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T43" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>54</v>
+    <row r="44" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="I44" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J44" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K44" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0</v>
+        <v>0.2399385867877197</v>
+      </c>
+      <c r="M44" s="34">
+        <v>0.2399385867877197</v>
       </c>
       <c r="N44" s="2">
-        <v>0</v>
+        <v>0.2399385867877197</v>
       </c>
       <c r="O44" s="2">
-        <v>0</v>
+        <v>0.2399385867877197</v>
       </c>
       <c r="P44" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q44" s="2">
-        <v>0</v>
-      </c>
-      <c r="R44" s="2">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="R44" s="33">
+        <v>0.1</v>
       </c>
       <c r="S44" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T44" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
+    <row r="45" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" s="2">
+        <v>12</v>
+      </c>
+      <c r="J45" s="2">
+        <v>12</v>
+      </c>
+      <c r="K45" s="8">
+        <v>12</v>
+      </c>
+      <c r="L45" s="2">
+        <v>10</v>
+      </c>
+      <c r="M45" s="34">
+        <v>10</v>
+      </c>
+      <c r="N45" s="2">
+        <v>10</v>
+      </c>
+      <c r="O45" s="2">
+        <v>10</v>
+      </c>
+      <c r="P45" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>12</v>
+      </c>
+      <c r="R45" s="33">
+        <v>12</v>
+      </c>
+      <c r="S45" s="2">
+        <v>12</v>
+      </c>
+      <c r="T45" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>54</v>
+    <row r="46" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="I46" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K46" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0</v>
+        <v>4.63580226898193</v>
+      </c>
+      <c r="M46" s="34">
+        <v>4.63580226898193</v>
       </c>
       <c r="N46" s="2">
-        <v>0</v>
+        <v>4.63580226898193</v>
       </c>
       <c r="O46" s="2">
-        <v>0</v>
+        <v>4.63580226898193</v>
       </c>
       <c r="P46" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q46" s="2">
-        <v>0</v>
-      </c>
-      <c r="R46" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="R46" s="33">
+        <v>3</v>
       </c>
       <c r="S46" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T46" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>54</v>
+    <row r="47" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J47" s="2">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K47" s="8">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0</v>
+        <v>930.21250226047403</v>
+      </c>
+      <c r="M47" s="34">
+        <v>930.21250226047403</v>
       </c>
       <c r="N47" s="2">
-        <v>0</v>
+        <v>632.85703291353502</v>
       </c>
       <c r="O47" s="2">
-        <v>0</v>
+        <v>632.85703291353502</v>
       </c>
       <c r="P47" s="2">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="Q47" s="2">
-        <v>0</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="R47" s="33">
+        <v>700</v>
       </c>
       <c r="S47" s="2">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="T47" s="2">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>54</v>
+    <row r="48" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="I48" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="2">
-        <v>0</v>
+        <v>1E-10</v>
       </c>
       <c r="K48" s="8">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="L48" s="33">
+        <v>100</v>
+      </c>
+      <c r="M48" s="33">
+        <v>100</v>
+      </c>
+      <c r="N48" s="33">
+        <v>100</v>
+      </c>
+      <c r="O48" s="33">
+        <v>100</v>
       </c>
       <c r="P48" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="2">
-        <v>0</v>
-      </c>
-      <c r="R48" s="2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="R48" s="33">
+        <v>100</v>
       </c>
       <c r="S48" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T48" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>54</v>
+    <row r="49" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="I49" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K49" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0</v>
+        <v>1.87</v>
+      </c>
+      <c r="M49" s="34">
+        <v>1.87</v>
       </c>
       <c r="N49" s="2">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O49" s="2">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P49" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q49" s="2">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="R49" s="33">
+        <v>3</v>
       </c>
       <c r="S49" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T49" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>54</v>
+    <row r="50" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
@@ -28502,16 +27969,16 @@
       <c r="K50" s="8">
         <v>0</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="33">
         <v>0</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="33">
         <v>0</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="33">
         <v>0</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="33">
         <v>0</v>
       </c>
       <c r="P50" s="2">
@@ -28520,7 +27987,7 @@
       <c r="Q50" s="2">
         <v>0</v>
       </c>
-      <c r="R50" s="2">
+      <c r="R50" s="33">
         <v>0</v>
       </c>
       <c r="S50" s="2">
@@ -28530,589 +27997,638 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>54</v>
+    <row r="51" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="I51" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J51" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K51" s="8">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="L51" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="M51" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="N51" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="O51" s="33">
+        <v>0.25</v>
       </c>
       <c r="P51" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q51" s="2">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="R51" s="33">
+        <v>0.25</v>
       </c>
       <c r="S51" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T51" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>54</v>
+    <row r="52" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="I52" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J52" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K52" s="8">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2">
-        <v>0</v>
-      </c>
-      <c r="M52" s="2">
-        <v>0</v>
-      </c>
-      <c r="N52" s="2">
-        <v>0</v>
-      </c>
-      <c r="O52" s="2">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="L52" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="M52" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="N52" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="O52" s="33">
+        <v>0.25</v>
       </c>
       <c r="P52" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q52" s="2">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="R52" s="33">
+        <v>0.25</v>
       </c>
       <c r="S52" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T52" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
+    <row r="53" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="K53" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="L53" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="M53" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="N53" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="O53" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="R53" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" s="33">
+        <v>3200000000</v>
+      </c>
+      <c r="J54" s="33">
+        <v>3200000000</v>
+      </c>
+      <c r="K54" s="8">
+        <v>1400000000</v>
+      </c>
+      <c r="L54" s="33">
+        <v>3200000000</v>
+      </c>
+      <c r="M54" s="33">
+        <v>3200000000</v>
+      </c>
+      <c r="N54" s="33">
+        <v>3200000000</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1400000000</v>
+      </c>
+      <c r="P54" s="2">
+        <v>3200000000</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>3200000000</v>
+      </c>
+      <c r="R54" s="33">
+        <v>3200000000</v>
+      </c>
+      <c r="S54" s="2">
+        <v>3200000000</v>
+      </c>
+      <c r="T54" s="2">
+        <v>3200000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I55" s="33">
+        <v>2900000000</v>
+      </c>
+      <c r="J55" s="33">
+        <v>2900000000</v>
+      </c>
+      <c r="K55" s="8">
+        <v>3600000000</v>
+      </c>
+      <c r="L55" s="33">
+        <v>2900000000</v>
+      </c>
+      <c r="M55" s="33">
+        <v>2900000000</v>
+      </c>
+      <c r="N55" s="33">
+        <v>2900000000</v>
+      </c>
+      <c r="O55" s="2">
+        <v>3600000000</v>
+      </c>
+      <c r="P55" s="2">
+        <v>2900000000</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>2900000000</v>
+      </c>
+      <c r="R55" s="33">
+        <v>2900000000</v>
+      </c>
+      <c r="S55" s="2">
+        <v>2900000000</v>
+      </c>
+      <c r="T55" s="2">
+        <v>2900000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I56" s="33">
+        <v>300000</v>
+      </c>
+      <c r="J56" s="33">
+        <v>300000</v>
+      </c>
+      <c r="K56" s="8">
+        <v>2100000</v>
+      </c>
+      <c r="L56" s="33">
+        <v>300000</v>
+      </c>
+      <c r="M56" s="33">
+        <v>300000</v>
+      </c>
+      <c r="N56" s="33">
+        <v>300000</v>
+      </c>
+      <c r="O56" s="2">
+        <v>2100000</v>
+      </c>
+      <c r="P56" s="2">
+        <v>300000</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>300000</v>
+      </c>
+      <c r="R56" s="33">
+        <v>300000</v>
+      </c>
+      <c r="S56" s="2">
+        <v>300000</v>
+      </c>
+      <c r="T56" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I57" s="33">
+        <v>1</v>
+      </c>
+      <c r="J57" s="33">
+        <v>1</v>
+      </c>
+      <c r="K57" s="8">
+        <v>2.4994511151960403E-2</v>
+      </c>
+      <c r="L57" s="33">
+        <v>1</v>
+      </c>
+      <c r="M57" s="33">
+        <v>1</v>
+      </c>
+      <c r="N57" s="33">
+        <v>1</v>
+      </c>
+      <c r="O57" s="2">
+        <v>4.8066367599923847</v>
+      </c>
+      <c r="P57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>1</v>
+      </c>
+      <c r="R57" s="33">
+        <v>1</v>
+      </c>
+      <c r="S57" s="2">
+        <v>1</v>
+      </c>
+      <c r="T57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" s="33">
+        <v>1</v>
+      </c>
+      <c r="J58" s="33">
+        <v>1</v>
+      </c>
+      <c r="K58" s="8">
+        <v>2.4994511151960403E-2</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0.12393037193697687</v>
+      </c>
+      <c r="M58" s="34">
+        <v>0.12393037193697687</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0.11329900738000624</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0.11329900738000624</v>
+      </c>
+      <c r="P58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>1</v>
+      </c>
+      <c r="R58" s="33">
+        <v>1</v>
+      </c>
+      <c r="S58" s="2">
+        <v>1</v>
+      </c>
+      <c r="T58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I59" s="33">
+        <v>1</v>
+      </c>
+      <c r="J59" s="33">
+        <v>1</v>
+      </c>
+      <c r="K59" s="8">
+        <v>2.4994511151960403E-2</v>
+      </c>
+      <c r="L59" s="33">
+        <v>1</v>
+      </c>
+      <c r="M59" s="33">
+        <v>1</v>
+      </c>
+      <c r="N59" s="33">
+        <v>1</v>
+      </c>
+      <c r="O59" s="2">
+        <v>4.8066367599923847</v>
+      </c>
+      <c r="P59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>1</v>
+      </c>
+      <c r="R59" s="33">
+        <v>1</v>
+      </c>
+      <c r="S59" s="2">
+        <v>1</v>
+      </c>
+      <c r="T59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="J60" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K60" s="8">
+        <v>3.3929200658769768E-2</v>
+      </c>
+      <c r="L60" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="M60" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="N60" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="O60" s="2">
+        <v>10.178760197630933</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R60" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T60" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" s="33">
         <v>15</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
-      <c r="K54" s="8">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0</v>
-      </c>
-      <c r="N54" s="2">
-        <v>0</v>
-      </c>
-      <c r="O54" s="2">
-        <v>0</v>
-      </c>
-      <c r="P54" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2">
-        <v>0</v>
-      </c>
-      <c r="S54" s="2">
-        <v>0</v>
-      </c>
-      <c r="T54" s="2">
-        <v>0</v>
+      <c r="J61" s="33">
+        <v>15</v>
+      </c>
+      <c r="K61" s="8">
+        <v>3.3929200658769768E-2</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1.858955579054653</v>
+      </c>
+      <c r="M61" s="34">
+        <v>1.858955579054653</v>
+      </c>
+      <c r="N61" s="2">
+        <v>1.6994851107000937</v>
+      </c>
+      <c r="O61" s="2">
+        <v>1.6994851107000937</v>
+      </c>
+      <c r="P61" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>15</v>
+      </c>
+      <c r="R61" s="33">
+        <v>15</v>
+      </c>
+      <c r="S61" s="2">
+        <v>15</v>
+      </c>
+      <c r="T61" s="2">
+        <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2">
-        <v>0</v>
-      </c>
-      <c r="K55" s="8">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2">
-        <v>0</v>
-      </c>
-      <c r="M55" s="2">
-        <v>0</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0</v>
-      </c>
-      <c r="O55" s="2">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2">
-        <v>0</v>
-      </c>
-      <c r="S55" s="2">
-        <v>0</v>
-      </c>
-      <c r="T55" s="2">
-        <v>0</v>
+    <row r="62" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62" s="33">
+        <v>5</v>
+      </c>
+      <c r="J62" s="33">
+        <v>5</v>
+      </c>
+      <c r="K62" s="8">
+        <v>3.3929200658769768E-2</v>
+      </c>
+      <c r="L62" s="33">
+        <v>5</v>
+      </c>
+      <c r="M62" s="33">
+        <v>5</v>
+      </c>
+      <c r="N62" s="33">
+        <v>5</v>
+      </c>
+      <c r="O62" s="2">
+        <v>10.178760197630933</v>
+      </c>
+      <c r="P62" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>5</v>
+      </c>
+      <c r="R62" s="33">
+        <v>5</v>
+      </c>
+      <c r="S62" s="2">
+        <v>5</v>
+      </c>
+      <c r="T62" s="2">
+        <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2">
-        <v>0</v>
-      </c>
-      <c r="K56" s="8">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2">
-        <v>0</v>
-      </c>
-      <c r="M56" s="2">
-        <v>0</v>
-      </c>
-      <c r="N56" s="2">
-        <v>0</v>
-      </c>
-      <c r="O56" s="2">
-        <v>0</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>0</v>
-      </c>
-      <c r="R56" s="2">
-        <v>0</v>
-      </c>
-      <c r="S56" s="2">
-        <v>0</v>
-      </c>
-      <c r="T56" s="2">
-        <v>0</v>
+    <row r="63" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I63" s="2">
+        <v>100</v>
+      </c>
+      <c r="J63" s="2">
+        <v>100</v>
+      </c>
+      <c r="K63" s="8">
+        <v>100</v>
+      </c>
+      <c r="L63" s="2">
+        <v>100</v>
+      </c>
+      <c r="M63" s="2">
+        <v>100</v>
+      </c>
+      <c r="N63" s="2">
+        <v>100</v>
+      </c>
+      <c r="O63" s="2">
+        <v>100</v>
+      </c>
+      <c r="P63" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>100</v>
+      </c>
+      <c r="R63" s="2">
+        <v>100</v>
+      </c>
+      <c r="S63" s="2">
+        <v>100</v>
+      </c>
+      <c r="T63" s="2">
+        <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="G57" s="3"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
+    <row r="64" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2">
-        <v>0</v>
-      </c>
-      <c r="K58" s="8">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2">
-        <v>0</v>
-      </c>
-      <c r="N58" s="2">
-        <v>0</v>
-      </c>
-      <c r="O58" s="2">
-        <v>0</v>
-      </c>
-      <c r="P58" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>0</v>
-      </c>
-      <c r="R58" s="2">
-        <v>0</v>
-      </c>
-      <c r="S58" s="2">
-        <v>0</v>
-      </c>
-      <c r="T58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2">
-        <v>0</v>
-      </c>
-      <c r="K59" s="8">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2">
-        <v>0</v>
-      </c>
-      <c r="O59" s="2">
-        <v>0</v>
-      </c>
-      <c r="P59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2">
-        <v>0</v>
-      </c>
-      <c r="S59" s="2">
-        <v>0</v>
-      </c>
-      <c r="T59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2">
-        <v>0</v>
-      </c>
-      <c r="K60" s="8">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2">
-        <v>0</v>
-      </c>
-      <c r="M60" s="2">
-        <v>0</v>
-      </c>
-      <c r="N60" s="2">
-        <v>0</v>
-      </c>
-      <c r="O60" s="2">
-        <v>0</v>
-      </c>
-      <c r="P60" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>0</v>
-      </c>
-      <c r="R60" s="2">
-        <v>0</v>
-      </c>
-      <c r="S60" s="2">
-        <v>0</v>
-      </c>
-      <c r="T60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I62" s="5">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2">
-        <v>0</v>
-      </c>
-      <c r="K62" s="8">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2">
-        <v>0</v>
-      </c>
-      <c r="M62" s="2">
-        <v>0</v>
-      </c>
-      <c r="N62" s="2">
-        <v>0</v>
-      </c>
-      <c r="O62" s="2">
-        <v>0</v>
-      </c>
-      <c r="P62" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>0</v>
-      </c>
-      <c r="R62" s="2">
-        <v>0</v>
-      </c>
-      <c r="S62" s="2">
-        <v>0</v>
-      </c>
-      <c r="T62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2">
-        <v>0</v>
-      </c>
-      <c r="K63" s="8">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2">
-        <v>0</v>
-      </c>
-      <c r="M63" s="2">
-        <v>0</v>
-      </c>
-      <c r="N63" s="2">
-        <v>0</v>
-      </c>
-      <c r="O63" s="2">
-        <v>0</v>
-      </c>
-      <c r="P63" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>0</v>
-      </c>
-      <c r="R63" s="2">
-        <v>0</v>
-      </c>
-      <c r="S63" s="2">
-        <v>0</v>
-      </c>
-      <c r="T63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2">
-        <v>0</v>
-      </c>
-      <c r="K64" s="8">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2">
-        <v>0</v>
-      </c>
-      <c r="M64" s="2">
-        <v>0</v>
-      </c>
-      <c r="N64" s="2">
-        <v>0</v>
-      </c>
-      <c r="O64" s="2">
-        <v>0</v>
-      </c>
-      <c r="P64" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>0</v>
-      </c>
-      <c r="R64" s="2">
-        <v>0</v>
-      </c>
-      <c r="S64" s="2">
-        <v>0</v>
-      </c>
-      <c r="T64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+    <row r="65" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="L65" s="2"/>
@@ -29125,676 +28641,769 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
+    <row r="66" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I66" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="J66" s="2">
+        <v>3520000</v>
+      </c>
+      <c r="K66" s="8">
+        <v>3714410</v>
+      </c>
+      <c r="L66" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="M66" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="N66" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="O66" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="P66" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="R66" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="S66" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="T66" s="2">
+        <v>3714410</v>
+      </c>
     </row>
     <row r="67" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
+      <c r="A67" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I67" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="J67" s="2">
+        <v>3520200</v>
+      </c>
+      <c r="K67" s="8">
+        <v>3714410</v>
+      </c>
+      <c r="L67" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="M67" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="N67" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="O67" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="P67" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="R67" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="S67" s="2">
+        <v>3714410</v>
+      </c>
+      <c r="T67" s="2">
+        <v>3714410</v>
+      </c>
     </row>
     <row r="68" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
+      <c r="A68" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="G68" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="H68" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="I68" s="8">
+        <v>3714410</v>
+      </c>
+      <c r="J68" s="8">
+        <v>3520000</v>
+      </c>
+      <c r="K68" s="8">
+        <v>3714410</v>
+      </c>
+      <c r="L68" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="M68" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="N68" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="O68" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="P68" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="Q68" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="R68" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="S68" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="T68" s="33">
+        <v>3714410</v>
+      </c>
     </row>
     <row r="69" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H69" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I69" s="2">
-        <v>228570</v>
-      </c>
-      <c r="J69" s="2">
-        <v>40000</v>
+      <c r="A69" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="G69" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="I69" s="8">
+        <v>3714410</v>
+      </c>
+      <c r="J69" s="8">
+        <v>3520200</v>
       </c>
       <c r="K69" s="8">
-        <v>228570</v>
-      </c>
-      <c r="L69" s="2">
-        <v>15875</v>
-      </c>
-      <c r="M69" s="35">
-        <v>15875</v>
-      </c>
-      <c r="N69" s="2">
-        <v>15875</v>
-      </c>
-      <c r="O69" s="2">
-        <v>15875</v>
-      </c>
-      <c r="P69" s="2">
-        <v>228570</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>228570</v>
-      </c>
-      <c r="R69" s="34">
-        <v>228570</v>
-      </c>
-      <c r="S69" s="2">
-        <v>228570</v>
-      </c>
-      <c r="T69" s="2">
-        <v>228570</v>
+        <v>3714410</v>
+      </c>
+      <c r="L69" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="M69" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="N69" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="O69" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="P69" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="Q69" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="R69" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="S69" s="33">
+        <v>3714410</v>
+      </c>
+      <c r="T69" s="33">
+        <v>3714410</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H70" s="33" t="s">
-        <v>82</v>
+        <v>115</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="I70" s="2">
-        <v>1000</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="J70" s="2">
-        <v>400</v>
+        <v>1E-10</v>
       </c>
       <c r="K70" s="8">
-        <v>1000</v>
-      </c>
-      <c r="L70" s="8">
-        <v>1000</v>
-      </c>
-      <c r="M70" s="2">
-        <v>0</v>
-      </c>
-      <c r="N70" s="34">
-        <v>1000</v>
-      </c>
-      <c r="O70" s="34">
-        <v>1000</v>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L70" s="33">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M70" s="33">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="N70" s="33">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O70" s="33">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="P70" s="2">
-        <v>1000</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q70" s="2">
-        <v>1000</v>
-      </c>
-      <c r="R70" s="34">
-        <v>1000</v>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="R70" s="33">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="S70" s="2">
-        <v>1000</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="T70" s="2">
-        <v>1000</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I71" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>2.75E-2</v>
       </c>
       <c r="J71" s="2">
-        <v>1E-10</v>
+        <v>0.03</v>
       </c>
       <c r="K71" s="8">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="L71" s="2">
-        <v>9.9999999999999995E-21</v>
-      </c>
-      <c r="M71" s="35">
-        <v>9.9999999999999995E-21</v>
-      </c>
-      <c r="N71" s="2">
-        <v>9.9999999999999995E-21</v>
-      </c>
-      <c r="O71" s="2">
-        <v>9.9999999999999995E-21</v>
+        <v>2.75E-2</v>
+      </c>
+      <c r="L71" s="33">
+        <v>2.75E-2</v>
+      </c>
+      <c r="M71" s="33">
+        <v>2.75E-2</v>
+      </c>
+      <c r="N71" s="33">
+        <v>2.75E-2</v>
+      </c>
+      <c r="O71" s="33">
+        <v>2.75E-2</v>
       </c>
       <c r="P71" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>2.75E-2</v>
       </c>
       <c r="Q71" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="R71" s="34">
-        <v>2.5000000000000001E-3</v>
+        <v>2.75E-2</v>
+      </c>
+      <c r="R71" s="33">
+        <v>2.75E-2</v>
       </c>
       <c r="S71" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>2.75E-2</v>
       </c>
       <c r="T71" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>2.75E-2</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I72" s="2">
-        <v>2.75E-2</v>
+        <v>0.27</v>
       </c>
       <c r="J72" s="2">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="K72" s="8">
-        <v>2.75E-2</v>
-      </c>
-      <c r="L72" s="2">
-        <v>2.5595388012618299E-4</v>
-      </c>
-      <c r="M72" s="35">
-        <v>2.5595388012618299E-4</v>
-      </c>
-      <c r="N72" s="2">
-        <v>1.0116278692474385E-4</v>
-      </c>
-      <c r="O72" s="2">
-        <v>1.0116278692474385E-4</v>
+        <v>0.27</v>
+      </c>
+      <c r="L72" s="33">
+        <v>0.27</v>
+      </c>
+      <c r="M72" s="33">
+        <v>0.27</v>
+      </c>
+      <c r="N72" s="33">
+        <v>0.27</v>
+      </c>
+      <c r="O72" s="33">
+        <v>0.27</v>
       </c>
       <c r="P72" s="2">
-        <v>2.75E-2</v>
+        <v>0.27</v>
       </c>
       <c r="Q72" s="2">
-        <v>2.75E-2</v>
-      </c>
-      <c r="R72" s="34">
-        <v>2.75E-2</v>
+        <v>0.27</v>
+      </c>
+      <c r="R72" s="33">
+        <v>0.27</v>
       </c>
       <c r="S72" s="2">
-        <v>2.75E-2</v>
+        <v>0.27</v>
       </c>
       <c r="T72" s="2">
-        <v>2.75E-2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I73" s="2">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
       <c r="J73" s="2">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
       <c r="K73" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="L73" s="2">
-        <v>0.13396571095647686</v>
-      </c>
-      <c r="M73" s="35">
-        <v>0.13396571095647686</v>
-      </c>
-      <c r="N73" s="2">
-        <v>0.13396571095647686</v>
-      </c>
-      <c r="O73" s="2">
-        <v>0.13396571095647686</v>
+        <v>0.6</v>
+      </c>
+      <c r="L73" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="M73" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="N73" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="O73" s="33">
+        <v>0.6</v>
       </c>
       <c r="P73" s="2">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
       <c r="Q73" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="R73" s="34">
-        <v>0.27</v>
+        <v>0.6</v>
+      </c>
+      <c r="R73" s="33">
+        <v>0.6</v>
       </c>
       <c r="S73" s="2">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
       <c r="T73" s="2">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I74" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="J74" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="K74" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="L74" s="2">
-        <v>0.62583981387130228</v>
-      </c>
-      <c r="M74" s="35">
-        <v>0.62583981387130228</v>
-      </c>
-      <c r="N74" s="2">
-        <v>0.62583981387130228</v>
-      </c>
-      <c r="O74" s="2">
-        <v>0.62583981387130228</v>
+        <v>0.1</v>
+      </c>
+      <c r="L74" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="M74" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="N74" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="O74" s="33">
+        <v>0.1</v>
       </c>
       <c r="P74" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="Q74" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="R74" s="34">
-        <v>0.6</v>
+        <v>0.1</v>
+      </c>
+      <c r="R74" s="33">
+        <v>0.1</v>
       </c>
       <c r="S74" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="T74" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="I75" s="2">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="J75" s="2">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="K75" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="L75" s="2">
-        <v>0.2399385867877197</v>
-      </c>
-      <c r="M75" s="35">
-        <v>0.2399385867877197</v>
-      </c>
-      <c r="N75" s="2">
-        <v>0.2399385867877197</v>
-      </c>
-      <c r="O75" s="2">
-        <v>0.2399385867877197</v>
+        <v>12</v>
+      </c>
+      <c r="L75" s="33">
+        <v>12</v>
+      </c>
+      <c r="M75" s="33">
+        <v>12</v>
+      </c>
+      <c r="N75" s="33">
+        <v>12</v>
+      </c>
+      <c r="O75" s="33">
+        <v>12</v>
       </c>
       <c r="P75" s="2">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="Q75" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R75" s="34">
-        <v>0.1</v>
+        <v>12</v>
+      </c>
+      <c r="R75" s="33">
+        <v>12</v>
       </c>
       <c r="S75" s="2">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="T75" s="2">
-        <v>0.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="I76" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J76" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K76" s="8">
-        <v>12</v>
-      </c>
-      <c r="L76" s="2">
-        <v>10</v>
-      </c>
-      <c r="M76" s="35">
-        <v>10</v>
-      </c>
-      <c r="N76" s="2">
-        <v>10</v>
-      </c>
-      <c r="O76" s="2">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="L76" s="33">
+        <v>3</v>
+      </c>
+      <c r="M76" s="33">
+        <v>3</v>
+      </c>
+      <c r="N76" s="33">
+        <v>3</v>
+      </c>
+      <c r="O76" s="33">
+        <v>3</v>
       </c>
       <c r="P76" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q76" s="2">
-        <v>12</v>
-      </c>
-      <c r="R76" s="34">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="R76" s="33">
+        <v>3</v>
       </c>
       <c r="S76" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T76" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="I77" s="2">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="J77" s="2">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="K77" s="8">
-        <v>3</v>
-      </c>
-      <c r="L77" s="2">
-        <v>4.63580226898193</v>
-      </c>
-      <c r="M77" s="35">
-        <v>4.63580226898193</v>
-      </c>
-      <c r="N77" s="2">
-        <v>4.63580226898193</v>
-      </c>
-      <c r="O77" s="2">
-        <v>4.63580226898193</v>
+        <v>700</v>
+      </c>
+      <c r="L77" s="33">
+        <v>700</v>
+      </c>
+      <c r="M77" s="33">
+        <v>700</v>
+      </c>
+      <c r="N77" s="33">
+        <v>700</v>
+      </c>
+      <c r="O77" s="33">
+        <v>700</v>
       </c>
       <c r="P77" s="2">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="Q77" s="2">
-        <v>3</v>
-      </c>
-      <c r="R77" s="34">
-        <v>3</v>
+        <v>700</v>
+      </c>
+      <c r="R77" s="33">
+        <v>700</v>
       </c>
       <c r="S77" s="2">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="T77" s="2">
-        <v>3</v>
+        <v>700</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="I78" s="2">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="J78" s="2">
-        <v>700</v>
+        <v>1E-10</v>
       </c>
       <c r="K78" s="8">
-        <v>700</v>
-      </c>
-      <c r="L78" s="2">
-        <v>930.21250226047403</v>
-      </c>
-      <c r="M78" s="35">
-        <v>930.21250226047403</v>
-      </c>
-      <c r="N78" s="2">
-        <v>632.85703291353502</v>
-      </c>
-      <c r="O78" s="2">
-        <v>632.85703291353502</v>
+        <v>100</v>
+      </c>
+      <c r="L78" s="33">
+        <v>100</v>
+      </c>
+      <c r="M78" s="33">
+        <v>100</v>
+      </c>
+      <c r="N78" s="33">
+        <v>100</v>
+      </c>
+      <c r="O78" s="33">
+        <v>100</v>
       </c>
       <c r="P78" s="2">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="Q78" s="2">
-        <v>700</v>
-      </c>
-      <c r="R78" s="34">
-        <v>700</v>
+        <v>100</v>
+      </c>
+      <c r="R78" s="33">
+        <v>100</v>
       </c>
       <c r="S78" s="2">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="T78" s="2">
-        <v>700</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="I79" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="J79" s="2">
-        <v>1E-10</v>
+        <v>3</v>
       </c>
       <c r="K79" s="8">
-        <v>100</v>
-      </c>
-      <c r="L79" s="34">
-        <v>100</v>
-      </c>
-      <c r="M79" s="34">
-        <v>100</v>
-      </c>
-      <c r="N79" s="34">
-        <v>100</v>
-      </c>
-      <c r="O79" s="34">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="L79" s="33">
+        <v>3</v>
+      </c>
+      <c r="M79" s="33">
+        <v>3</v>
+      </c>
+      <c r="N79" s="33">
+        <v>3</v>
+      </c>
+      <c r="O79" s="33">
+        <v>3</v>
       </c>
       <c r="P79" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="Q79" s="2">
-        <v>100</v>
-      </c>
-      <c r="R79" s="34">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="R79" s="33">
+        <v>3</v>
       </c>
       <c r="S79" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="T79" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="I80" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J80" s="2">
-        <v>3</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="K80" s="8">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2">
-        <v>1.87</v>
-      </c>
-      <c r="M80" s="35">
-        <v>1.87</v>
-      </c>
-      <c r="N80" s="2">
-        <v>1.62</v>
-      </c>
-      <c r="O80" s="2">
-        <v>1.62</v>
+        <v>0</v>
+      </c>
+      <c r="L80" s="33">
+        <v>0</v>
+      </c>
+      <c r="M80" s="33">
+        <v>0</v>
+      </c>
+      <c r="N80" s="33">
+        <v>0</v>
+      </c>
+      <c r="O80" s="33">
+        <v>0</v>
       </c>
       <c r="P80" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q80" s="2">
-        <v>3</v>
-      </c>
-      <c r="R80" s="34">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="R80" s="33">
+        <v>0</v>
       </c>
       <c r="S80" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T80" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I81" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J81" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K81" s="8">
-        <v>0</v>
-      </c>
-      <c r="L81" s="34">
-        <v>0</v>
-      </c>
-      <c r="M81" s="34">
-        <v>0</v>
-      </c>
-      <c r="N81" s="34">
-        <v>0</v>
-      </c>
-      <c r="O81" s="34">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="L81" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="M81" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="N81" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="O81" s="33">
+        <v>0.25</v>
       </c>
       <c r="P81" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q81" s="2">
-        <v>0</v>
-      </c>
-      <c r="R81" s="34">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="R81" s="33">
+        <v>0.25</v>
       </c>
       <c r="S81" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T81" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I82" s="2">
         <v>0.25</v>
@@ -29805,16 +29414,16 @@
       <c r="K82" s="8">
         <v>0.25</v>
       </c>
-      <c r="L82" s="34">
+      <c r="L82" s="33">
         <v>0.25</v>
       </c>
-      <c r="M82" s="34">
+      <c r="M82" s="33">
         <v>0.25</v>
       </c>
-      <c r="N82" s="34">
+      <c r="N82" s="33">
         <v>0.25</v>
       </c>
-      <c r="O82" s="34">
+      <c r="O82" s="33">
         <v>0.25</v>
       </c>
       <c r="P82" s="2">
@@ -29823,7 +29432,7 @@
       <c r="Q82" s="2">
         <v>0.25</v>
       </c>
-      <c r="R82" s="34">
+      <c r="R82" s="33">
         <v>0.25</v>
       </c>
       <c r="S82" s="2">
@@ -29835,269 +29444,269 @@
     </row>
     <row r="83" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I83" s="2">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="J83" s="2">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="K83" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="L83" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="M83" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="N83" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="O83" s="34">
-        <v>0.25</v>
+        <v>0.03</v>
+      </c>
+      <c r="L83" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="M83" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="N83" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="O83" s="33">
+        <v>0.03</v>
       </c>
       <c r="P83" s="2">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="Q83" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R83" s="34">
-        <v>0.25</v>
+        <v>0.03</v>
+      </c>
+      <c r="R83" s="33">
+        <v>0.03</v>
       </c>
       <c r="S83" s="2">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="T83" s="2">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I84" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="J84" s="2">
-        <v>0.03</v>
+        <v>93</v>
+      </c>
+      <c r="I84" s="33">
+        <v>3200000000</v>
+      </c>
+      <c r="J84" s="33">
+        <v>3200000000</v>
       </c>
       <c r="K84" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="L84" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="M84" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="N84" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="O84" s="34">
-        <v>0.03</v>
+        <v>3200000000</v>
+      </c>
+      <c r="L84" s="33">
+        <v>3200000000</v>
+      </c>
+      <c r="M84" s="33">
+        <v>3200000000</v>
+      </c>
+      <c r="N84" s="33">
+        <v>3200000000</v>
+      </c>
+      <c r="O84" s="33">
+        <v>3200000000</v>
       </c>
       <c r="P84" s="2">
-        <v>0.03</v>
+        <v>3200000000</v>
       </c>
       <c r="Q84" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="R84" s="34">
-        <v>0.03</v>
+        <v>3200000000</v>
+      </c>
+      <c r="R84" s="33">
+        <v>3200000000</v>
       </c>
       <c r="S84" s="2">
-        <v>0.03</v>
+        <v>3200000000</v>
       </c>
       <c r="T84" s="2">
-        <v>0.03</v>
+        <v>3200000000</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I85" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="J85" s="34">
-        <v>3200000000</v>
+        <v>131</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I85" s="33">
+        <v>2900000000</v>
+      </c>
+      <c r="J85" s="33">
+        <v>2900000000</v>
       </c>
       <c r="K85" s="8">
-        <v>1400000000</v>
-      </c>
-      <c r="L85" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="M85" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="N85" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="O85" s="2">
-        <v>1400000000</v>
+        <v>2900000000</v>
+      </c>
+      <c r="L85" s="33">
+        <v>2900000000</v>
+      </c>
+      <c r="M85" s="33">
+        <v>2900000000</v>
+      </c>
+      <c r="N85" s="33">
+        <v>2900000000</v>
+      </c>
+      <c r="O85" s="33">
+        <v>2900000000</v>
       </c>
       <c r="P85" s="2">
-        <v>3200000000</v>
+        <v>2900000000</v>
       </c>
       <c r="Q85" s="2">
-        <v>3200000000</v>
-      </c>
-      <c r="R85" s="34">
-        <v>3200000000</v>
+        <v>2900000000</v>
+      </c>
+      <c r="R85" s="33">
+        <v>2900000000</v>
       </c>
       <c r="S85" s="2">
-        <v>3200000000</v>
+        <v>2900000000</v>
       </c>
       <c r="T85" s="2">
-        <v>3200000000</v>
+        <v>2900000000</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I86" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="J86" s="34">
-        <v>2900000000</v>
+        <v>132</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I86" s="33">
+        <v>300000</v>
+      </c>
+      <c r="J86" s="33">
+        <v>300000</v>
       </c>
       <c r="K86" s="8">
-        <v>3600000000</v>
-      </c>
-      <c r="L86" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="M86" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="N86" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="O86" s="2">
-        <v>3600000000</v>
+        <v>300000</v>
+      </c>
+      <c r="L86" s="33">
+        <v>300000</v>
+      </c>
+      <c r="M86" s="33">
+        <v>300000</v>
+      </c>
+      <c r="N86" s="33">
+        <v>300000</v>
+      </c>
+      <c r="O86" s="33">
+        <v>300000</v>
       </c>
       <c r="P86" s="2">
-        <v>2900000000</v>
+        <v>300000</v>
       </c>
       <c r="Q86" s="2">
-        <v>2900000000</v>
-      </c>
-      <c r="R86" s="34">
-        <v>2900000000</v>
+        <v>300000</v>
+      </c>
+      <c r="R86" s="33">
+        <v>300000</v>
       </c>
       <c r="S86" s="2">
-        <v>2900000000</v>
+        <v>300000</v>
       </c>
       <c r="T86" s="2">
-        <v>2900000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I87" s="34">
-        <v>300000</v>
-      </c>
-      <c r="J87" s="34">
-        <v>300000</v>
+      <c r="A87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G87" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I87" s="33">
+        <v>1</v>
+      </c>
+      <c r="J87" s="33">
+        <v>1</v>
       </c>
       <c r="K87" s="8">
-        <v>2100000</v>
-      </c>
-      <c r="L87" s="34">
-        <v>300000</v>
-      </c>
-      <c r="M87" s="34">
-        <v>300000</v>
-      </c>
-      <c r="N87" s="34">
-        <v>300000</v>
-      </c>
-      <c r="O87" s="2">
-        <v>2100000</v>
+        <v>1</v>
+      </c>
+      <c r="L87" s="33">
+        <v>1</v>
+      </c>
+      <c r="M87" s="33">
+        <v>1</v>
+      </c>
+      <c r="N87" s="33">
+        <v>1</v>
+      </c>
+      <c r="O87" s="33">
+        <v>1</v>
       </c>
       <c r="P87" s="2">
-        <v>300000</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="2">
-        <v>300000</v>
-      </c>
-      <c r="R87" s="34">
-        <v>300000</v>
+        <v>1</v>
+      </c>
+      <c r="R87" s="33">
+        <v>1</v>
       </c>
       <c r="S87" s="2">
-        <v>300000</v>
+        <v>1</v>
       </c>
       <c r="T87" s="2">
-        <v>300000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G88" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I88" s="34">
+        <v>98</v>
+      </c>
+      <c r="G88" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I88" s="33">
         <v>1</v>
       </c>
-      <c r="J88" s="34">
+      <c r="J88" s="33">
         <v>1</v>
       </c>
       <c r="K88" s="8">
-        <v>2.4994511151960403E-2</v>
-      </c>
-      <c r="L88" s="34">
         <v>1</v>
       </c>
-      <c r="M88" s="34">
+      <c r="L88" s="33">
         <v>1</v>
       </c>
-      <c r="N88" s="34">
+      <c r="M88" s="33">
         <v>1</v>
       </c>
-      <c r="O88" s="2">
-        <v>4.8066367599923847</v>
+      <c r="N88" s="33">
+        <v>1</v>
+      </c>
+      <c r="O88" s="33">
+        <v>1</v>
       </c>
       <c r="P88" s="2">
         <v>1</v>
@@ -30105,7 +29714,7 @@
       <c r="Q88" s="2">
         <v>1</v>
       </c>
-      <c r="R88" s="34">
+      <c r="R88" s="33">
         <v>1</v>
       </c>
       <c r="S88" s="2">
@@ -30117,34 +29726,34 @@
     </row>
     <row r="89" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G89" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I89" s="34">
+        <v>98</v>
+      </c>
+      <c r="G89" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I89" s="33">
         <v>1</v>
       </c>
-      <c r="J89" s="34">
+      <c r="J89" s="33">
         <v>1</v>
       </c>
       <c r="K89" s="8">
-        <v>2.4994511151960403E-2</v>
-      </c>
-      <c r="L89" s="2">
-        <v>0.12393037193697687</v>
-      </c>
-      <c r="M89" s="35">
-        <v>0.12393037193697687</v>
-      </c>
-      <c r="N89" s="2">
-        <v>0.11329900738000624</v>
-      </c>
-      <c r="O89" s="2">
-        <v>0.11329900738000624</v>
+        <v>1</v>
+      </c>
+      <c r="L89" s="33">
+        <v>1</v>
+      </c>
+      <c r="M89" s="33">
+        <v>1</v>
+      </c>
+      <c r="N89" s="33">
+        <v>1</v>
+      </c>
+      <c r="O89" s="33">
+        <v>1</v>
       </c>
       <c r="P89" s="2">
         <v>1</v>
@@ -30152,7 +29761,7 @@
       <c r="Q89" s="2">
         <v>1</v>
       </c>
-      <c r="R89" s="34">
+      <c r="R89" s="33">
         <v>1</v>
       </c>
       <c r="S89" s="2">
@@ -30164,2562 +29773,284 @@
     </row>
     <row r="90" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G90" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I90" s="34">
-        <v>1</v>
-      </c>
-      <c r="J90" s="34">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="G90" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I90" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="J90" s="33">
+        <v>0.5</v>
       </c>
       <c r="K90" s="8">
-        <v>2.4994511151960403E-2</v>
-      </c>
-      <c r="L90" s="34">
-        <v>1</v>
-      </c>
-      <c r="M90" s="34">
-        <v>1</v>
-      </c>
-      <c r="N90" s="34">
-        <v>1</v>
-      </c>
-      <c r="O90" s="2">
-        <v>4.8066367599923847</v>
+        <v>0.5</v>
+      </c>
+      <c r="L90" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="M90" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="N90" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="O90" s="33">
+        <v>0.5</v>
       </c>
       <c r="P90" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q90" s="2">
-        <v>1</v>
-      </c>
-      <c r="R90" s="34">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="R90" s="33">
+        <v>0.5</v>
       </c>
       <c r="S90" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T90" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G91" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I91" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="J91" s="34">
-        <v>0.5</v>
+        <v>106</v>
+      </c>
+      <c r="G91" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I91" s="33">
+        <v>15</v>
+      </c>
+      <c r="J91" s="33">
+        <v>15</v>
       </c>
       <c r="K91" s="8">
-        <v>3.3929200658769768E-2</v>
-      </c>
-      <c r="L91" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="M91" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="N91" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="O91" s="2">
-        <v>10.178760197630933</v>
+        <v>15</v>
+      </c>
+      <c r="L91" s="33">
+        <v>15</v>
+      </c>
+      <c r="M91" s="33">
+        <v>15</v>
+      </c>
+      <c r="N91" s="33">
+        <v>15</v>
+      </c>
+      <c r="O91" s="33">
+        <v>15</v>
       </c>
       <c r="P91" s="2">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="Q91" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R91" s="34">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="R91" s="33">
+        <v>15</v>
       </c>
       <c r="S91" s="2">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="T91" s="2">
-        <v>0.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G92" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I92" s="34">
-        <v>15</v>
-      </c>
-      <c r="J92" s="34">
-        <v>15</v>
+        <v>108</v>
+      </c>
+      <c r="G92" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I92" s="33">
+        <v>5</v>
+      </c>
+      <c r="J92" s="33">
+        <v>5</v>
       </c>
       <c r="K92" s="8">
-        <v>3.3929200658769768E-2</v>
-      </c>
-      <c r="L92" s="2">
-        <v>1.858955579054653</v>
-      </c>
-      <c r="M92" s="35">
-        <v>1.858955579054653</v>
-      </c>
-      <c r="N92" s="2">
-        <v>1.6994851107000937</v>
-      </c>
-      <c r="O92" s="2">
-        <v>1.6994851107000937</v>
+        <v>5</v>
+      </c>
+      <c r="L92" s="33">
+        <v>5</v>
+      </c>
+      <c r="M92" s="33">
+        <v>5</v>
+      </c>
+      <c r="N92" s="33">
+        <v>5</v>
+      </c>
+      <c r="O92" s="33">
+        <v>5</v>
       </c>
       <c r="P92" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q92" s="2">
-        <v>15</v>
-      </c>
-      <c r="R92" s="34">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="R92" s="33">
+        <v>5</v>
       </c>
       <c r="S92" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T92" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G93" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I93" s="34">
-        <v>5</v>
-      </c>
-      <c r="J93" s="34">
-        <v>5</v>
+      <c r="A93" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I93" s="33">
+        <v>100</v>
+      </c>
+      <c r="J93" s="33">
+        <v>100</v>
       </c>
       <c r="K93" s="8">
-        <v>3.3929200658769768E-2</v>
-      </c>
-      <c r="L93" s="34">
-        <v>5</v>
-      </c>
-      <c r="M93" s="34">
-        <v>5</v>
-      </c>
-      <c r="N93" s="34">
-        <v>5</v>
-      </c>
-      <c r="O93" s="2">
-        <v>10.178760197630933</v>
+        <v>100</v>
+      </c>
+      <c r="L93" s="33">
+        <v>100</v>
+      </c>
+      <c r="M93" s="33">
+        <v>100</v>
+      </c>
+      <c r="N93" s="33">
+        <v>100</v>
+      </c>
+      <c r="O93" s="33">
+        <v>100</v>
       </c>
       <c r="P93" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="Q93" s="2">
-        <v>5</v>
-      </c>
-      <c r="R93" s="34">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="R93" s="33">
+        <v>100</v>
       </c>
       <c r="S93" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T93" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I94" s="2">
-        <v>100</v>
-      </c>
-      <c r="J94" s="2">
-        <v>100</v>
-      </c>
-      <c r="K94" s="8">
-        <v>100</v>
-      </c>
-      <c r="L94" s="2">
-        <v>100</v>
-      </c>
-      <c r="M94" s="2">
-        <v>100</v>
-      </c>
-      <c r="N94" s="2">
-        <v>100</v>
-      </c>
-      <c r="O94" s="2">
-        <v>100</v>
-      </c>
-      <c r="P94" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q94" s="2">
-        <v>100</v>
-      </c>
-      <c r="R94" s="2">
-        <v>100</v>
-      </c>
-      <c r="S94" s="2">
-        <v>100</v>
-      </c>
-      <c r="T94" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-    </row>
-    <row r="96" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-    </row>
-    <row r="97" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H97" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="I97" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="J97" s="2">
-        <v>3520000</v>
-      </c>
-      <c r="K97" s="8">
-        <v>3714410</v>
-      </c>
-      <c r="L97" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="M97" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="N97" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="O97" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="P97" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="Q97" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="R97" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="S97" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="T97" s="2">
-        <v>3714410</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H98" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="I98" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="J98" s="2">
-        <v>3520200</v>
-      </c>
-      <c r="K98" s="8">
-        <v>3714410</v>
-      </c>
-      <c r="L98" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="M98" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="N98" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="O98" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="P98" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="Q98" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="R98" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="S98" s="2">
-        <v>3714410</v>
-      </c>
-      <c r="T98" s="2">
-        <v>3714410</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="B99" s="9"/>
-      <c r="G99" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="H99" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="I99" s="8">
-        <v>3714410</v>
-      </c>
-      <c r="J99" s="8">
-        <v>3520000</v>
-      </c>
-      <c r="K99" s="8">
-        <v>3714410</v>
-      </c>
-      <c r="L99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="M99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="N99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="O99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="P99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="Q99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="R99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="S99" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="T99" s="34">
-        <v>3714410</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="B100" s="9"/>
-      <c r="G100" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H100" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="I100" s="8">
-        <v>3714410</v>
-      </c>
-      <c r="J100" s="8">
-        <v>3520200</v>
-      </c>
-      <c r="K100" s="8">
-        <v>3714410</v>
-      </c>
-      <c r="L100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="M100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="N100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="O100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="P100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="Q100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="R100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="S100" s="34">
-        <v>3714410</v>
-      </c>
-      <c r="T100" s="34">
-        <v>3714410</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I101" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="J101" s="2">
-        <v>1E-10</v>
-      </c>
-      <c r="K101" s="8">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="L101" s="34">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="M101" s="34">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="N101" s="34">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="O101" s="34">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="P101" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="Q101" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="R101" s="34">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="S101" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="T101" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I102" s="2">
-        <v>2.75E-2</v>
-      </c>
-      <c r="J102" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="K102" s="8">
-        <v>2.75E-2</v>
-      </c>
-      <c r="L102" s="34">
-        <v>2.75E-2</v>
-      </c>
-      <c r="M102" s="34">
-        <v>2.75E-2</v>
-      </c>
-      <c r="N102" s="34">
-        <v>2.75E-2</v>
-      </c>
-      <c r="O102" s="34">
-        <v>2.75E-2</v>
-      </c>
-      <c r="P102" s="2">
-        <v>2.75E-2</v>
-      </c>
-      <c r="Q102" s="2">
-        <v>2.75E-2</v>
-      </c>
-      <c r="R102" s="34">
-        <v>2.75E-2</v>
-      </c>
-      <c r="S102" s="2">
-        <v>2.75E-2</v>
-      </c>
-      <c r="T102" s="2">
-        <v>2.75E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I103" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="J103" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="K103" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="L103" s="34">
-        <v>0.27</v>
-      </c>
-      <c r="M103" s="34">
-        <v>0.27</v>
-      </c>
-      <c r="N103" s="34">
-        <v>0.27</v>
-      </c>
-      <c r="O103" s="34">
-        <v>0.27</v>
-      </c>
-      <c r="P103" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="Q103" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="R103" s="34">
-        <v>0.27</v>
-      </c>
-      <c r="S103" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="T103" s="2">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I104" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J104" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="K104" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="L104" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="M104" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="N104" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="O104" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="P104" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="Q104" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="R104" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="S104" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="T104" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I105" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J105" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K105" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="L105" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="M105" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="N105" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="O105" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="P105" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q105" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R105" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="S105" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="T105" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I106" s="2">
-        <v>12</v>
-      </c>
-      <c r="J106" s="2">
-        <v>12</v>
-      </c>
-      <c r="K106" s="8">
-        <v>12</v>
-      </c>
-      <c r="L106" s="34">
-        <v>12</v>
-      </c>
-      <c r="M106" s="34">
-        <v>12</v>
-      </c>
-      <c r="N106" s="34">
-        <v>12</v>
-      </c>
-      <c r="O106" s="34">
-        <v>12</v>
-      </c>
-      <c r="P106" s="2">
-        <v>12</v>
-      </c>
-      <c r="Q106" s="2">
-        <v>12</v>
-      </c>
-      <c r="R106" s="34">
-        <v>12</v>
-      </c>
-      <c r="S106" s="2">
-        <v>12</v>
-      </c>
-      <c r="T106" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I107" s="2">
-        <v>3</v>
-      </c>
-      <c r="J107" s="2">
-        <v>3</v>
-      </c>
-      <c r="K107" s="8">
-        <v>3</v>
-      </c>
-      <c r="L107" s="34">
-        <v>3</v>
-      </c>
-      <c r="M107" s="34">
-        <v>3</v>
-      </c>
-      <c r="N107" s="34">
-        <v>3</v>
-      </c>
-      <c r="O107" s="34">
-        <v>3</v>
-      </c>
-      <c r="P107" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q107" s="2">
-        <v>3</v>
-      </c>
-      <c r="R107" s="34">
-        <v>3</v>
-      </c>
-      <c r="S107" s="2">
-        <v>3</v>
-      </c>
-      <c r="T107" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I108" s="2">
-        <v>700</v>
-      </c>
-      <c r="J108" s="2">
-        <v>700</v>
-      </c>
-      <c r="K108" s="8">
-        <v>700</v>
-      </c>
-      <c r="L108" s="34">
-        <v>700</v>
-      </c>
-      <c r="M108" s="34">
-        <v>700</v>
-      </c>
-      <c r="N108" s="34">
-        <v>700</v>
-      </c>
-      <c r="O108" s="34">
-        <v>700</v>
-      </c>
-      <c r="P108" s="2">
-        <v>700</v>
-      </c>
-      <c r="Q108" s="2">
-        <v>700</v>
-      </c>
-      <c r="R108" s="34">
-        <v>700</v>
-      </c>
-      <c r="S108" s="2">
-        <v>700</v>
-      </c>
-      <c r="T108" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I109" s="2">
-        <v>100</v>
-      </c>
-      <c r="J109" s="2">
-        <v>1E-10</v>
-      </c>
-      <c r="K109" s="8">
-        <v>100</v>
-      </c>
-      <c r="L109" s="34">
-        <v>100</v>
-      </c>
-      <c r="M109" s="34">
-        <v>100</v>
-      </c>
-      <c r="N109" s="34">
-        <v>100</v>
-      </c>
-      <c r="O109" s="34">
-        <v>100</v>
-      </c>
-      <c r="P109" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q109" s="2">
-        <v>100</v>
-      </c>
-      <c r="R109" s="34">
-        <v>100</v>
-      </c>
-      <c r="S109" s="2">
-        <v>100</v>
-      </c>
-      <c r="T109" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I110" s="2">
-        <v>3</v>
-      </c>
-      <c r="J110" s="2">
-        <v>3</v>
-      </c>
-      <c r="K110" s="8">
-        <v>3</v>
-      </c>
-      <c r="L110" s="34">
-        <v>3</v>
-      </c>
-      <c r="M110" s="34">
-        <v>3</v>
-      </c>
-      <c r="N110" s="34">
-        <v>3</v>
-      </c>
-      <c r="O110" s="34">
-        <v>3</v>
-      </c>
-      <c r="P110" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q110" s="2">
-        <v>3</v>
-      </c>
-      <c r="R110" s="34">
-        <v>3</v>
-      </c>
-      <c r="S110" s="2">
-        <v>3</v>
-      </c>
-      <c r="T110" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I111" s="2">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="K111" s="8">
-        <v>0</v>
-      </c>
-      <c r="L111" s="34">
-        <v>0</v>
-      </c>
-      <c r="M111" s="34">
-        <v>0</v>
-      </c>
-      <c r="N111" s="34">
-        <v>0</v>
-      </c>
-      <c r="O111" s="34">
-        <v>0</v>
-      </c>
-      <c r="P111" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="2">
-        <v>0</v>
-      </c>
-      <c r="R111" s="34">
-        <v>0</v>
-      </c>
-      <c r="S111" s="2">
-        <v>0</v>
-      </c>
-      <c r="T111" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I112" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="J112" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="K112" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="L112" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="M112" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="N112" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="O112" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="P112" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="Q112" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R112" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="S112" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="T112" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I113" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="J113" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="K113" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="L113" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="M113" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="N113" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="O113" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="P113" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="Q113" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R113" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="S113" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="T113" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I114" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="J114" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="K114" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="L114" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="M114" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="N114" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="O114" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="P114" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="Q114" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="R114" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="S114" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T114" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I115" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="J115" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="K115" s="8">
-        <v>3200000000</v>
-      </c>
-      <c r="L115" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="M115" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="N115" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="O115" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="P115" s="2">
-        <v>3200000000</v>
-      </c>
-      <c r="Q115" s="2">
-        <v>3200000000</v>
-      </c>
-      <c r="R115" s="34">
-        <v>3200000000</v>
-      </c>
-      <c r="S115" s="2">
-        <v>3200000000</v>
-      </c>
-      <c r="T115" s="2">
-        <v>3200000000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I116" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="J116" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="K116" s="8">
-        <v>2900000000</v>
-      </c>
-      <c r="L116" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="M116" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="N116" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="O116" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="P116" s="2">
-        <v>2900000000</v>
-      </c>
-      <c r="Q116" s="2">
-        <v>2900000000</v>
-      </c>
-      <c r="R116" s="34">
-        <v>2900000000</v>
-      </c>
-      <c r="S116" s="2">
-        <v>2900000000</v>
-      </c>
-      <c r="T116" s="2">
-        <v>2900000000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I117" s="34">
-        <v>300000</v>
-      </c>
-      <c r="J117" s="34">
-        <v>300000</v>
-      </c>
-      <c r="K117" s="8">
-        <v>300000</v>
-      </c>
-      <c r="L117" s="34">
-        <v>300000</v>
-      </c>
-      <c r="M117" s="34">
-        <v>300000</v>
-      </c>
-      <c r="N117" s="34">
-        <v>300000</v>
-      </c>
-      <c r="O117" s="34">
-        <v>300000</v>
-      </c>
-      <c r="P117" s="2">
-        <v>300000</v>
-      </c>
-      <c r="Q117" s="2">
-        <v>300000</v>
-      </c>
-      <c r="R117" s="34">
-        <v>300000</v>
-      </c>
-      <c r="S117" s="2">
-        <v>300000</v>
-      </c>
-      <c r="T117" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G118" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I118" s="34">
-        <v>1</v>
-      </c>
-      <c r="J118" s="34">
-        <v>1</v>
-      </c>
-      <c r="K118" s="8">
-        <v>1</v>
-      </c>
-      <c r="L118" s="34">
-        <v>1</v>
-      </c>
-      <c r="M118" s="34">
-        <v>1</v>
-      </c>
-      <c r="N118" s="34">
-        <v>1</v>
-      </c>
-      <c r="O118" s="34">
-        <v>1</v>
-      </c>
-      <c r="P118" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q118" s="2">
-        <v>1</v>
-      </c>
-      <c r="R118" s="34">
-        <v>1</v>
-      </c>
-      <c r="S118" s="2">
-        <v>1</v>
-      </c>
-      <c r="T118" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G119" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I119" s="34">
-        <v>1</v>
-      </c>
-      <c r="J119" s="34">
-        <v>1</v>
-      </c>
-      <c r="K119" s="8">
-        <v>1</v>
-      </c>
-      <c r="L119" s="34">
-        <v>1</v>
-      </c>
-      <c r="M119" s="34">
-        <v>1</v>
-      </c>
-      <c r="N119" s="34">
-        <v>1</v>
-      </c>
-      <c r="O119" s="34">
-        <v>1</v>
-      </c>
-      <c r="P119" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q119" s="2">
-        <v>1</v>
-      </c>
-      <c r="R119" s="34">
-        <v>1</v>
-      </c>
-      <c r="S119" s="2">
-        <v>1</v>
-      </c>
-      <c r="T119" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G120" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I120" s="34">
-        <v>1</v>
-      </c>
-      <c r="J120" s="34">
-        <v>1</v>
-      </c>
-      <c r="K120" s="8">
-        <v>1</v>
-      </c>
-      <c r="L120" s="34">
-        <v>1</v>
-      </c>
-      <c r="M120" s="34">
-        <v>1</v>
-      </c>
-      <c r="N120" s="34">
-        <v>1</v>
-      </c>
-      <c r="O120" s="34">
-        <v>1</v>
-      </c>
-      <c r="P120" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q120" s="2">
-        <v>1</v>
-      </c>
-      <c r="R120" s="34">
-        <v>1</v>
-      </c>
-      <c r="S120" s="2">
-        <v>1</v>
-      </c>
-      <c r="T120" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G121" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I121" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="J121" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="K121" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="L121" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="M121" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="N121" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="O121" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="P121" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q121" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R121" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="S121" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T121" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G122" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I122" s="34">
-        <v>15</v>
-      </c>
-      <c r="J122" s="34">
-        <v>15</v>
-      </c>
-      <c r="K122" s="8">
-        <v>15</v>
-      </c>
-      <c r="L122" s="34">
-        <v>15</v>
-      </c>
-      <c r="M122" s="34">
-        <v>15</v>
-      </c>
-      <c r="N122" s="34">
-        <v>15</v>
-      </c>
-      <c r="O122" s="34">
-        <v>15</v>
-      </c>
-      <c r="P122" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q122" s="2">
-        <v>15</v>
-      </c>
-      <c r="R122" s="34">
-        <v>15</v>
-      </c>
-      <c r="S122" s="2">
-        <v>15</v>
-      </c>
-      <c r="T122" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G123" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I123" s="34">
-        <v>5</v>
-      </c>
-      <c r="J123" s="34">
-        <v>5</v>
-      </c>
-      <c r="K123" s="8">
-        <v>5</v>
-      </c>
-      <c r="L123" s="34">
-        <v>5</v>
-      </c>
-      <c r="M123" s="34">
-        <v>5</v>
-      </c>
-      <c r="N123" s="34">
-        <v>5</v>
-      </c>
-      <c r="O123" s="34">
-        <v>5</v>
-      </c>
-      <c r="P123" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q123" s="2">
-        <v>5</v>
-      </c>
-      <c r="R123" s="34">
-        <v>5</v>
-      </c>
-      <c r="S123" s="2">
-        <v>5</v>
-      </c>
-      <c r="T123" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I124" s="34">
-        <v>100</v>
-      </c>
-      <c r="J124" s="34">
-        <v>100</v>
-      </c>
-      <c r="K124" s="8">
-        <v>100</v>
-      </c>
-      <c r="L124" s="34">
-        <v>100</v>
-      </c>
-      <c r="M124" s="34">
-        <v>100</v>
-      </c>
-      <c r="N124" s="34">
-        <v>100</v>
-      </c>
-      <c r="O124" s="34">
-        <v>100</v>
-      </c>
-      <c r="P124" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q124" s="2">
-        <v>100</v>
-      </c>
-      <c r="R124" s="34">
-        <v>100</v>
-      </c>
-      <c r="S124" s="2">
-        <v>100</v>
-      </c>
-      <c r="T124" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="37"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="39"/>
-      <c r="J125" s="39"/>
-      <c r="K125" s="39"/>
-      <c r="L125" s="39"/>
-      <c r="M125" s="39"/>
-      <c r="N125" s="39"/>
-      <c r="O125" s="39"/>
-      <c r="P125" s="39"/>
-      <c r="Q125" s="40"/>
-      <c r="R125" s="40"/>
-      <c r="S125" s="39"/>
-      <c r="T125" s="39"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A126" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
-      <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B127" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F127" s="41"/>
-      <c r="G127" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I127" s="48">
-        <v>10</v>
-      </c>
-      <c r="J127" s="48">
-        <v>10</v>
-      </c>
-      <c r="K127" s="8">
-        <v>10</v>
-      </c>
-      <c r="L127" s="2">
-        <v>10</v>
-      </c>
-      <c r="M127" s="35">
-        <v>10</v>
-      </c>
-      <c r="N127" s="2">
-        <v>10</v>
-      </c>
-      <c r="O127" s="2">
-        <v>10</v>
-      </c>
-      <c r="P127" s="35">
-        <v>10</v>
-      </c>
-      <c r="Q127" s="2">
-        <v>9.65</v>
-      </c>
-      <c r="R127" s="2">
-        <v>9.65</v>
-      </c>
-      <c r="S127" s="2">
-        <v>9.65</v>
-      </c>
-      <c r="T127" s="2">
-        <v>9.65</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B128" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F128" s="41"/>
-      <c r="G128" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I128" s="48">
-        <v>1300</v>
-      </c>
-      <c r="J128" s="48">
-        <v>1300</v>
-      </c>
-      <c r="K128" s="8">
-        <v>1300</v>
-      </c>
-      <c r="L128" s="2">
-        <v>1300</v>
-      </c>
-      <c r="M128" s="35">
-        <v>1300</v>
-      </c>
-      <c r="N128" s="2">
-        <v>1300</v>
-      </c>
-      <c r="O128" s="2">
-        <v>1300</v>
-      </c>
-      <c r="P128" s="35">
-        <v>1300</v>
-      </c>
-      <c r="Q128" s="2">
-        <v>1300</v>
-      </c>
-      <c r="R128" s="2">
-        <v>1300</v>
-      </c>
-      <c r="S128" s="2">
-        <v>1300</v>
-      </c>
-      <c r="T128" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B129" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F129" s="41"/>
-      <c r="G129" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I129" s="48">
-        <v>58</v>
-      </c>
-      <c r="J129" s="48">
-        <v>58</v>
-      </c>
-      <c r="K129" s="8">
-        <v>60</v>
-      </c>
-      <c r="L129" s="2">
-        <v>58</v>
-      </c>
-      <c r="M129" s="35">
-        <v>60</v>
-      </c>
-      <c r="N129" s="2">
-        <v>58</v>
-      </c>
-      <c r="O129" s="2">
-        <v>60</v>
-      </c>
-      <c r="P129" s="35">
-        <v>58</v>
-      </c>
-      <c r="Q129" s="2">
-        <v>115.00000000000001</v>
-      </c>
-      <c r="R129" s="2">
-        <v>115.00000000000001</v>
-      </c>
-      <c r="S129" s="2">
-        <v>115.00000000000001</v>
-      </c>
-      <c r="T129" s="2">
-        <v>115.00000000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B130" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F130" s="41"/>
-      <c r="G130" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I130" s="48">
-        <v>2000</v>
-      </c>
-      <c r="J130" s="48">
-        <v>2000</v>
-      </c>
-      <c r="K130" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L130" s="2">
-        <v>2000</v>
-      </c>
-      <c r="M130" s="35">
-        <v>1500</v>
-      </c>
-      <c r="N130" s="2">
-        <v>2000</v>
-      </c>
-      <c r="O130" s="2">
-        <v>1500</v>
-      </c>
-      <c r="P130" s="35">
-        <v>2000</v>
-      </c>
-      <c r="Q130" s="2">
-        <v>1500</v>
-      </c>
-      <c r="R130" s="2">
-        <v>1500</v>
-      </c>
-      <c r="S130" s="2">
-        <v>1500</v>
-      </c>
-      <c r="T130" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B131" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F131" s="41"/>
-      <c r="G131" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I131" s="48">
-        <v>0.9</v>
-      </c>
-      <c r="J131" s="48">
-        <v>0.9</v>
-      </c>
-      <c r="K131" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="L131" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="M131" s="35">
-        <v>0.9</v>
-      </c>
-      <c r="N131" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="O131" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="P131" s="35">
-        <v>0.9</v>
-      </c>
-      <c r="Q131" s="2">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="R131" s="2">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="S131" s="2">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="T131" s="2">
-        <v>0.69499999999999995</v>
-      </c>
-    </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B132" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F132" s="41"/>
-      <c r="G132" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I132" s="48">
-        <v>2000</v>
-      </c>
-      <c r="J132" s="48">
-        <v>2000</v>
-      </c>
-      <c r="K132" s="8">
-        <v>1600</v>
-      </c>
-      <c r="L132" s="2">
-        <v>2000</v>
-      </c>
-      <c r="M132" s="35">
-        <v>1600</v>
-      </c>
-      <c r="N132" s="2">
-        <v>2000</v>
-      </c>
-      <c r="O132" s="2">
-        <v>1600</v>
-      </c>
-      <c r="P132" s="35">
-        <v>2000</v>
-      </c>
-      <c r="Q132" s="2">
-        <v>2000</v>
-      </c>
-      <c r="R132" s="2">
-        <v>2000</v>
-      </c>
-      <c r="S132" s="2">
-        <v>2000</v>
-      </c>
-      <c r="T132" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B133" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F133" s="43"/>
-      <c r="G133" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I133" s="48">
-        <v>150</v>
-      </c>
-      <c r="J133" s="48">
-        <v>150</v>
-      </c>
-      <c r="K133" s="8">
-        <v>30</v>
-      </c>
-      <c r="L133" s="2">
-        <v>150</v>
-      </c>
-      <c r="M133" s="35">
-        <v>30</v>
-      </c>
-      <c r="N133" s="2">
-        <v>150</v>
-      </c>
-      <c r="O133" s="2">
-        <v>30</v>
-      </c>
-      <c r="P133" s="35">
-        <v>150</v>
-      </c>
-      <c r="Q133" s="2">
-        <v>125.00000000000001</v>
-      </c>
-      <c r="R133" s="2">
-        <v>125.00000000000001</v>
-      </c>
-      <c r="S133" s="2">
-        <v>125.00000000000001</v>
-      </c>
-      <c r="T133" s="2">
-        <v>125.00000000000001</v>
-      </c>
-    </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B134" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F134" s="43"/>
-      <c r="G134" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I134" s="48">
-        <v>2000</v>
-      </c>
-      <c r="J134" s="48">
-        <v>2000</v>
-      </c>
-      <c r="K134" s="8">
-        <v>1300</v>
-      </c>
-      <c r="L134" s="2">
-        <v>2000</v>
-      </c>
-      <c r="M134" s="35">
-        <v>1300</v>
-      </c>
-      <c r="N134" s="2">
-        <v>2000</v>
-      </c>
-      <c r="O134" s="2">
-        <v>1300</v>
-      </c>
-      <c r="P134" s="35">
-        <v>2000</v>
-      </c>
-      <c r="Q134" s="2">
-        <v>1300</v>
-      </c>
-      <c r="R134" s="2">
-        <v>1300</v>
-      </c>
-      <c r="S134" s="2">
-        <v>1300</v>
-      </c>
-      <c r="T134" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B135" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F135" s="43"/>
-      <c r="G135" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I135" s="48">
-        <v>3</v>
-      </c>
-      <c r="J135" s="48">
-        <v>3</v>
-      </c>
-      <c r="K135" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="L135" s="2">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="M135" s="35">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="N135" s="2">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="O135" s="2">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="P135" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q135" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="R135" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="S135" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="T135" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B136" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F136" s="43"/>
-      <c r="G136" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I136" s="48">
-        <v>2500</v>
-      </c>
-      <c r="J136" s="48">
-        <v>2500</v>
-      </c>
-      <c r="K136" s="8">
-        <v>1800</v>
-      </c>
-      <c r="L136" s="2">
-        <v>2200</v>
-      </c>
-      <c r="M136" s="35">
-        <v>2200</v>
-      </c>
-      <c r="N136" s="2">
-        <v>2200</v>
-      </c>
-      <c r="O136" s="2">
-        <v>2200</v>
-      </c>
-      <c r="P136" s="35">
-        <v>2500</v>
-      </c>
-      <c r="Q136" s="2">
-        <v>2000</v>
-      </c>
-      <c r="R136" s="2">
-        <v>2000</v>
-      </c>
-      <c r="S136" s="2">
-        <v>2000</v>
-      </c>
-      <c r="T136" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B137" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F137" s="43"/>
-      <c r="G137" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I137" s="48">
-        <v>150</v>
-      </c>
-      <c r="J137" s="48">
-        <v>150</v>
-      </c>
-      <c r="K137" s="8">
-        <v>125</v>
-      </c>
-      <c r="L137" s="2">
-        <v>150</v>
-      </c>
-      <c r="M137" s="35">
-        <v>125</v>
-      </c>
-      <c r="N137" s="2">
-        <v>150</v>
-      </c>
-      <c r="O137" s="2">
-        <v>125</v>
-      </c>
-      <c r="P137" s="35">
-        <v>150</v>
-      </c>
-      <c r="Q137" s="2">
-        <v>50.000000000000007</v>
-      </c>
-      <c r="R137" s="2">
-        <v>50.000000000000007</v>
-      </c>
-      <c r="S137" s="2">
-        <v>50.000000000000007</v>
-      </c>
-      <c r="T137" s="2">
-        <v>50.000000000000007</v>
-      </c>
-    </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B138" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F138" s="43"/>
-      <c r="G138" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I138" s="48">
-        <v>2000</v>
-      </c>
-      <c r="J138" s="48">
-        <v>2000</v>
-      </c>
-      <c r="K138" s="8">
-        <v>2000</v>
-      </c>
-      <c r="L138" s="2">
-        <v>2000</v>
-      </c>
-      <c r="M138" s="35">
-        <v>2000</v>
-      </c>
-      <c r="N138" s="2">
-        <v>2000</v>
-      </c>
-      <c r="O138" s="2">
-        <v>0</v>
-      </c>
-      <c r="P138" s="35">
-        <v>2000</v>
-      </c>
-      <c r="Q138" s="2">
-        <v>1300</v>
-      </c>
-      <c r="R138" s="2">
-        <v>1300</v>
-      </c>
-      <c r="S138" s="2">
-        <v>1300</v>
-      </c>
-      <c r="T138" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B139" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F139" s="41"/>
-      <c r="G139" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I139" s="48">
-        <v>128</v>
-      </c>
-      <c r="J139" s="48">
-        <v>128</v>
-      </c>
-      <c r="K139" s="8">
-        <v>130</v>
-      </c>
-      <c r="L139" s="2">
-        <v>130</v>
-      </c>
-      <c r="M139" s="35">
-        <v>130</v>
-      </c>
-      <c r="N139" s="2">
-        <v>130</v>
-      </c>
-      <c r="O139" s="2">
-        <v>130</v>
-      </c>
-      <c r="P139" s="35">
-        <v>128</v>
-      </c>
-      <c r="Q139" s="2">
-        <v>65</v>
-      </c>
-      <c r="R139" s="2">
-        <v>65</v>
-      </c>
-      <c r="S139" s="2">
-        <v>65</v>
-      </c>
-      <c r="T139" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B140" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F140" s="43"/>
-      <c r="G140" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I140" s="48">
-        <v>150</v>
-      </c>
-      <c r="J140" s="48">
-        <v>150</v>
-      </c>
-      <c r="K140" s="8">
-        <v>60</v>
-      </c>
-      <c r="L140" s="35">
-        <v>150</v>
-      </c>
-      <c r="M140" s="35">
-        <v>60</v>
-      </c>
-      <c r="N140" s="2">
-        <v>150</v>
-      </c>
-      <c r="O140" s="2">
-        <v>60</v>
-      </c>
-      <c r="P140" s="35">
-        <v>150</v>
-      </c>
-      <c r="Q140" s="2">
-        <v>60.000000000000007</v>
-      </c>
-      <c r="R140" s="2">
-        <v>60.000000000000007</v>
-      </c>
-      <c r="S140" s="2">
-        <v>60.000000000000007</v>
-      </c>
-      <c r="T140" s="2">
-        <v>60.000000000000007</v>
-      </c>
-    </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B141" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F141" s="43"/>
-      <c r="G141" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I141" s="48">
-        <v>2000</v>
-      </c>
-      <c r="J141" s="48">
-        <v>2000</v>
-      </c>
-      <c r="K141" s="8">
-        <v>2000</v>
-      </c>
-      <c r="L141" s="35">
-        <v>2000</v>
-      </c>
-      <c r="M141" s="35">
-        <v>2000</v>
-      </c>
-      <c r="N141" s="2">
-        <v>2000</v>
-      </c>
-      <c r="O141" s="2">
-        <v>0</v>
-      </c>
-      <c r="P141" s="35">
-        <v>2000</v>
-      </c>
-      <c r="Q141" s="2">
-        <v>1300</v>
-      </c>
-      <c r="R141" s="2">
-        <v>1300</v>
-      </c>
-      <c r="S141" s="2">
-        <v>1300</v>
-      </c>
-      <c r="T141" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B142" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F142" s="43"/>
-      <c r="G142" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I142" s="48">
-        <v>128</v>
-      </c>
-      <c r="J142" s="48">
-        <v>128</v>
-      </c>
-      <c r="K142" s="8">
-        <v>130</v>
-      </c>
-      <c r="L142" s="2">
-        <v>31.500356271862902</v>
-      </c>
-      <c r="M142" s="35">
-        <v>31.500356271862902</v>
-      </c>
-      <c r="N142" s="2">
-        <v>31.500356271862902</v>
-      </c>
-      <c r="O142" s="2">
-        <v>31.500356271862902</v>
-      </c>
-      <c r="P142" s="35">
-        <v>128</v>
-      </c>
-      <c r="Q142" s="2">
-        <v>650</v>
-      </c>
-      <c r="R142" s="2">
-        <v>650</v>
-      </c>
-      <c r="S142" s="2">
-        <v>650</v>
-      </c>
-      <c r="T142" s="2">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B143" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F143" s="43"/>
-      <c r="G143" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I143" s="48">
-        <v>2500</v>
-      </c>
-      <c r="J143" s="48">
-        <v>2500</v>
-      </c>
-      <c r="K143" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L143" s="2">
-        <v>2500</v>
-      </c>
-      <c r="M143" s="35">
-        <v>2500</v>
-      </c>
-      <c r="N143" s="2">
-        <v>2500</v>
-      </c>
-      <c r="O143" s="2">
-        <v>2500</v>
-      </c>
-      <c r="P143" s="35">
-        <v>2500</v>
-      </c>
-      <c r="Q143" s="2">
-        <v>2500</v>
-      </c>
-      <c r="R143" s="2">
-        <v>2500</v>
-      </c>
-      <c r="S143" s="2">
-        <v>2500</v>
-      </c>
-      <c r="T143" s="2">
-        <v>2500</v>
-      </c>
+    <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="36"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="38"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="38"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="38"/>
+      <c r="T94" s="38"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I8 I10 I13">
-    <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I97:J110">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+  <conditionalFormatting sqref="I66:J79">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="21" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K85:K93">
-    <cfRule type="expression" dxfId="20" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="K54:K62">
+    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="18" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-3,FALSE)&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="19" stopIfTrue="1">
       <formula>HLOOKUP(ScenarioName,ScenarioData,ROW()-180,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:O8 K10:O10 K13:O13">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L69:L78 I69:J80 L80 I82:J84 L89 L92 J111 I112:J114">
-    <cfRule type="cellIs" dxfId="16" priority="42" operator="equal">
+  <conditionalFormatting sqref="L38:L47 I38:J49 L49 I51:J53 L58 L61 J80 I81:J83">
+    <cfRule type="cellIs" dxfId="9" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M69 M71:M78 M80 M89 M92">
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="M38 M40:M47 M49 M58 M61">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-3,FALSE)&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
       <formula>HLOOKUP(ScenarioName,ScenarioData,ROW()-180,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M127:M137">
-    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M139:M140">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M142:M143">
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N69:O69 N71:O78 N80:O80 O85:O88 N89:O89 O90:O91 N92:O92 O93 I95:O96">
-    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
+  <conditionalFormatting sqref="N38:O38 N40:O47 N49:O49 O54:O57 N58:O58 O59:O60 N61:O61 O62 I64:O65">
+    <cfRule type="cellIs" dxfId="5" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P127:P137">
-    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P139:P140">
-    <cfRule type="expression" dxfId="7" priority="13" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P142:P143">
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P69:Q80 P82:Q98 P101:Q110 P112:Q124">
-    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
+  <conditionalFormatting sqref="P38:Q49 P51:Q67 P70:Q79 P81:Q93">
+    <cfRule type="cellIs" dxfId="4" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R95:S96">
-    <cfRule type="cellIs" dxfId="4" priority="27" operator="equal">
+  <conditionalFormatting sqref="R64:S65">
+    <cfRule type="cellIs" dxfId="3" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S82:S94 S97:S98">
-    <cfRule type="cellIs" dxfId="3" priority="36" operator="equal">
+  <conditionalFormatting sqref="S51:S63 S66:S67">
+    <cfRule type="cellIs" dxfId="2" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S69:T80 S82:T98 S101:T110">
-    <cfRule type="cellIs" dxfId="2" priority="26" operator="equal">
+  <conditionalFormatting sqref="S38:T49 S51:T67 S70:T79">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S112:T124">
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38 I40 I43">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="S81:T93">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SimpleBox4PFAS/src/main/webapp/resources/templates/scenarios.xlsx
+++ b/SimpleBox4PFAS/src/main/webapp/resources/templates/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\git\SimpleBox4PFAS\SimpleBox4PFAS\src\main\webapp\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F19796-D6F5-4F29-B748-41CF063BC4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3651F1-C4C9-4889-8351-3B45DE3A267E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,7 +653,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,11 +703,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -717,7 +712,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -757,15 +752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -789,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -873,23 +859,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -902,6 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25807,10 +25784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ94"/>
+  <dimension ref="A1:AJ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:XFD112"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25920,9 +25897,25 @@
       <c r="S4" s="22"/>
       <c r="T4" s="23"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="40"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
@@ -26324,42 +26317,18 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -26736,42 +26705,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="3"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -26940,42 +26874,18 @@
       <c r="F27" s="7"/>
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="8">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2">
-        <v>0</v>
-      </c>
-      <c r="S27" s="2">
-        <v>0</v>
-      </c>
-      <c r="T27" s="2">
-        <v>0</v>
-      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -27144,42 +27054,18 @@
       <c r="F31" s="7"/>
       <c r="G31" s="3"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="8">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2">
-        <v>0</v>
-      </c>
-      <c r="S31" s="2">
-        <v>0</v>
-      </c>
-      <c r="T31" s="2">
-        <v>0</v>
-      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
@@ -27202,7 +27088,7 @@
       <c r="J32" s="5">
         <v>0</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="37">
         <v>0</v>
       </c>
       <c r="L32" s="5">
@@ -28736,14 +28622,14 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="36" t="s">
         <v>145</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="G68" s="42" t="s">
+      <c r="G68" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="H68" s="43" t="s">
+      <c r="H68" s="39" t="s">
         <v>55</v>
       </c>
       <c r="I68" s="8">
@@ -28784,14 +28670,14 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="36" t="s">
         <v>146</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="G69" s="42" t="s">
+      <c r="G69" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="H69" s="43" t="s">
+      <c r="H69" s="39" t="s">
         <v>55</v>
       </c>
       <c r="I69" s="8">
@@ -29958,28 +29844,6 @@
       <c r="T93" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="36"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="38"/>
-      <c r="O94" s="38"/>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39"/>
-      <c r="S94" s="38"/>
-      <c r="T94" s="38"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I8 I10 I13">
